--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="User Rights" r:id="rId3" sheetId="1"/>
+    <sheet name="About" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="83">
   <si>
     <t>User Right</t>
   </si>
@@ -255,6 +256,12 @@
   </si>
   <si>
     <t>DASHBOARD_CONTACT_ACCESS</t>
+  </si>
+  <si>
+    <t>SORMAS Version</t>
+  </si>
+  <si>
+    <t>1.8.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -3463,4 +3470,27 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -261,7 +261,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.8.0-SNAPSHOT</t>
+    <t>1.9.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="87">
   <si>
     <t>User Right</t>
   </si>
@@ -33,10 +33,13 @@
     <t>Surveillance Officer</t>
   </si>
   <si>
-    <t>Informant</t>
-  </si>
-  <si>
-    <t>Case Supervisor</t>
+    <t>Hospital Informant</t>
+  </si>
+  <si>
+    <t>Community Informant</t>
+  </si>
+  <si>
+    <t>Clinician</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -51,7 +54,10 @@
     <t>Event Officer</t>
   </si>
   <si>
-    <t>Lab Manager</t>
+    <t>Lab Officer</t>
+  </si>
+  <si>
+    <t>External Lab Officer</t>
   </si>
   <si>
     <t>National Observer</t>
@@ -60,6 +66,9 @@
     <t>State Observer</t>
   </si>
   <si>
+    <t>District Observer</t>
+  </si>
+  <si>
     <t>CASE_CREATE</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>OUTBREAK_CONFIGURE_RESTRICTED</t>
   </si>
   <si>
+    <t>STATISTICS_ACCESS</t>
+  </si>
+  <si>
     <t>STATISTICS_EXPORT</t>
   </si>
   <si>
@@ -261,7 +273,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.9.0-SNAPSHOT</t>
+    <t>1.10.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,6 +422,9 @@
     <col min="13" max="13" width="14.0" customWidth="true"/>
     <col min="14" max="14" width="14.0" customWidth="true"/>
     <col min="15" max="15" width="14.0" customWidth="true"/>
+    <col min="16" max="16" width="14.0" customWidth="true"/>
+    <col min="17" max="17" width="14.0" customWidth="true"/>
+    <col min="18" max="18" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,3013 +473,3654 @@
       <c r="O1" t="s" s="3">
         <v>14</v>
       </c>
+      <c r="P1" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3482,12 +4138,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -273,7 +273,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.10.0-SNAPSHOT</t>
+    <t>1.11.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2347,8 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>20</v>
@@ -2515,8 +2515,8 @@
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>20</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="94">
   <si>
     <t>User Right</t>
   </si>
@@ -270,10 +270,31 @@
     <t>DASHBOARD_CONTACT_ACCESS</t>
   </si>
   <si>
+    <t>THERAPY_VIEW</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION_CREATE</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION_EDIT</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION_DELETE</t>
+  </si>
+  <si>
+    <t>TREATMENT_CREATE</t>
+  </si>
+  <si>
+    <t>TREATMENT_EDIT</t>
+  </si>
+  <si>
+    <t>TREATMENT_DELETE</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.11.0-SNAPSHOT</t>
+    <t>1.12.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -401,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4123,6 +4144,398 @@
         <v>19</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4138,12 +4551,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="98">
   <si>
     <t>User Right</t>
   </si>
@@ -291,10 +291,22 @@
     <t>TREATMENT_DELETE</t>
   </si>
   <si>
+    <t>CLINICAL_COURSE_VIEW</t>
+  </si>
+  <si>
+    <t>CLINICAL_VISIT_CREATE</t>
+  </si>
+  <si>
+    <t>CLINICAL_VISIT_EDIT</t>
+  </si>
+  <si>
+    <t>CLINICAL_VISIT_DELETE</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.12.0-SNAPSHOT</t>
+    <t>1.13.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4536,6 +4548,230 @@
         <v>20</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4551,12 +4787,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="99">
   <si>
     <t>User Right</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>CLINICAL_COURSE_VIEW</t>
+  </si>
+  <si>
+    <t>CLINICAL_COURSE_EDIT</t>
   </si>
   <si>
     <t>CLINICAL_VISIT_CREATE</t>
@@ -434,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4166,8 +4169,8 @@
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>19</v>
+      <c r="D67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>20</v>
@@ -4184,8 +4187,8 @@
       <c r="I67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>20</v>
+      <c r="J67" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
@@ -4202,14 +4205,14 @@
       <c r="O67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>19</v>
+      <c r="P67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -4222,8 +4225,8 @@
       <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>19</v>
+      <c r="D68" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -4240,8 +4243,8 @@
       <c r="I68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>20</v>
+      <c r="J68" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
@@ -4278,8 +4281,8 @@
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>19</v>
+      <c r="D69" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -4296,8 +4299,8 @@
       <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>20</v>
+      <c r="J69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
@@ -4390,8 +4393,8 @@
       <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>19</v>
+      <c r="D71" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -4408,8 +4411,8 @@
       <c r="I71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>20</v>
+      <c r="J71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>20</v>
@@ -4446,8 +4449,8 @@
       <c r="C72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>19</v>
+      <c r="D72" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -4464,8 +4467,8 @@
       <c r="I72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>20</v>
+      <c r="J72" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>20</v>
@@ -4558,8 +4561,8 @@
       <c r="C74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
+      <c r="D74" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -4576,8 +4579,8 @@
       <c r="I74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>20</v>
+      <c r="J74" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
@@ -4594,14 +4597,14 @@
       <c r="O74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>19</v>
+      <c r="P74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -4614,8 +4617,8 @@
       <c r="C75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>19</v>
+      <c r="D75" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
@@ -4632,8 +4635,8 @@
       <c r="I75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>20</v>
+      <c r="J75" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -4670,8 +4673,8 @@
       <c r="C76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>19</v>
+      <c r="D76" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -4688,8 +4691,8 @@
       <c r="I76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>20</v>
+      <c r="J76" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -4741,11 +4744,11 @@
       <c r="H77" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>20</v>
+      <c r="I77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>20</v>
@@ -4769,6 +4772,62 @@
         <v>20</v>
       </c>
       <c r="R77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4787,12 +4846,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="104">
   <si>
     <t>User Right</t>
   </si>
@@ -123,6 +123,9 @@
     <t>SAMPLE_EDIT</t>
   </si>
   <si>
+    <t>SAMPLE_EDIT_NOT_OWNED</t>
+  </si>
+  <si>
     <t>SAMPLE_DELETE</t>
   </si>
   <si>
@@ -135,10 +138,22 @@
     <t>SAMPLE_VIEW_ARCHIVED</t>
   </si>
   <si>
-    <t>SAMPLETEST_CREATE</t>
-  </si>
-  <si>
-    <t>SAMPLETEST_EDIT</t>
+    <t>PATHOGEN_TEST_CREATE</t>
+  </si>
+  <si>
+    <t>PATHOGEN_TEST_EDIT</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_TEST_VIEW</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_TEST_CREATE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_TEST_EDIT</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>CONTACT_CREATE</t>
@@ -309,7 +324,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.13.0-SNAPSHOT</t>
+    <t>1.14.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1428,8 +1443,8 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
@@ -1481,11 +1496,11 @@
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
@@ -1496,8 +1511,8 @@
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>20</v>
@@ -1511,11 +1526,11 @@
       <c r="M19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>19</v>
+      <c r="N19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>20</v>
@@ -1558,8 +1573,8 @@
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>20</v>
@@ -1570,17 +1585,17 @@
       <c r="N20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>19</v>
+      <c r="O20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1596,8 +1611,8 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
@@ -1623,8 +1638,8 @@
       <c r="M21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
+      <c r="N21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>20</v>
@@ -1652,8 +1667,8 @@
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
@@ -1670,8 +1685,8 @@
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>20</v>
@@ -1679,20 +1694,20 @@
       <c r="M22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>20</v>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1767,8 +1782,8 @@
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>20</v>
@@ -1776,26 +1791,26 @@
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>19</v>
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>20</v>
+      <c r="N24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
@@ -1817,14 +1832,14 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>20</v>
@@ -1835,32 +1850,32 @@
       <c r="I25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>19</v>
+      <c r="J25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1873,8 +1888,8 @@
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -1888,14 +1903,14 @@
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>19</v>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>20</v>
@@ -1903,11 +1918,11 @@
       <c r="M26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>20</v>
+      <c r="N26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>20</v>
@@ -1929,14 +1944,14 @@
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>19</v>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>20</v>
@@ -1944,26 +1959,26 @@
       <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>19</v>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>20</v>
+      <c r="N27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>20</v>
@@ -2044,11 +2059,11 @@
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>20</v>
@@ -2112,8 +2127,8 @@
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
@@ -2124,8 +2139,8 @@
       <c r="L30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>20</v>
+      <c r="M30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
@@ -2133,14 +2148,14 @@
       <c r="O30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>20</v>
+      <c r="P30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2156,8 +2171,8 @@
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -2168,8 +2183,8 @@
       <c r="H31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>19</v>
+      <c r="I31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
@@ -2183,20 +2198,20 @@
       <c r="M31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>19</v>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>19</v>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -2212,11 +2227,11 @@
       <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>20</v>
@@ -2224,8 +2239,8 @@
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>19</v>
+      <c r="I32" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
@@ -2233,8 +2248,8 @@
       <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
+      <c r="L32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>20</v>
@@ -2245,14 +2260,14 @@
       <c r="O32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>19</v>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -2265,8 +2280,8 @@
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -2286,11 +2301,11 @@
       <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>19</v>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>20</v>
@@ -2392,8 +2407,8 @@
       <c r="H35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>19</v>
+      <c r="I35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>20</v>
@@ -2401,14 +2416,14 @@
       <c r="K35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
+      <c r="L35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>19</v>
+      <c r="N35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>20</v>
@@ -2439,35 +2454,35 @@
       <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>19</v>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>19</v>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>19</v>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>19</v>
+      <c r="O36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>19</v>
@@ -2492,47 +2507,47 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>19</v>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>19</v>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>20</v>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2548,11 +2563,11 @@
       <c r="D38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>19</v>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>20</v>
@@ -2560,8 +2575,8 @@
       <c r="H38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>20</v>
@@ -2569,14 +2584,14 @@
       <c r="K38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>20</v>
+      <c r="L38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>19</v>
+      <c r="N38" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>20</v>
@@ -2616,8 +2631,8 @@
       <c r="H39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
+      <c r="I39" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>20</v>
@@ -2625,8 +2640,8 @@
       <c r="K39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>20</v>
+      <c r="L39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>20</v>
@@ -2637,14 +2652,14 @@
       <c r="O39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>19</v>
+      <c r="P39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -2672,23 +2687,23 @@
       <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>20</v>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>20</v>
+      <c r="K40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>20</v>
+      <c r="M40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>20</v>
@@ -2743,11 +2758,11 @@
       <c r="M41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>20</v>
+      <c r="N41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>19</v>
@@ -2778,32 +2793,32 @@
       <c r="F42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>20</v>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>20</v>
+      <c r="N42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>20</v>
@@ -2831,8 +2846,8 @@
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>20</v>
@@ -2861,14 +2876,14 @@
       <c r="O43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>19</v>
+      <c r="P43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2881,8 +2896,8 @@
       <c r="C44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>20</v>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -2896,14 +2911,14 @@
       <c r="H44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>20</v>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>20</v>
+      <c r="K44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>20</v>
@@ -2917,14 +2932,14 @@
       <c r="O44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>20</v>
+      <c r="P44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -2940,11 +2955,11 @@
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
+      <c r="E45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>20</v>
@@ -2952,20 +2967,20 @@
       <c r="H45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>19</v>
+      <c r="I45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>19</v>
+      <c r="K45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>20</v>
+      <c r="M45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>20</v>
@@ -2973,14 +2988,14 @@
       <c r="O45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>19</v>
+      <c r="P45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -3002,23 +3017,23 @@
       <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>20</v>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>19</v>
@@ -3029,14 +3044,14 @@
       <c r="O46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>20</v>
+      <c r="P46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -3102,32 +3117,32 @@
       <c r="B48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>20</v>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>20</v>
+      <c r="K48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>20</v>
@@ -3135,20 +3150,20 @@
       <c r="M48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>20</v>
+      <c r="N48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>20</v>
+      <c r="P48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -3161,29 +3176,29 @@
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>19</v>
+      <c r="D49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>19</v>
+      <c r="K49" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>20</v>
@@ -3197,14 +3212,14 @@
       <c r="O49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>19</v>
+      <c r="P49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -3217,8 +3232,8 @@
       <c r="C50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -3232,14 +3247,14 @@
       <c r="H50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>20</v>
+      <c r="I50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>20</v>
+      <c r="K50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>20</v>
@@ -3253,14 +3268,14 @@
       <c r="O50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>20</v>
+      <c r="P50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -3273,14 +3288,14 @@
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>20</v>
@@ -3300,8 +3315,8 @@
       <c r="L51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>20</v>
+      <c r="M51" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>20</v>
@@ -3329,14 +3344,14 @@
       <c r="C52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>20</v>
+      <c r="D52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>20</v>
@@ -3356,8 +3371,8 @@
       <c r="L52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>20</v>
+      <c r="M52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>20</v>
@@ -3382,23 +3397,23 @@
       <c r="B53" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>20</v>
+      <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>20</v>
@@ -3421,14 +3436,14 @@
       <c r="O53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>19</v>
+      <c r="P53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -3444,26 +3459,26 @@
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>20</v>
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>20</v>
+      <c r="K54" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>20</v>
@@ -3477,14 +3492,14 @@
       <c r="O54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>20</v>
+      <c r="P54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -3494,14 +3509,14 @@
       <c r="B55" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>20</v>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>19</v>
+      <c r="E55" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
@@ -3553,11 +3568,11 @@
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>19</v>
+      <c r="D56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -3568,14 +3583,14 @@
       <c r="H56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>19</v>
+      <c r="I56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>19</v>
+      <c r="K56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>20</v>
@@ -3583,20 +3598,20 @@
       <c r="M56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>19</v>
+      <c r="N56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>19</v>
+      <c r="P56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -3609,11 +3624,11 @@
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>19</v>
+      <c r="D57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -3624,14 +3639,14 @@
       <c r="H57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>19</v>
+      <c r="I57" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>19</v>
+      <c r="K57" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>20</v>
@@ -3639,20 +3654,20 @@
       <c r="M57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>19</v>
+      <c r="N57" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>19</v>
+      <c r="P57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -3668,8 +3683,8 @@
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>20</v>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
@@ -3701,14 +3716,14 @@
       <c r="O58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>20</v>
+      <c r="P58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -3721,8 +3736,8 @@
       <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>20</v>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -3774,14 +3789,14 @@
       <c r="B60" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>19</v>
+      <c r="C60" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>20</v>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
@@ -3833,11 +3848,11 @@
       <c r="C61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>20</v>
+      <c r="D61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
@@ -3848,14 +3863,14 @@
       <c r="H61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>20</v>
+      <c r="I61" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>20</v>
+      <c r="K61" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>20</v>
@@ -3863,20 +3878,20 @@
       <c r="M61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>20</v>
+      <c r="N61" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>20</v>
+      <c r="P61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3904,14 +3919,14 @@
       <c r="H62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>20</v>
+      <c r="I62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>20</v>
+      <c r="K62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>20</v>
@@ -3919,8 +3934,8 @@
       <c r="M62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>20</v>
+      <c r="N62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>20</v>
@@ -3945,8 +3960,8 @@
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>20</v>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -4001,11 +4016,11 @@
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>19</v>
+      <c r="D64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -4016,35 +4031,35 @@
       <c r="H64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>19</v>
+      <c r="I64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>19</v>
+      <c r="K64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>19</v>
+      <c r="M64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>19</v>
+      <c r="P64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -4057,11 +4072,11 @@
       <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>19</v>
+      <c r="D65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -4072,8 +4087,8 @@
       <c r="H65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>19</v>
+      <c r="I65" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>20</v>
@@ -4084,23 +4099,23 @@
       <c r="L65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>19</v>
+      <c r="M65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>19</v>
+      <c r="P65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -4113,8 +4128,8 @@
       <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>19</v>
+      <c r="D66" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -4134,8 +4149,8 @@
       <c r="J66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>19</v>
+      <c r="K66" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>20</v>
@@ -4149,14 +4164,14 @@
       <c r="O66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>19</v>
+      <c r="P66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -4169,11 +4184,11 @@
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>20</v>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -4184,11 +4199,11 @@
       <c r="H67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>19</v>
+      <c r="I67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
@@ -4205,14 +4220,14 @@
       <c r="O67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>20</v>
+      <c r="P67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -4240,11 +4255,11 @@
       <c r="H68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>19</v>
+      <c r="I68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
@@ -4281,11 +4296,11 @@
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>20</v>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -4299,32 +4314,32 @@
       <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>20</v>
+      <c r="J69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>20</v>
+      <c r="M69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>20</v>
+      <c r="P69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -4337,11 +4352,11 @@
       <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>20</v>
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>20</v>
@@ -4352,8 +4367,8 @@
       <c r="H70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>20</v>
+      <c r="I70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>20</v>
@@ -4364,23 +4379,23 @@
       <c r="L70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>20</v>
+      <c r="M70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>20</v>
+      <c r="P70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -4393,8 +4408,8 @@
       <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>20</v>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -4408,14 +4423,14 @@
       <c r="H71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>20</v>
+      <c r="I71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>20</v>
@@ -4429,14 +4444,14 @@
       <c r="O71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>20</v>
+      <c r="P71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -4520,11 +4535,11 @@
       <c r="H73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>20</v>
+      <c r="I73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>20</v>
@@ -4632,11 +4647,11 @@
       <c r="H75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>19</v>
+      <c r="I75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -4828,6 +4843,286 @@
         <v>20</v>
       </c>
       <c r="R78" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4846,12 +5141,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="105">
   <si>
     <t>User Right</t>
   </si>
@@ -285,6 +285,9 @@
     <t>DASHBOARD_CONTACT_ACCESS</t>
   </si>
   <si>
+    <t>CASE_MANAGEMENT_ACCESS</t>
+  </si>
+  <si>
     <t>THERAPY_VIEW</t>
   </si>
   <si>
@@ -324,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.14.0-SNAPSHOT</t>
+    <t>1.15.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4647,11 +4650,11 @@
       <c r="H75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>20</v>
+      <c r="I75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -4703,11 +4706,11 @@
       <c r="H76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>19</v>
+      <c r="I76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -4815,11 +4818,11 @@
       <c r="H78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>20</v>
+      <c r="I78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>20</v>
@@ -4871,11 +4874,11 @@
       <c r="H79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>19</v>
+      <c r="I79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
@@ -5095,11 +5098,11 @@
       <c r="H83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>20</v>
+      <c r="I83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>20</v>
@@ -5123,6 +5126,62 @@
         <v>20</v>
       </c>
       <c r="R83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5141,12 +5200,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.15.0-SNAPSHOT</t>
+    <t>1.16.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.16.0-SNAPSHOT</t>
+    <t>1.17.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.17.0-SNAPSHOT</t>
+    <t>1.18.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.18.0-SNAPSHOT</t>
+    <t>1.19.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.19.0-SNAPSHOT</t>
+    <t>1.20.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -4497,8 +4497,8 @@
       <c r="M72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>20</v>
+      <c r="N72" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>20</v>
@@ -4706,8 +4706,8 @@
       <c r="H76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>20</v>
+      <c r="I76" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>20</v>
@@ -4874,8 +4874,8 @@
       <c r="H79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>20</v>
+      <c r="I79" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>20</v>
@@ -5154,8 +5154,8 @@
       <c r="H84" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>20</v>
+      <c r="I84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>20</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -327,7 +327,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.20.0-SNAPSHOT</t>
+    <t>1.21.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="106">
   <si>
     <t>User Right</t>
   </si>
@@ -69,6 +69,9 @@
     <t>District Observer</t>
   </si>
   <si>
+    <t>National Clinician</t>
+  </si>
+  <si>
     <t>CASE_CREATE</t>
   </si>
   <si>
@@ -327,7 +330,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.21.0-SNAPSHOT</t>
+    <t>1.22.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -479,6 +482,7 @@
     <col min="16" max="16" width="14.0" customWidth="true"/>
     <col min="17" max="17" width="14.0" customWidth="true"/>
     <col min="18" max="18" width="14.0" customWidth="true"/>
+    <col min="19" max="19" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,4652 +540,4904 @@
       <c r="R1" t="s" s="3">
         <v>17</v>
       </c>
+      <c r="S1" t="s" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S78" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S80" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S81" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S83" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5200,12 +5456,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="114">
   <si>
     <t>User Right</t>
   </si>
@@ -72,6 +72,15 @@
     <t>National Clinician</t>
   </si>
   <si>
+    <t>POE Informant</t>
+  </si>
+  <si>
+    <t>POE Supervisor</t>
+  </si>
+  <si>
+    <t>POE National User</t>
+  </si>
+  <si>
     <t>CASE_CREATE</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
     <t>CASE_TRANSFER</t>
   </si>
   <si>
+    <t>CASE_REFER_FROM_POE</t>
+  </si>
+  <si>
     <t>CASE_INVESTIGATE</t>
   </si>
   <si>
@@ -276,6 +288,12 @@
     <t>INFRASTRUCTURE_VIEW</t>
   </si>
   <si>
+    <t>INFRASTRUCTURE_EXPORT</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE_IMPORT</t>
+  </si>
+  <si>
     <t>USER_RIGHTS_MANAGE</t>
   </si>
   <si>
@@ -327,10 +345,16 @@
     <t>CLINICAL_VISIT_DELETE</t>
   </si>
   <si>
+    <t>PORT_HEALTH_INFO_VIEW</t>
+  </si>
+  <si>
+    <t>PORT_HEALTH_INFO_EDIT</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.22.0-SNAPSHOT</t>
+    <t>1.23.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -458,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -483,6 +507,9 @@
     <col min="17" max="17" width="14.0" customWidth="true"/>
     <col min="18" max="18" width="14.0" customWidth="true"/>
     <col min="19" max="19" width="14.0" customWidth="true"/>
+    <col min="20" max="20" width="14.0" customWidth="true"/>
+    <col min="21" max="21" width="14.0" customWidth="true"/>
+    <col min="22" max="22" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,4902 +570,5998 @@
       <c r="S1" t="s" s="3">
         <v>18</v>
       </c>
+      <c r="T1" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5456,12 +6579,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="115">
   <si>
     <t>User Right</t>
   </si>
@@ -129,6 +129,9 @@
     <t>CASE_VIEW_ARCHIVED</t>
   </si>
   <si>
+    <t>CASE_MERGE</t>
+  </si>
+  <si>
     <t>SAMPLE_CREATE</t>
   </si>
   <si>
@@ -354,7 +357,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.23.0-SNAPSHOT</t>
+    <t>1.24.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1542,26 +1545,26 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>23</v>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>24</v>
@@ -1572,8 +1575,8 @@
       <c r="M16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>23</v>
+      <c r="N16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>24</v>
@@ -1587,8 +1590,8 @@
       <c r="R16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>23</v>
+      <c r="S16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>24</v>
@@ -1631,29 +1634,29 @@
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>23</v>
+      <c r="K17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>23</v>
+      <c r="O17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
@@ -1699,14 +1702,14 @@
       <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>24</v>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>23</v>
@@ -1714,14 +1717,14 @@
       <c r="O18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>24</v>
+      <c r="P18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
@@ -1746,26 +1749,26 @@
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>24</v>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>24</v>
@@ -1776,11 +1779,11 @@
       <c r="M19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>24</v>
+      <c r="N19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>24</v>
@@ -1791,8 +1794,8 @@
       <c r="R19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>24</v>
+      <c r="S19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>24</v>
@@ -1817,8 +1820,8 @@
       <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
@@ -1882,11 +1885,11 @@
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>24</v>
@@ -1897,8 +1900,8 @@
       <c r="H21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>24</v>
@@ -1912,11 +1915,11 @@
       <c r="M21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>23</v>
+      <c r="N21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>24</v>
@@ -1927,8 +1930,8 @@
       <c r="R21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>23</v>
+      <c r="S21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>24</v>
@@ -1971,8 +1974,8 @@
       <c r="J22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>23</v>
+      <c r="K22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>24</v>
@@ -1983,17 +1986,17 @@
       <c r="N22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>23</v>
+      <c r="O22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>23</v>
@@ -2021,8 +2024,8 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>24</v>
@@ -2048,8 +2051,8 @@
       <c r="M23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>24</v>
+      <c r="N23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>24</v>
@@ -2089,8 +2092,8 @@
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>24</v>
@@ -2107,8 +2110,8 @@
       <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>24</v>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>24</v>
@@ -2116,20 +2119,20 @@
       <c r="M24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>24</v>
+      <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>23</v>
@@ -2222,11 +2225,11 @@
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>24</v>
@@ -2240,8 +2243,8 @@
       <c r="I26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>23</v>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>24</v>
@@ -2441,11 +2444,11 @@
       <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>24</v>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>24</v>
@@ -2456,11 +2459,11 @@
       <c r="M29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>24</v>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>24</v>
@@ -2471,8 +2474,8 @@
       <c r="R29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>24</v>
+      <c r="S29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>24</v>
@@ -2494,14 +2497,14 @@
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>24</v>
@@ -2515,11 +2518,11 @@
       <c r="J30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>23</v>
+      <c r="K30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>24</v>
@@ -2577,8 +2580,8 @@
       <c r="H31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>23</v>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>24</v>
@@ -2589,8 +2592,8 @@
       <c r="L31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>23</v>
+      <c r="M31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>24</v>
@@ -2598,17 +2601,17 @@
       <c r="O31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>23</v>
+      <c r="P31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>24</v>
@@ -2633,11 +2636,11 @@
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>24</v>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>24</v>
@@ -2645,8 +2648,8 @@
       <c r="H32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>24</v>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>24</v>
@@ -2654,11 +2657,11 @@
       <c r="K32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>24</v>
+      <c r="L32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>24</v>
@@ -2666,17 +2669,17 @@
       <c r="O32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>24</v>
+      <c r="P32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>24</v>
@@ -2701,11 +2704,11 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>23</v>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>24</v>
@@ -2722,8 +2725,8 @@
       <c r="K33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>23</v>
+      <c r="L33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>24</v>
@@ -2766,14 +2769,14 @@
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>24</v>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
@@ -2787,11 +2790,11 @@
       <c r="J34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>24</v>
+      <c r="K34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>24</v>
@@ -2834,8 +2837,8 @@
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>23</v>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -2855,11 +2858,11 @@
       <c r="J35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>23</v>
+      <c r="K35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>24</v>
@@ -2905,11 +2908,11 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>23</v>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>24</v>
@@ -2976,8 +2979,8 @@
       <c r="E37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>24</v>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>24</v>
@@ -2985,8 +2988,8 @@
       <c r="H37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
+      <c r="I37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>24</v>
@@ -2994,29 +2997,29 @@
       <c r="K37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>24</v>
+      <c r="L37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>23</v>
+      <c r="N37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>23</v>
+      <c r="P37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>24</v>
@@ -3041,8 +3044,8 @@
       <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>24</v>
@@ -3068,8 +3071,8 @@
       <c r="M38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>24</v>
+      <c r="N38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>24</v>
@@ -3121,8 +3124,8 @@
       <c r="H39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>24</v>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>24</v>
@@ -3130,8 +3133,8 @@
       <c r="K39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>23</v>
+      <c r="L39" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>24</v>
@@ -3142,17 +3145,17 @@
       <c r="O39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>24</v>
+      <c r="P39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>24</v>
@@ -3245,11 +3248,11 @@
       <c r="D41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>23</v>
+      <c r="E41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>24</v>
@@ -3257,8 +3260,8 @@
       <c r="H41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
+      <c r="I41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>24</v>
@@ -3266,14 +3269,14 @@
       <c r="K41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>24</v>
+      <c r="L41" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>23</v>
+      <c r="N41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>24</v>
@@ -3287,17 +3290,17 @@
       <c r="R41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>23</v>
+      <c r="S41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>23</v>
+      <c r="U41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -3319,47 +3322,47 @@
       <c r="F42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>23</v>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>23</v>
+      <c r="J42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>23</v>
+      <c r="L42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>23</v>
+      <c r="O42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>23</v>
+      <c r="T42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>23</v>
@@ -3414,14 +3417,14 @@
       <c r="O43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>24</v>
+      <c r="P43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>23</v>
@@ -3455,32 +3458,32 @@
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>24</v>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>24</v>
+      <c r="J44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>24</v>
+      <c r="L44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>24</v>
+      <c r="O44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>24</v>
@@ -3494,8 +3497,8 @@
       <c r="S44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>24</v>
+      <c r="T44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>23</v>
@@ -3517,11 +3520,11 @@
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>24</v>
+      <c r="E45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>24</v>
@@ -3544,20 +3547,20 @@
       <c r="M45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>24</v>
+      <c r="N45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>23</v>
+      <c r="P45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>23</v>
@@ -3585,11 +3588,11 @@
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>23</v>
+      <c r="E46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>24</v>
@@ -3597,20 +3600,20 @@
       <c r="H46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>24</v>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>24</v>
+      <c r="K46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>23</v>
+      <c r="M46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>24</v>
@@ -3618,26 +3621,26 @@
       <c r="O46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>24</v>
+      <c r="P46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>24</v>
+      <c r="U46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -3659,23 +3662,23 @@
       <c r="F47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>23</v>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>23</v>
@@ -3686,23 +3689,23 @@
       <c r="O47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>23</v>
+      <c r="P47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>24</v>
@@ -3727,23 +3730,23 @@
       <c r="F48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>24</v>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>23</v>
@@ -3754,23 +3757,23 @@
       <c r="O48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>24</v>
+      <c r="P48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>24</v>
@@ -3792,8 +3795,8 @@
       <c r="E49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>24</v>
+      <c r="F49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -3801,47 +3804,47 @@
       <c r="H49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>23</v>
+      <c r="I49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>23</v>
+      <c r="K49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>23</v>
+      <c r="M49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>23</v>
+      <c r="P49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>23</v>
+      <c r="U49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -3854,11 +3857,11 @@
       <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>24</v>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>24</v>
@@ -3869,14 +3872,14 @@
       <c r="H50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>24</v>
+      <c r="I50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>24</v>
+      <c r="K50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>24</v>
@@ -3884,32 +3887,32 @@
       <c r="M50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>24</v>
+      <c r="N50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>24</v>
+      <c r="P50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>24</v>
+      <c r="U50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -3922,8 +3925,8 @@
       <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>23</v>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
@@ -3937,14 +3940,14 @@
       <c r="H51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>23</v>
+      <c r="I51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>23</v>
+      <c r="K51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>24</v>
@@ -3958,26 +3961,26 @@
       <c r="O51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>23</v>
+      <c r="P51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>23</v>
+      <c r="U51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -3993,11 +3996,11 @@
       <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>23</v>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>24</v>
@@ -4005,20 +4008,20 @@
       <c r="H52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>24</v>
+      <c r="I52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>24</v>
+      <c r="K52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>23</v>
+      <c r="M52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>24</v>
@@ -4026,26 +4029,26 @@
       <c r="O52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>24</v>
+      <c r="P52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>24</v>
+      <c r="U52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -4123,23 +4126,23 @@
       <c r="B54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>24</v>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>23</v>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>24</v>
@@ -4153,8 +4156,8 @@
       <c r="L54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>24</v>
+      <c r="M54" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>24</v>
@@ -4191,14 +4194,14 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>23</v>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>23</v>
@@ -4209,14 +4212,14 @@
       <c r="H55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>23</v>
+      <c r="I55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>23</v>
+      <c r="K55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>24</v>
@@ -4230,17 +4233,17 @@
       <c r="O55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>23</v>
+      <c r="P55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>24</v>
@@ -4262,29 +4265,29 @@
       <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>24</v>
+      <c r="D56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>24</v>
+      <c r="K56" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>24</v>
@@ -4298,17 +4301,17 @@
       <c r="O56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>24</v>
+      <c r="P56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>24</v>
@@ -4466,11 +4469,11 @@
       <c r="C59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>23</v>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>24</v>
@@ -4502,26 +4505,26 @@
       <c r="O59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>23</v>
+      <c r="P59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>23</v>
+      <c r="U59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -4537,8 +4540,8 @@
       <c r="D60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>24</v>
+      <c r="E60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>24</v>
@@ -4570,26 +4573,26 @@
       <c r="O60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>24</v>
+      <c r="P60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>24</v>
+      <c r="U60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -4599,14 +4602,14 @@
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>23</v>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>24</v>
@@ -4667,11 +4670,11 @@
       <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>23</v>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>23</v>
@@ -4685,14 +4688,14 @@
       <c r="H62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>23</v>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>23</v>
+      <c r="K62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>24</v>
@@ -4700,32 +4703,32 @@
       <c r="M62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>23</v>
+      <c r="N62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>23</v>
+      <c r="P62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>23</v>
+      <c r="U62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -4809,8 +4812,8 @@
       <c r="D64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>24</v>
+      <c r="E64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>24</v>
@@ -4821,14 +4824,14 @@
       <c r="H64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>24</v>
+      <c r="I64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>24</v>
+      <c r="K64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>24</v>
@@ -4836,32 +4839,32 @@
       <c r="M64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>24</v>
+      <c r="N64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>24</v>
+      <c r="P64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>24</v>
+      <c r="U64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -4874,8 +4877,8 @@
       <c r="C65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>24</v>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>24</v>
@@ -5078,11 +5081,11 @@
       <c r="C68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>23</v>
+      <c r="D68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>24</v>
@@ -5114,26 +5117,26 @@
       <c r="O68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>23</v>
+      <c r="P68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>23</v>
+      <c r="U68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -5214,11 +5217,11 @@
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>24</v>
+      <c r="D70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>24</v>
@@ -5250,26 +5253,26 @@
       <c r="O70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>24</v>
+      <c r="P70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>24</v>
+      <c r="U70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -5350,11 +5353,11 @@
       <c r="C72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>23</v>
+      <c r="D72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>24</v>
@@ -5365,47 +5368,47 @@
       <c r="H72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>23</v>
+      <c r="I72" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>23</v>
+      <c r="K72" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>23</v>
+      <c r="M72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>23</v>
+      <c r="P72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>23</v>
+      <c r="U72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73">
@@ -5439,8 +5442,8 @@
       <c r="J73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>24</v>
+      <c r="K73" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>24</v>
@@ -5489,8 +5492,8 @@
       <c r="D74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>24</v>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>24</v>
@@ -5501,23 +5504,23 @@
       <c r="H74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>24</v>
+      <c r="I74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>23</v>
+      <c r="K74" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>24</v>
+      <c r="M74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>24</v>
@@ -5531,17 +5534,17 @@
       <c r="R74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S74" s="2" t="s">
-        <v>24</v>
+      <c r="S74" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>24</v>
+      <c r="U74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -5554,8 +5557,8 @@
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>24</v>
+      <c r="D75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -5569,14 +5572,14 @@
       <c r="H75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>24</v>
+      <c r="I75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>24</v>
@@ -5584,23 +5587,23 @@
       <c r="M75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>23</v>
+      <c r="N75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>23</v>
+      <c r="P75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>24</v>
@@ -5652,8 +5655,8 @@
       <c r="M76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>24</v>
+      <c r="N76" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>24</v>
@@ -5844,8 +5847,8 @@
       <c r="I79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>24</v>
+      <c r="J79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>24</v>
@@ -5912,8 +5915,8 @@
       <c r="I80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>23</v>
+      <c r="J80" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>24</v>
@@ -6048,8 +6051,8 @@
       <c r="I82" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>24</v>
+      <c r="J82" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>24</v>
@@ -6116,8 +6119,8 @@
       <c r="I83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>23</v>
+      <c r="J83" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>24</v>
@@ -6388,8 +6391,8 @@
       <c r="I87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>24</v>
+      <c r="J87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>24</v>
@@ -6438,62 +6441,62 @@
       <c r="C88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>23</v>
+      <c r="D88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>23</v>
+      <c r="J88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>23</v>
+      <c r="P88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>23</v>
+      <c r="T88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89">
@@ -6515,41 +6518,41 @@
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>24</v>
+      <c r="G89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>24</v>
+      <c r="P89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>23</v>
@@ -6561,6 +6564,74 @@
         <v>23</v>
       </c>
       <c r="V89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V90" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6579,12 +6650,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -357,7 +357,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.24.0-SNAPSHOT</t>
+    <t>1.25.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -357,7 +357,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.25.0-SNAPSHOT</t>
+    <t>1.26.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="120">
   <si>
     <t>User Right</t>
   </si>
@@ -162,6 +162,9 @@
     <t>PATHOGEN_TEST_EDIT</t>
   </si>
   <si>
+    <t>PATHOGEN_TEST_DELETE</t>
+  </si>
+  <si>
     <t>ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
     <t>VISIT_EDIT</t>
   </si>
   <si>
+    <t>VISIT_DELETE</t>
+  </si>
+  <si>
     <t>TASK_CREATE</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>TASK_VIEW_ARCHIVED</t>
   </si>
   <si>
+    <t>TASK_DELETE</t>
+  </si>
+  <si>
     <t>EVENT_CREATE</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>EVENT_ARCHIVE</t>
   </si>
   <si>
+    <t>EVENT_DELETE</t>
+  </si>
+  <si>
     <t>EVENT_VIEW_ARCHIVED</t>
   </si>
   <si>
@@ -354,10 +366,13 @@
     <t>PORT_HEALTH_INFO_EDIT</t>
   </si>
   <si>
+    <t>POPULATION_MANAGE</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.26.0-SNAPSHOT</t>
+    <t>1.27.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2308,11 +2323,11 @@
       <c r="H27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>23</v>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>24</v>
@@ -2323,11 +2338,11 @@
       <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>23</v>
+      <c r="N27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>24</v>
@@ -2338,8 +2353,8 @@
       <c r="R27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>23</v>
+      <c r="S27" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>24</v>
@@ -2512,11 +2527,11 @@
       <c r="H30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>24</v>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>24</v>
@@ -2527,11 +2542,11 @@
       <c r="M30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>24</v>
+      <c r="N30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>24</v>
@@ -2542,8 +2557,8 @@
       <c r="R30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>24</v>
+      <c r="S30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>24</v>
@@ -2565,14 +2580,14 @@
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>24</v>
@@ -2586,11 +2601,11 @@
       <c r="J31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>23</v>
+      <c r="K31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>24</v>
@@ -2648,8 +2663,8 @@
       <c r="H32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>23</v>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>24</v>
@@ -2660,8 +2675,8 @@
       <c r="L32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>23</v>
+      <c r="M32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>24</v>
@@ -2669,17 +2684,17 @@
       <c r="O32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>23</v>
+      <c r="P32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>24</v>
@@ -2704,11 +2719,11 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>24</v>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>24</v>
@@ -2716,8 +2731,8 @@
       <c r="H33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>24</v>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>24</v>
@@ -2725,11 +2740,11 @@
       <c r="K33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>24</v>
+      <c r="L33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>24</v>
@@ -2737,17 +2752,17 @@
       <c r="O33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>24</v>
+      <c r="P33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>24</v>
@@ -2772,11 +2787,11 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>23</v>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>24</v>
@@ -2793,8 +2808,8 @@
       <c r="K34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>23</v>
+      <c r="L34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>24</v>
@@ -2837,14 +2852,14 @@
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>24</v>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>24</v>
@@ -2858,11 +2873,11 @@
       <c r="J35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>24</v>
+      <c r="K35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>24</v>
@@ -2905,8 +2920,8 @@
       <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
@@ -2926,11 +2941,11 @@
       <c r="J36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>23</v>
+      <c r="K36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>24</v>
@@ -2976,11 +2991,11 @@
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>24</v>
@@ -3047,8 +3062,8 @@
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>24</v>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>24</v>
@@ -3056,8 +3071,8 @@
       <c r="H38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>23</v>
+      <c r="I38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>24</v>
@@ -3065,29 +3080,29 @@
       <c r="K38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>24</v>
+      <c r="L38" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>23</v>
+      <c r="N38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>23</v>
+      <c r="P38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>24</v>
@@ -3112,8 +3127,8 @@
       <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
+      <c r="E39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>24</v>
@@ -3139,8 +3154,8 @@
       <c r="M39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>24</v>
+      <c r="N39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>24</v>
@@ -3192,8 +3207,8 @@
       <c r="H40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>24</v>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>24</v>
@@ -3201,8 +3216,8 @@
       <c r="K40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>23</v>
+      <c r="L40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>24</v>
@@ -3213,17 +3228,17 @@
       <c r="O40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>24</v>
+      <c r="P40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>24</v>
@@ -3316,11 +3331,11 @@
       <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>23</v>
+      <c r="E42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>24</v>
@@ -3328,8 +3343,8 @@
       <c r="H42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>23</v>
+      <c r="I42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>24</v>
@@ -3337,14 +3352,14 @@
       <c r="K42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>24</v>
+      <c r="L42" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>23</v>
+      <c r="N42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>24</v>
@@ -3358,17 +3373,17 @@
       <c r="R42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>23</v>
+      <c r="S42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>23</v>
+      <c r="U42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3381,62 +3396,62 @@
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>23</v>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -3458,32 +3473,32 @@
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>23</v>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>23</v>
+      <c r="J44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>23</v>
+      <c r="L44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>23</v>
+      <c r="O44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>24</v>
@@ -3497,8 +3512,8 @@
       <c r="S44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>23</v>
+      <c r="T44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>23</v>
@@ -3526,47 +3541,47 @@
       <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>24</v>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>24</v>
+      <c r="J45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>24</v>
+      <c r="L45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>24</v>
+      <c r="O45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>24</v>
+      <c r="T45" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>23</v>
@@ -3588,53 +3603,53 @@
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>24</v>
+      <c r="E46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>24</v>
+      <c r="J46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>23</v>
+      <c r="L46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="2" t="s">
-        <v>24</v>
+      <c r="T46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>23</v>
@@ -3668,23 +3683,23 @@
       <c r="H47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>24</v>
+      <c r="I47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>24</v>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>24</v>
+      <c r="M47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>24</v>
@@ -3698,17 +3713,17 @@
       <c r="R47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S47" s="2" t="s">
-        <v>24</v>
+      <c r="S47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>24</v>
+      <c r="U47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -3724,32 +3739,32 @@
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>23</v>
+      <c r="E48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>23</v>
+      <c r="J48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>23</v>
+      <c r="L48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>24</v>
@@ -3769,14 +3784,14 @@
       <c r="S48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>23</v>
+      <c r="T48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>24</v>
+      <c r="V48" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -3789,14 +3804,14 @@
       <c r="C49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>23</v>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>24</v>
@@ -3816,8 +3831,8 @@
       <c r="L49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>23</v>
+      <c r="M49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>24</v>
@@ -3863,8 +3878,8 @@
       <c r="E50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>24</v>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>24</v>
@@ -3872,47 +3887,47 @@
       <c r="H50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>23</v>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>23</v>
+      <c r="K50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>23</v>
+      <c r="M50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>23</v>
+      <c r="P50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>23</v>
+      <c r="U50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -3925,35 +3940,35 @@
       <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>24</v>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>24</v>
@@ -3961,23 +3976,23 @@
       <c r="O51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>24</v>
+      <c r="P51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>24</v>
@@ -3996,11 +4011,11 @@
       <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>24</v>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>24</v>
@@ -4008,20 +4023,20 @@
       <c r="H52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>23</v>
+      <c r="I52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>23</v>
+      <c r="K52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>24</v>
+      <c r="M52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>24</v>
@@ -4029,26 +4044,26 @@
       <c r="O52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>23</v>
+      <c r="P52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>23</v>
+      <c r="U52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -4067,8 +4082,8 @@
       <c r="E53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>23</v>
+      <c r="F53" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>24</v>
@@ -4076,47 +4091,47 @@
       <c r="H53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>24</v>
+      <c r="I53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>24</v>
+      <c r="K53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>24</v>
+      <c r="M53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>24</v>
+      <c r="P53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>24</v>
+      <c r="U53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -4129,14 +4144,14 @@
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>23</v>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>24</v>
@@ -4156,8 +4171,8 @@
       <c r="L54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>23</v>
+      <c r="M54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>24</v>
@@ -4194,8 +4209,8 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>24</v>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>24</v>
@@ -4203,14 +4218,14 @@
       <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>23</v>
+      <c r="F55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>24</v>
@@ -4268,17 +4283,17 @@
       <c r="D56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>23</v>
+      <c r="E56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>23</v>
@@ -4316,11 +4331,11 @@
       <c r="T56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>24</v>
+      <c r="U56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -4333,14 +4348,14 @@
       <c r="C57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>24</v>
+      <c r="D57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>24</v>
@@ -4360,8 +4375,8 @@
       <c r="L57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>24</v>
+      <c r="M57" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>24</v>
@@ -4401,14 +4416,14 @@
       <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>24</v>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>24</v>
@@ -4428,8 +4443,8 @@
       <c r="L58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>24</v>
+      <c r="M58" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>24</v>
@@ -4466,8 +4481,8 @@
       <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>23</v>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>24</v>
@@ -4475,14 +4490,14 @@
       <c r="E59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>24</v>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
@@ -4543,23 +4558,23 @@
       <c r="E60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>24</v>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>24</v>
+      <c r="K60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>24</v>
@@ -4588,11 +4603,11 @@
       <c r="T60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>23</v>
+      <c r="U60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -4605,8 +4620,8 @@
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>23</v>
+      <c r="D61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>24</v>
@@ -4670,14 +4685,14 @@
       <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>24</v>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>23</v>
+      <c r="E62" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>24</v>
@@ -4741,11 +4756,11 @@
       <c r="C63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>23</v>
+      <c r="D63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>24</v>
@@ -4756,14 +4771,14 @@
       <c r="H63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>23</v>
+      <c r="I63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>23</v>
+      <c r="K63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>24</v>
@@ -4771,32 +4786,32 @@
       <c r="M63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>23</v>
+      <c r="N63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>23</v>
+      <c r="P63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>23</v>
+      <c r="U63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -4824,14 +4839,14 @@
       <c r="H64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>23</v>
+      <c r="I64" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>23</v>
+      <c r="K64" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>24</v>
@@ -4839,8 +4854,8 @@
       <c r="M64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>23</v>
+      <c r="N64" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>24</v>
@@ -4942,14 +4957,14 @@
       <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>23</v>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>24</v>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>24</v>
@@ -5013,11 +5028,11 @@
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>24</v>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>24</v>
@@ -5028,14 +5043,14 @@
       <c r="H67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>24</v>
+      <c r="I67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>24</v>
+      <c r="K67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>24</v>
@@ -5043,32 +5058,32 @@
       <c r="M67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N67" s="2" t="s">
-        <v>24</v>
+      <c r="N67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>24</v>
+      <c r="P67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>24</v>
+      <c r="U67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -5081,11 +5096,11 @@
       <c r="C68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>24</v>
+      <c r="D68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>24</v>
@@ -5096,14 +5111,14 @@
       <c r="H68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>24</v>
+      <c r="I68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>24</v>
+      <c r="K68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>24</v>
@@ -5111,32 +5126,32 @@
       <c r="M68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N68" s="2" t="s">
-        <v>24</v>
+      <c r="N68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>24</v>
+      <c r="P68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>24</v>
+      <c r="U68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -5152,8 +5167,8 @@
       <c r="D69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>23</v>
+      <c r="E69" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>24</v>
@@ -5185,26 +5200,26 @@
       <c r="O69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>23</v>
+      <c r="P69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>23</v>
+      <c r="U69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
@@ -5217,11 +5232,11 @@
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>23</v>
+      <c r="D70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>24</v>
@@ -5253,26 +5268,26 @@
       <c r="O70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>23</v>
+      <c r="P70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>23</v>
+      <c r="U70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -5436,23 +5451,23 @@
       <c r="H73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>23</v>
+      <c r="I73" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>23</v>
+      <c r="K73" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>23</v>
+      <c r="M73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>24</v>
@@ -5504,8 +5519,8 @@
       <c r="H74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>23</v>
+      <c r="I74" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>24</v>
@@ -5516,11 +5531,11 @@
       <c r="L74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>23</v>
+      <c r="M74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>24</v>
@@ -5557,8 +5572,8 @@
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>23</v>
+      <c r="D75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>24</v>
@@ -5578,8 +5593,8 @@
       <c r="J75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>23</v>
+      <c r="K75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>24</v>
@@ -5593,14 +5608,14 @@
       <c r="O75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>23</v>
+      <c r="P75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>24</v>
@@ -5640,11 +5655,11 @@
       <c r="H76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>23</v>
+      <c r="I76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>24</v>
@@ -5655,8 +5670,8 @@
       <c r="M76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>23</v>
+      <c r="N76" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>24</v>
@@ -5670,8 +5685,8 @@
       <c r="R76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S76" s="1" t="s">
-        <v>23</v>
+      <c r="S76" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T76" s="2" t="s">
         <v>24</v>
@@ -5693,11 +5708,11 @@
       <c r="C77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>24</v>
+      <c r="D77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>24</v>
@@ -5711,32 +5726,32 @@
       <c r="I77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>24</v>
+      <c r="J77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>24</v>
+      <c r="M77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>24</v>
+      <c r="P77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>23</v>
@@ -5744,11 +5759,11 @@
       <c r="T77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>24</v>
+      <c r="U77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -5761,11 +5776,11 @@
       <c r="C78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>24</v>
+      <c r="D78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>24</v>
@@ -5779,8 +5794,8 @@
       <c r="I78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>23</v>
+      <c r="J78" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>24</v>
@@ -5788,23 +5803,23 @@
       <c r="L78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>24</v>
+      <c r="M78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>24</v>
+      <c r="P78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>23</v>
@@ -5812,11 +5827,11 @@
       <c r="T78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>24</v>
+      <c r="U78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -5829,8 +5844,8 @@
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>24</v>
+      <c r="D79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>24</v>
@@ -5844,14 +5859,14 @@
       <c r="H79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>24</v>
+      <c r="I79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>24</v>
@@ -5865,17 +5880,17 @@
       <c r="O79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>23</v>
+      <c r="P79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T79" s="2" t="s">
         <v>24</v>
@@ -5915,8 +5930,8 @@
       <c r="I80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>24</v>
+      <c r="J80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>24</v>
@@ -5927,8 +5942,8 @@
       <c r="M80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>24</v>
+      <c r="N80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>24</v>
@@ -6119,8 +6134,8 @@
       <c r="I83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>24</v>
+      <c r="J83" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>24</v>
@@ -6187,8 +6202,8 @@
       <c r="I84" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>23</v>
+      <c r="J84" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>24</v>
@@ -6391,8 +6406,8 @@
       <c r="I87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>23</v>
+      <c r="J87" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>24</v>
@@ -6459,8 +6474,8 @@
       <c r="I88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>24</v>
+      <c r="J88" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>24</v>
@@ -6509,20 +6524,20 @@
       <c r="C89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>23</v>
+      <c r="D89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>23</v>
@@ -6530,41 +6545,41 @@
       <c r="J89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>23</v>
+      <c r="K89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>23</v>
+      <c r="P89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>23</v>
+      <c r="T89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="90">
@@ -6577,14 +6592,14 @@
       <c r="C90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>23</v>
+      <c r="D90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>24</v>
@@ -6592,11 +6607,11 @@
       <c r="H90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>24</v>
+      <c r="I90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>24</v>
@@ -6625,14 +6640,354 @@
       <c r="S90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>23</v>
+      <c r="T90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="3">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6650,12 +7005,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -372,7 +372,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.27.0-SNAPSHOT</t>
+    <t>1.28.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -372,7 +372,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.28.0-SNAPSHOT</t>
+    <t>1.29.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2178,8 @@
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>24</v>
@@ -2246,8 +2246,8 @@
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>24</v>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>24</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -372,7 +372,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.29.0-SNAPSHOT</t>
+    <t>1.30.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="123">
   <si>
     <t>User Right</t>
   </si>
@@ -369,10 +369,19 @@
     <t>POPULATION_MANAGE</t>
   </si>
   <si>
+    <t>LINE_LISTING_CONFIGURE</t>
+  </si>
+  <si>
+    <t>LINE_LISTING_CONFIGURE_NATION</t>
+  </si>
+  <si>
+    <t>AGGREGATE_REPORT_VIEW</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.30.0-SNAPSHOT</t>
+    <t>1.31.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6990,6 +6999,210 @@
         <v>24</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="s" s="3">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="3">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7005,12 +7218,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="124">
   <si>
     <t>User Right</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>AGGREGATE_REPORT_VIEW</t>
+  </si>
+  <si>
+    <t>AGGREGATE_REPORT_EXPORT</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7203,6 +7206,74 @@
         <v>23</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7218,12 +7289,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -384,7 +384,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.31.0-SNAPSHOT</t>
+    <t>1.32.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="126">
   <si>
     <t>User Right</t>
   </si>
@@ -303,10 +303,16 @@
     <t>INFRASTRUCTURE_VIEW</t>
   </si>
   <si>
+    <t>INFRASTRUCTURE_VIEW_ARCHIVED</t>
+  </si>
+  <si>
     <t>INFRASTRUCTURE_EXPORT</t>
   </si>
   <si>
     <t>INFRASTRUCTURE_IMPORT</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE_ARCHIVE</t>
   </si>
   <si>
     <t>USER_RIGHTS_MANAGE</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5519,8 +5525,8 @@
       <c r="D74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>23</v>
+      <c r="E74" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>24</v>
@@ -5555,23 +5561,23 @@
       <c r="P74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>23</v>
+      <c r="Q74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>23</v>
+      <c r="U74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -5584,11 +5590,11 @@
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>24</v>
+      <c r="D75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>24</v>
@@ -5620,26 +5626,26 @@
       <c r="O75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>24</v>
+      <c r="P75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>24</v>
+      <c r="U75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -5723,8 +5729,8 @@
       <c r="D77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>23</v>
+      <c r="E77" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>24</v>
@@ -5735,47 +5741,47 @@
       <c r="H77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>23</v>
+      <c r="I77" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>23</v>
+      <c r="K77" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>23</v>
+      <c r="M77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>23</v>
+      <c r="P77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>23</v>
+      <c r="U77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -5788,11 +5794,11 @@
       <c r="C78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>23</v>
+      <c r="D78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>24</v>
@@ -5803,8 +5809,8 @@
       <c r="H78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>23</v>
+      <c r="I78" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>24</v>
@@ -5815,35 +5821,35 @@
       <c r="L78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>23</v>
+      <c r="M78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>23</v>
+      <c r="P78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>23</v>
+      <c r="U78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -5859,8 +5865,8 @@
       <c r="D79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>24</v>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>24</v>
@@ -5871,8 +5877,8 @@
       <c r="H79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>24</v>
+      <c r="I79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>24</v>
@@ -5883,11 +5889,11 @@
       <c r="L79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>24</v>
+      <c r="M79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>24</v>
@@ -5901,17 +5907,17 @@
       <c r="R79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S79" s="2" t="s">
-        <v>24</v>
+      <c r="S79" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="T79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>24</v>
+      <c r="U79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -5924,11 +5930,11 @@
       <c r="C80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>24</v>
+      <c r="D80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>24</v>
@@ -5942,8 +5948,8 @@
       <c r="I80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>23</v>
+      <c r="J80" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>24</v>
@@ -5951,8 +5957,8 @@
       <c r="L80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>24</v>
+      <c r="M80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>23</v>
@@ -5960,14 +5966,14 @@
       <c r="O80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>24</v>
+      <c r="P80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>23</v>
@@ -5975,11 +5981,11 @@
       <c r="T80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>24</v>
+      <c r="U80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -5992,8 +5998,8 @@
       <c r="C81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>24</v>
+      <c r="D81" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>24</v>
@@ -6007,14 +6013,14 @@
       <c r="H81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>24</v>
+      <c r="I81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>24</v>
@@ -6028,17 +6034,17 @@
       <c r="O81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>23</v>
+      <c r="P81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>24</v>
@@ -6090,8 +6096,8 @@
       <c r="M82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>24</v>
+      <c r="N82" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>24</v>
@@ -6214,8 +6220,8 @@
       <c r="I84" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>24</v>
+      <c r="J84" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>24</v>
@@ -6350,8 +6356,8 @@
       <c r="I86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>23</v>
+      <c r="J86" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>24</v>
@@ -6418,8 +6424,8 @@
       <c r="I87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>24</v>
+      <c r="J87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>24</v>
@@ -6554,8 +6560,8 @@
       <c r="I89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>23</v>
+      <c r="J89" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>24</v>
@@ -6758,8 +6764,8 @@
       <c r="I92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>24</v>
+      <c r="J92" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>24</v>
@@ -6808,20 +6814,20 @@
       <c r="C93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>23</v>
+      <c r="D93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>23</v>
@@ -6829,41 +6835,41 @@
       <c r="J93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>23</v>
+      <c r="K93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>23</v>
+      <c r="P93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>23</v>
+      <c r="T93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -6876,14 +6882,14 @@
       <c r="C94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>23</v>
+      <c r="D94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>24</v>
@@ -6891,8 +6897,8 @@
       <c r="H94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>24</v>
+      <c r="I94" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>24</v>
@@ -6924,14 +6930,14 @@
       <c r="S94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>23</v>
+      <c r="T94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -6944,62 +6950,62 @@
       <c r="C95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>24</v>
+      <c r="D95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>24</v>
+      <c r="P95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -7018,8 +7024,8 @@
       <c r="E96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>24</v>
+      <c r="F96" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -7057,17 +7063,17 @@
       <c r="R96" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>24</v>
+      <c r="S96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -7080,8 +7086,8 @@
       <c r="C97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>23</v>
+      <c r="D97" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>24</v>
@@ -7154,23 +7160,23 @@
       <c r="E98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>23</v>
+      <c r="F98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>23</v>
+      <c r="I98" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>23</v>
+      <c r="K98" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>24</v>
@@ -7184,26 +7190,26 @@
       <c r="O98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>23</v>
+      <c r="P98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -7219,8 +7225,8 @@
       <c r="D99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>23</v>
+      <c r="E99" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>24</v>
@@ -7231,14 +7237,14 @@
       <c r="H99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>23</v>
+      <c r="I99" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>23</v>
+      <c r="K99" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>24</v>
@@ -7252,25 +7258,161 @@
       <c r="O99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>23</v>
+      <c r="P99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V99" s="1" t="s">
+      <c r="U99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7289,12 +7431,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -390,7 +390,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.32.0-SNAPSHOT</t>
+    <t>1.33.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -390,7 +390,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.33.0-SNAPSHOT</t>
+    <t>1.34.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -21,7 +21,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Administrator</t>
   </si>
   <si>
     <t>National User</t>
@@ -39,7 +39,7 @@
     <t>Community Informant</t>
   </si>
   <si>
-    <t>Clinician</t>
+    <t>Arzt/Ärztin</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -48,7 +48,7 @@
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>Contact Officer</t>
+    <t>Ansprechpartner</t>
   </si>
   <si>
     <t>Event Officer</t>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -21,7 +21,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Administrator</t>
+    <t>Admin</t>
   </si>
   <si>
     <t>National User</t>
@@ -39,7 +39,7 @@
     <t>Community Informant</t>
   </si>
   <si>
-    <t>Arzt/Ärztin</t>
+    <t>Clinician</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -48,7 +48,7 @@
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>Ansprechpartner</t>
+    <t>Contact Officer</t>
   </si>
   <si>
     <t>Event Officer</t>
@@ -390,7 +390,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.34.0-SNAPSHOT</t>
+    <t>1.35.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -396,7 +396,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.36.0-SNAPSHOT</t>
+    <t>1.37.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="131">
   <si>
     <t>User Right</t>
   </si>
@@ -126,6 +126,9 @@
     <t>CASE_EXPORT</t>
   </si>
   <si>
+    <t>CASE_SHARE</t>
+  </si>
+  <si>
     <t>CASE_ARCHIVE</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>CONTACT_VIEW_ARCHIVED</t>
   </si>
   <si>
+    <t>CONTACT_REASSIGN_CASE</t>
+  </si>
+  <si>
     <t>VISIT_CREATE</t>
   </si>
   <si>
@@ -391,6 +397,9 @@
   </si>
   <si>
     <t>AGGREGATE_REPORT_EXPORT</t>
+  </si>
+  <si>
+    <t>AGGREGATE_REPORT_EDIT</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -524,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1275,8 +1284,8 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1488,11 +1497,11 @@
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>25</v>
@@ -1503,14 +1512,14 @@
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>25</v>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>25</v>
@@ -1524,26 +1533,26 @@
       <c r="O14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>25</v>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>25</v>
+      <c r="U14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>25</v>
@@ -1559,8 +1568,8 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1574,14 +1583,14 @@
       <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>24</v>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
+      <c r="K15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>25</v>
@@ -1595,26 +1604,26 @@
       <c r="O15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>24</v>
+      <c r="P15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>24</v>
+      <c r="U15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>25</v>
@@ -1630,8 +1639,8 @@
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1645,14 +1654,14 @@
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>25</v>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>25</v>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>25</v>
@@ -1666,26 +1675,26 @@
       <c r="O16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>25</v>
+      <c r="P16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>25</v>
+      <c r="U16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>25</v>
@@ -1701,26 +1710,26 @@
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>25</v>
@@ -1731,8 +1740,8 @@
       <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>24</v>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>25</v>
@@ -1746,8 +1755,8 @@
       <c r="R17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>24</v>
+      <c r="S17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>25</v>
@@ -1793,29 +1802,29 @@
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>24</v>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>24</v>
+      <c r="O18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
@@ -1864,14 +1873,14 @@
       <c r="J19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>25</v>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>24</v>
@@ -1879,14 +1888,14 @@
       <c r="O19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>25</v>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
@@ -1914,26 +1923,26 @@
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>25</v>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>25</v>
@@ -1944,11 +1953,11 @@
       <c r="M20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>25</v>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>25</v>
@@ -1959,8 +1968,8 @@
       <c r="R20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>25</v>
+      <c r="S20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>25</v>
@@ -1988,8 +1997,8 @@
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -2059,8 +2068,8 @@
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
@@ -2071,8 +2080,8 @@
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>24</v>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>25</v>
@@ -2086,11 +2095,11 @@
       <c r="M22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>24</v>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>25</v>
@@ -2101,8 +2110,8 @@
       <c r="R22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>24</v>
+      <c r="S22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>25</v>
@@ -2148,8 +2157,8 @@
       <c r="J23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>24</v>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>25</v>
@@ -2160,17 +2169,17 @@
       <c r="N23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>24</v>
+      <c r="O23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>24</v>
@@ -2201,8 +2210,8 @@
       <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2228,8 +2237,8 @@
       <c r="M24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>25</v>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>25</v>
@@ -2272,11 +2281,11 @@
       <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>24</v>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>25</v>
@@ -2290,8 +2299,8 @@
       <c r="J25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>25</v>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>25</v>
@@ -2299,20 +2308,20 @@
       <c r="M25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>25</v>
+      <c r="N25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>24</v>
@@ -2411,14 +2420,14 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>25</v>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>25</v>
@@ -2426,8 +2435,8 @@
       <c r="H27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>25</v>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>25</v>
@@ -2441,11 +2450,11 @@
       <c r="M27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>25</v>
+      <c r="N27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>25</v>
@@ -2456,8 +2465,8 @@
       <c r="R27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>25</v>
+      <c r="S27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>25</v>
@@ -2482,8 +2491,8 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>25</v>
@@ -2497,11 +2506,11 @@
       <c r="H28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>25</v>
@@ -2512,11 +2521,11 @@
       <c r="M28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>24</v>
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>25</v>
@@ -2527,8 +2536,8 @@
       <c r="R28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>24</v>
+      <c r="S28" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>25</v>
@@ -2710,11 +2719,11 @@
       <c r="H31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>25</v>
+      <c r="I31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>25</v>
@@ -2725,11 +2734,11 @@
       <c r="M31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>25</v>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>25</v>
@@ -2740,8 +2749,8 @@
       <c r="R31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>25</v>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>25</v>
@@ -2769,11 +2778,11 @@
       <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>24</v>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -2787,11 +2796,11 @@
       <c r="J32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>24</v>
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>25</v>
@@ -2837,14 +2846,14 @@
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -2858,11 +2867,11 @@
       <c r="J33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>25</v>
+      <c r="K33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>25</v>
@@ -2894,8 +2903,8 @@
       <c r="V33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>24</v>
+      <c r="W33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -2908,14 +2917,14 @@
       <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>24</v>
+      <c r="D34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
@@ -2923,20 +2932,20 @@
       <c r="H34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>24</v>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>24</v>
+      <c r="K34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
@@ -2944,17 +2953,17 @@
       <c r="O34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>24</v>
+      <c r="P34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>25</v>
@@ -2965,8 +2974,8 @@
       <c r="V34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W34" s="2" t="s">
-        <v>25</v>
+      <c r="W34" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -2982,11 +2991,11 @@
       <c r="D35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>25</v>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -2994,8 +3003,8 @@
       <c r="H35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>25</v>
+      <c r="I35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>25</v>
@@ -3003,11 +3012,11 @@
       <c r="K35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>25</v>
+      <c r="L35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
@@ -3015,17 +3024,17 @@
       <c r="O35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>25</v>
+      <c r="P35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>25</v>
@@ -3053,11 +3062,11 @@
       <c r="D36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>24</v>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -3074,8 +3083,8 @@
       <c r="K36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>24</v>
+      <c r="L36" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>25</v>
@@ -3121,14 +3130,14 @@
       <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>25</v>
@@ -3142,11 +3151,11 @@
       <c r="J37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>25</v>
+      <c r="K37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>25</v>
@@ -3213,11 +3222,11 @@
       <c r="J38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>24</v>
+      <c r="K38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>25</v>
@@ -3266,11 +3275,11 @@
       <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>24</v>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -3340,8 +3349,8 @@
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>25</v>
@@ -3349,8 +3358,8 @@
       <c r="H40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>24</v>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>25</v>
@@ -3358,29 +3367,29 @@
       <c r="K40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>25</v>
+      <c r="L40" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>24</v>
+      <c r="N40" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>24</v>
+      <c r="P40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>25</v>
@@ -3408,8 +3417,8 @@
       <c r="D41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>25</v>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>25</v>
@@ -3435,8 +3444,8 @@
       <c r="M41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>25</v>
+      <c r="N41" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>25</v>
@@ -3491,8 +3500,8 @@
       <c r="H42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>25</v>
+      <c r="I42" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>25</v>
@@ -3500,8 +3509,8 @@
       <c r="K42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>24</v>
+      <c r="L42" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>25</v>
@@ -3512,17 +3521,17 @@
       <c r="O42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>25</v>
+      <c r="P42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>25</v>
@@ -3550,11 +3559,11 @@
       <c r="D43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>25</v>
+      <c r="E43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>25</v>
@@ -3618,8 +3627,8 @@
       <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>25</v>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>25</v>
@@ -3639,11 +3648,11 @@
       <c r="J44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>25</v>
+      <c r="K44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>25</v>
@@ -3692,11 +3701,11 @@
       <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>24</v>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>
@@ -3704,8 +3713,8 @@
       <c r="H45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>24</v>
+      <c r="I45" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>25</v>
@@ -3713,14 +3722,14 @@
       <c r="K45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>25</v>
+      <c r="L45" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>24</v>
+      <c r="N45" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>25</v>
@@ -3734,17 +3743,17 @@
       <c r="R45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>24</v>
+      <c r="S45" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>24</v>
+      <c r="U45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>25</v>
@@ -3763,59 +3772,59 @@
       <c r="D46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>24</v>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>25</v>
@@ -3840,32 +3849,32 @@
       <c r="F47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>24</v>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>24</v>
+      <c r="J47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>24</v>
+      <c r="L47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>24</v>
+      <c r="O47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>25</v>
@@ -3879,8 +3888,8 @@
       <c r="S47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>24</v>
+      <c r="T47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>24</v>
@@ -3911,47 +3920,47 @@
       <c r="F48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>25</v>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>25</v>
+      <c r="J48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>25</v>
+      <c r="L48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>25</v>
+      <c r="O48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>25</v>
+      <c r="T48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>24</v>
@@ -3976,53 +3985,53 @@
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>25</v>
+      <c r="E49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>25</v>
+      <c r="J49" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>24</v>
+      <c r="L49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="2" t="s">
-        <v>25</v>
+      <c r="T49" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>24</v>
@@ -4044,14 +4053,14 @@
       <c r="C50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>25</v>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
@@ -4059,14 +4068,14 @@
       <c r="H50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>25</v>
+      <c r="I50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>25</v>
+      <c r="K50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>25</v>
@@ -4074,8 +4083,8 @@
       <c r="M50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>25</v>
+      <c r="N50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>25</v>
@@ -4089,17 +4098,17 @@
       <c r="R50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="2" t="s">
-        <v>25</v>
+      <c r="S50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>25</v>
+      <c r="U50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>25</v>
@@ -4118,11 +4127,11 @@
       <c r="D51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>24</v>
+      <c r="E51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>25</v>
@@ -4130,20 +4139,20 @@
       <c r="H51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>25</v>
+      <c r="I51" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>25</v>
+      <c r="K51" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>24</v>
+      <c r="M51" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>25</v>
@@ -4151,26 +4160,26 @@
       <c r="O51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>25</v>
+      <c r="P51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>25</v>
+      <c r="U51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>25</v>
@@ -4189,32 +4198,32 @@
       <c r="D52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>24</v>
+      <c r="E52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>25</v>
@@ -4222,23 +4231,23 @@
       <c r="O52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>24</v>
+      <c r="P52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>25</v>
@@ -4334,32 +4343,32 @@
       <c r="E54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>25</v>
+      <c r="F54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>25</v>
+      <c r="J54" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>24</v>
+      <c r="L54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>25</v>
@@ -4376,14 +4385,14 @@
       <c r="S54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="2" t="s">
-        <v>25</v>
+      <c r="T54" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>24</v>
+      <c r="V54" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W54" s="2" t="s">
         <v>25</v>
@@ -4399,14 +4408,14 @@
       <c r="C55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>25</v>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>25</v>
@@ -4426,8 +4435,8 @@
       <c r="L55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>25</v>
+      <c r="M55" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>25</v>
@@ -4470,11 +4479,11 @@
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>25</v>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>25</v>
@@ -4485,14 +4494,14 @@
       <c r="H56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>25</v>
+      <c r="I56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>25</v>
+      <c r="K56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>25</v>
@@ -4500,32 +4509,32 @@
       <c r="M56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>25</v>
+      <c r="N56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>25</v>
+      <c r="P56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>25</v>
+      <c r="U56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W56" s="2" t="s">
         <v>25</v>
@@ -4541,8 +4550,8 @@
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>24</v>
+      <c r="D57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>25</v>
@@ -4556,14 +4565,14 @@
       <c r="H57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>24</v>
+      <c r="I57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>24</v>
+      <c r="K57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>25</v>
@@ -4577,26 +4586,26 @@
       <c r="O57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>24</v>
+      <c r="P57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>24</v>
+      <c r="U57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>25</v>
@@ -4615,11 +4624,11 @@
       <c r="D58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>24</v>
+      <c r="E58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -4639,8 +4648,8 @@
       <c r="L58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>24</v>
+      <c r="M58" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>25</v>
@@ -4686,11 +4695,11 @@
       <c r="D59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>24</v>
+      <c r="E59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>25</v>
@@ -4698,20 +4707,20 @@
       <c r="H59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>25</v>
+      <c r="I59" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>25</v>
+      <c r="K59" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>24</v>
+      <c r="M59" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>25</v>
@@ -4719,26 +4728,26 @@
       <c r="O59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>25</v>
+      <c r="P59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>25</v>
+      <c r="U59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>25</v>
@@ -4751,23 +4760,23 @@
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>25</v>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>24</v>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>25</v>
@@ -4781,8 +4790,8 @@
       <c r="L60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>25</v>
+      <c r="M60" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>25</v>
@@ -4834,26 +4843,26 @@
       <c r="F61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>24</v>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>24</v>
+      <c r="K61" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>25</v>
+      <c r="M61" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>25</v>
@@ -4861,17 +4870,17 @@
       <c r="O61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>24</v>
+      <c r="P61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T61" s="2" t="s">
         <v>25</v>
@@ -4893,8 +4902,8 @@
       <c r="B62" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>24</v>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>25</v>
@@ -4902,14 +4911,14 @@
       <c r="E62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>25</v>
+      <c r="F62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>25</v>
@@ -4967,29 +4976,29 @@
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>25</v>
+      <c r="D63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>25</v>
+      <c r="K63" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>25</v>
@@ -5003,17 +5012,17 @@
       <c r="O63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>25</v>
+      <c r="P63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>25</v>
@@ -5109,11 +5118,11 @@
       <c r="C65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>24</v>
+      <c r="D65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>25</v>
@@ -5145,26 +5154,26 @@
       <c r="O65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>24</v>
+      <c r="P65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>24</v>
+      <c r="U65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>25</v>
@@ -5180,8 +5189,8 @@
       <c r="C66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>24</v>
+      <c r="D66" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
@@ -5248,11 +5257,11 @@
       <c r="B67" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>25</v>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>24</v>
@@ -5287,26 +5296,26 @@
       <c r="O67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>25</v>
+      <c r="P67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>25</v>
+      <c r="U67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W67" s="2" t="s">
         <v>25</v>
@@ -5325,8 +5334,8 @@
       <c r="D68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>24</v>
+      <c r="E68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -5337,14 +5346,14 @@
       <c r="H68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>24</v>
+      <c r="I68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>24</v>
+      <c r="K68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>25</v>
@@ -5352,32 +5361,32 @@
       <c r="M68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>24</v>
+      <c r="N68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>24</v>
+      <c r="P68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>24</v>
+      <c r="U68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W68" s="2" t="s">
         <v>25</v>
@@ -5390,11 +5399,11 @@
       <c r="B69" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>24</v>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
@@ -5408,14 +5417,14 @@
       <c r="H69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>24</v>
+      <c r="I69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>24</v>
+      <c r="K69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>25</v>
@@ -5423,32 +5432,32 @@
       <c r="M69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>24</v>
+      <c r="N69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>24</v>
+      <c r="P69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>24</v>
+      <c r="U69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>25</v>
@@ -5467,8 +5476,8 @@
       <c r="D70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>25</v>
+      <c r="E70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -5479,14 +5488,14 @@
       <c r="H70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>25</v>
+      <c r="I70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>25</v>
+      <c r="K70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>25</v>
@@ -5494,32 +5503,32 @@
       <c r="M70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N70" s="2" t="s">
-        <v>25</v>
+      <c r="N70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>25</v>
+      <c r="P70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>25</v>
+      <c r="U70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>25</v>
@@ -5535,11 +5544,11 @@
       <c r="C71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>25</v>
+      <c r="D71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>25</v>
@@ -5550,14 +5559,14 @@
       <c r="H71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>25</v>
+      <c r="I71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>25</v>
+      <c r="K71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>25</v>
@@ -5565,32 +5574,32 @@
       <c r="M71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N71" s="2" t="s">
-        <v>25</v>
+      <c r="N71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>25</v>
+      <c r="P71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>25</v>
+      <c r="U71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>25</v>
@@ -5606,8 +5615,8 @@
       <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>25</v>
+      <c r="D72" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>25</v>
@@ -5748,11 +5757,11 @@
       <c r="C74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>24</v>
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>25</v>
@@ -5784,26 +5793,26 @@
       <c r="O74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>24</v>
+      <c r="P74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>24</v>
+      <c r="U74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>25</v>
@@ -5819,8 +5828,8 @@
       <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>24</v>
+      <c r="D75" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>25</v>
@@ -5855,8 +5864,8 @@
       <c r="O75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>24</v>
+      <c r="P75" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>25</v>
@@ -5961,8 +5970,8 @@
       <c r="C77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>25</v>
+      <c r="D77" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>25</v>
@@ -5997,8 +6006,8 @@
       <c r="O77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>25</v>
+      <c r="P77" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>25</v>
@@ -6035,8 +6044,8 @@
       <c r="D78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
+      <c r="E78" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>25</v>
@@ -6068,26 +6077,26 @@
       <c r="O78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>25</v>
+      <c r="P78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>25</v>
+      <c r="U78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>25</v>
@@ -6177,8 +6186,8 @@
       <c r="D80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>24</v>
+      <c r="E80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>25</v>
@@ -6189,47 +6198,47 @@
       <c r="H80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>24</v>
+      <c r="I80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>24</v>
+      <c r="K80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>24</v>
+      <c r="M80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>24</v>
+      <c r="P80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>24</v>
+      <c r="U80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>25</v>
@@ -6245,11 +6254,11 @@
       <c r="C81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>24</v>
+      <c r="D81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>25</v>
@@ -6260,8 +6269,8 @@
       <c r="H81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>24</v>
+      <c r="I81" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>25</v>
@@ -6272,35 +6281,35 @@
       <c r="L81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>24</v>
+      <c r="M81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>24</v>
+      <c r="P81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>24</v>
+      <c r="U81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>25</v>
@@ -6319,8 +6328,8 @@
       <c r="D82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>25</v>
+      <c r="E82" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>25</v>
@@ -6331,8 +6340,8 @@
       <c r="H82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>25</v>
+      <c r="I82" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>25</v>
@@ -6343,11 +6352,11 @@
       <c r="L82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>25</v>
+      <c r="M82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>25</v>
@@ -6361,17 +6370,17 @@
       <c r="R82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S82" s="2" t="s">
-        <v>25</v>
+      <c r="S82" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>25</v>
+      <c r="U82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>25</v>
@@ -6387,11 +6396,11 @@
       <c r="C83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>25</v>
+      <c r="D83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>25</v>
@@ -6405,8 +6414,8 @@
       <c r="I83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>24</v>
+      <c r="J83" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>25</v>
@@ -6414,8 +6423,8 @@
       <c r="L83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>25</v>
+      <c r="M83" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>24</v>
@@ -6423,14 +6432,14 @@
       <c r="O83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>25</v>
+      <c r="P83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>24</v>
@@ -6438,11 +6447,11 @@
       <c r="T83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>25</v>
+      <c r="U83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>25</v>
@@ -6458,8 +6467,8 @@
       <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>25</v>
+      <c r="D84" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>25</v>
@@ -6473,14 +6482,14 @@
       <c r="H84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>25</v>
+      <c r="I84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>25</v>
@@ -6494,17 +6503,17 @@
       <c r="O84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>24</v>
+      <c r="P84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>25</v>
@@ -6559,8 +6568,8 @@
       <c r="M85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>25</v>
+      <c r="N85" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>25</v>
@@ -6689,8 +6698,8 @@
       <c r="I87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>25</v>
+      <c r="J87" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>25</v>
@@ -6831,8 +6840,8 @@
       <c r="I89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>24</v>
+      <c r="J89" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>25</v>
@@ -6902,8 +6911,8 @@
       <c r="I90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>25</v>
+      <c r="J90" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>25</v>
@@ -7044,8 +7053,8 @@
       <c r="I92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>24</v>
+      <c r="J92" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>25</v>
@@ -7257,8 +7266,8 @@
       <c r="I95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>25</v>
+      <c r="J95" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>25</v>
@@ -7310,20 +7319,20 @@
       <c r="C96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>24</v>
+      <c r="D96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>24</v>
@@ -7331,41 +7340,41 @@
       <c r="J96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>24</v>
+      <c r="K96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>24</v>
+      <c r="P96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>24</v>
+      <c r="T96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W96" s="2" t="s">
         <v>25</v>
@@ -7381,14 +7390,14 @@
       <c r="C97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>24</v>
+      <c r="D97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>25</v>
@@ -7396,8 +7405,8 @@
       <c r="H97" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>25</v>
+      <c r="I97" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>25</v>
@@ -7429,14 +7438,14 @@
       <c r="S97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>24</v>
+      <c r="T97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W97" s="2" t="s">
         <v>25</v>
@@ -7452,62 +7461,62 @@
       <c r="C98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>25</v>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>25</v>
+      <c r="P98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W98" s="2" t="s">
         <v>25</v>
@@ -7529,8 +7538,8 @@
       <c r="E99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>25</v>
+      <c r="F99" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>25</v>
@@ -7568,17 +7577,17 @@
       <c r="R99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>25</v>
+      <c r="S99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="W99" s="2" t="s">
         <v>25</v>
@@ -7594,8 +7603,8 @@
       <c r="C100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>24</v>
+      <c r="D100" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>25</v>
@@ -7671,23 +7680,23 @@
       <c r="E101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>24</v>
+      <c r="F101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>24</v>
+      <c r="I101" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>24</v>
+      <c r="K101" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>25</v>
@@ -7701,26 +7710,26 @@
       <c r="O101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>24</v>
+      <c r="P101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W101" s="2" t="s">
         <v>25</v>
@@ -7739,8 +7748,8 @@
       <c r="D102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>24</v>
+      <c r="E102" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>25</v>
@@ -7751,14 +7760,14 @@
       <c r="H102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>24</v>
+      <c r="I102" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>24</v>
+      <c r="K102" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>25</v>
@@ -7772,28 +7781,241 @@
       <c r="O102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>24</v>
+      <c r="P102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>24</v>
+      <c r="U102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W105" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7812,12 +8034,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -405,7 +405,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.37.0-SNAPSHOT</t>
+    <t>1.38.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -417,7 +417,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.39.0-SNAPSHOT</t>
+    <t>1.40.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -417,7 +417,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.40.0-SNAPSHOT</t>
+    <t>1.41.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="139">
   <si>
     <t>User Right</t>
   </si>
@@ -414,10 +414,22 @@
     <t>AGGREGATE_REPORT_EDIT</t>
   </si>
   <si>
+    <t>SEE_PERSONAL_DATA_IN_JURISDICTION</t>
+  </si>
+  <si>
+    <t>SEE_PERSONAL_DATA_OUTSIDE_JURISDICTION</t>
+  </si>
+  <si>
+    <t>SEE_SENSITIVE_DATA_IN_JURISDICTION</t>
+  </si>
+  <si>
+    <t>SEE_SENSITIVE_DATA_OUTSIDE_JURISDICTION</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.41.0-SNAPSHOT</t>
+    <t>1.42.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8817,6 +8829,314 @@
         <v>27</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y108" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y110" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8832,12 +9152,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="143">
   <si>
     <t>User Right</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>SEE_SENSITIVE_DATA_OUTSIDE_JURISDICTION</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_VIEW</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_EDIT</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_ARCHIVE</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_DELETE</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -557,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9137,6 +9149,314 @@
         <v>27</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y112" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y113" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y114" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y115" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9152,12 +9472,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -63,7 +63,7 @@
     <t>National Observer</t>
   </si>
   <si>
-    <t>State Observer</t>
+    <t>Region Observer</t>
   </si>
   <si>
     <t>District Observer</t>
@@ -108,7 +108,7 @@
     <t>District</t>
   </si>
   <si>
-    <t>Health facility</t>
+    <t>Facility</t>
   </si>
   <si>
     <t>Community</t>
@@ -492,7 +492,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.44.0-SNAPSHOT</t>
+    <t>1.45.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="160">
   <si>
     <t>User Right</t>
   </si>
@@ -477,10 +477,22 @@
     <t>CAMPAIGN_DELETE</t>
   </si>
   <si>
+    <t>CAMPAIGN_FORM_DATA_VIEW</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_FORM_DATA_EDIT</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_FORM_DATA_ARCHIVE</t>
+  </si>
+  <si>
+    <t>CAMPAIGN_FORM_DATA_DELETE</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.43.0-SNAPSHOT</t>
+    <t>1.44.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -608,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z118"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1688,14 +1700,14 @@
       <c r="O14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>37</v>
+      <c r="P14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>37</v>
@@ -2535,14 +2547,14 @@
       <c r="O25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>37</v>
+      <c r="P25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>37</v>
@@ -3844,14 +3856,14 @@
       <c r="O42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>37</v>
+      <c r="P42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>37</v>
@@ -4383,14 +4395,14 @@
       <c r="O49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>37</v>
+      <c r="P49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>37</v>
@@ -5153,14 +5165,14 @@
       <c r="O59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>37</v>
+      <c r="P59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>37</v>
@@ -6385,14 +6397,14 @@
       <c r="O75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>37</v>
+      <c r="P75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>37</v>
@@ -6924,14 +6936,14 @@
       <c r="O82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>37</v>
+      <c r="P82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>37</v>
@@ -9003,14 +9015,14 @@
       <c r="O109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>37</v>
+      <c r="P109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S109" s="1" t="s">
         <v>37</v>
@@ -9724,6 +9736,314 @@
         <v>38</v>
       </c>
       <c r="Y118" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="3">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y119" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y121" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y122" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9742,12 +10062,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -492,7 +492,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.44.0-SNAPSHOT</t>
+    <t>1.46.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -492,7 +492,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.44.0-SNAPSHOT</t>
+    <t>1.45.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="163">
   <si>
     <t>User Right</t>
   </si>
@@ -255,7 +255,7 @@
     <t>CONTACT_REASSIGN_CASE</t>
   </si>
   <si>
-    <t>CONTACT_CREATE_PIA_ACCOUNT</t>
+    <t>MANAGE_EXTERNAL_SYMPTOM_JOURNAL</t>
   </si>
   <si>
     <t>VISIT_CREATE</t>
@@ -288,6 +288,15 @@
     <t>TASK_DELETE</t>
   </si>
   <si>
+    <t>ACTION_CREATE</t>
+  </si>
+  <si>
+    <t>ACTION_DELETE</t>
+  </si>
+  <si>
+    <t>ACTION_EDIT</t>
+  </si>
+  <si>
     <t>EVENT_CREATE</t>
   </si>
   <si>
@@ -492,7 +501,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.45.0-SNAPSHOT</t>
+    <t>1.46.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2076,8 +2085,8 @@
       <c r="L19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>38</v>
+      <c r="M19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>37</v>
@@ -2230,8 +2239,8 @@
       <c r="L21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>38</v>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>37</v>
@@ -2307,8 +2316,8 @@
       <c r="L22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>38</v>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>38</v>
@@ -2692,8 +2701,8 @@
       <c r="L27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>38</v>
+      <c r="M27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>37</v>
@@ -2769,8 +2778,8 @@
       <c r="L28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>38</v>
+      <c r="M28" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>37</v>
@@ -4975,35 +4984,35 @@
       <c r="C57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>37</v>
+      <c r="D57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>38</v>
@@ -5011,23 +5020,23 @@
       <c r="O57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>37</v>
+      <c r="P57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>38</v>
@@ -5135,8 +5144,8 @@
       <c r="E59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>38</v>
+      <c r="F59" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>38</v>
@@ -5144,23 +5153,23 @@
       <c r="H59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>37</v>
+      <c r="I59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>37</v>
+      <c r="K59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>37</v>
+      <c r="M59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>38</v>
@@ -5174,17 +5183,17 @@
       <c r="R59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>37</v>
+      <c r="S59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>37</v>
+      <c r="U59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>38</v>
@@ -5206,35 +5215,35 @@
       <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>38</v>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>38</v>
@@ -5242,23 +5251,23 @@
       <c r="O60" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>38</v>
+      <c r="P60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>38</v>
@@ -5286,11 +5295,11 @@
       <c r="D61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>38</v>
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -5310,8 +5319,8 @@
       <c r="L61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>38</v>
+      <c r="M61" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>38</v>
@@ -5363,8 +5372,8 @@
       <c r="D62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>38</v>
+      <c r="E62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>38</v>
@@ -5390,20 +5399,20 @@
       <c r="M62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>38</v>
+      <c r="N62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>37</v>
+      <c r="P62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>37</v>
@@ -5437,14 +5446,14 @@
       <c r="C63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>38</v>
@@ -5464,8 +5473,8 @@
       <c r="L63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>37</v>
+      <c r="M63" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>38</v>
@@ -5517,11 +5526,11 @@
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
+      <c r="E64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>38</v>
@@ -5541,8 +5550,8 @@
       <c r="L64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>37</v>
+      <c r="M64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>38</v>
@@ -5606,14 +5615,14 @@
       <c r="H65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>38</v>
+      <c r="I65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>38</v>
+      <c r="K65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>38</v>
@@ -5627,26 +5636,26 @@
       <c r="O65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>38</v>
+      <c r="P65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>38</v>
+      <c r="U65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>38</v>
@@ -5665,23 +5674,23 @@
       <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>38</v>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>37</v>
+      <c r="G66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>38</v>
@@ -5695,8 +5704,8 @@
       <c r="L66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>38</v>
+      <c r="M66" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>38</v>
@@ -5754,26 +5763,26 @@
       <c r="F67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>37</v>
+      <c r="G67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>37</v>
+      <c r="K67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>38</v>
+      <c r="M67" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>38</v>
@@ -5781,17 +5790,17 @@
       <c r="O67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>37</v>
+      <c r="P67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>38</v>
@@ -5822,8 +5831,8 @@
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>38</v>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>38</v>
@@ -5896,8 +5905,8 @@
       <c r="B69" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>37</v>
+      <c r="C69" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>38</v>
@@ -5905,14 +5914,14 @@
       <c r="E69" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>38</v>
+      <c r="F69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>38</v>
@@ -5976,29 +5985,29 @@
       <c r="C70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>38</v>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>38</v>
+      <c r="K70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>38</v>
@@ -6012,17 +6021,17 @@
       <c r="O70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>38</v>
+      <c r="P70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>38</v>
@@ -6053,11 +6062,11 @@
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>37</v>
+      <c r="D71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>38</v>
@@ -6089,26 +6098,26 @@
       <c r="O71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>37</v>
+      <c r="P71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>37</v>
+      <c r="U71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>38</v>
@@ -6130,8 +6139,8 @@
       <c r="C72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>37</v>
+      <c r="D72" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>38</v>
@@ -6204,14 +6213,14 @@
       <c r="B73" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>38</v>
+      <c r="C73" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>37</v>
+      <c r="E73" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>38</v>
@@ -6299,14 +6308,14 @@
       <c r="H74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>37</v>
+      <c r="I74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>37</v>
+      <c r="K74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>38</v>
@@ -6314,8 +6323,8 @@
       <c r="M74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>37</v>
+      <c r="N74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>38</v>
@@ -6364,8 +6373,8 @@
       <c r="D75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>37</v>
+      <c r="E75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>38</v>
@@ -6376,14 +6385,14 @@
       <c r="H75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>37</v>
+      <c r="I75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>37</v>
+      <c r="K75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>38</v>
@@ -6391,8 +6400,8 @@
       <c r="M75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>37</v>
+      <c r="N75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>38</v>
@@ -6406,17 +6415,17 @@
       <c r="R75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S75" s="1" t="s">
-        <v>37</v>
+      <c r="S75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>37</v>
+      <c r="U75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>38</v>
@@ -6435,14 +6444,14 @@
       <c r="B76" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>38</v>
+      <c r="C76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>38</v>
@@ -6515,11 +6524,11 @@
       <c r="C77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>38</v>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>38</v>
@@ -6530,14 +6539,14 @@
       <c r="H77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>38</v>
+      <c r="I77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>38</v>
+      <c r="K77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>38</v>
@@ -6545,32 +6554,32 @@
       <c r="M77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>38</v>
+      <c r="N77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>38</v>
+      <c r="P77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>38</v>
+      <c r="U77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W77" s="2" t="s">
         <v>38</v>
@@ -6592,11 +6601,11 @@
       <c r="C78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>38</v>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>38</v>
@@ -6607,14 +6616,14 @@
       <c r="H78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>38</v>
+      <c r="I78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>38</v>
+      <c r="K78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>38</v>
@@ -6622,8 +6631,8 @@
       <c r="M78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>38</v>
+      <c r="N78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>38</v>
@@ -6637,17 +6646,17 @@
       <c r="R78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S78" s="2" t="s">
-        <v>38</v>
+      <c r="S78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>38</v>
+      <c r="U78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>38</v>
@@ -6669,8 +6678,8 @@
       <c r="C79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>38</v>
+      <c r="D79" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>38</v>
@@ -6746,11 +6755,11 @@
       <c r="C80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>37</v>
+      <c r="D80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>38</v>
@@ -6782,26 +6791,26 @@
       <c r="O80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>37</v>
+      <c r="P80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>37</v>
+      <c r="U80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>38</v>
@@ -6823,8 +6832,8 @@
       <c r="C81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>37</v>
+      <c r="D81" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>38</v>
@@ -6859,8 +6868,8 @@
       <c r="O81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>37</v>
+      <c r="P81" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>38</v>
@@ -6900,11 +6909,11 @@
       <c r="C82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>37</v>
+      <c r="D82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>38</v>
@@ -6945,17 +6954,17 @@
       <c r="R82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>37</v>
+      <c r="S82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>37</v>
+      <c r="U82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>38</v>
@@ -6977,11 +6986,11 @@
       <c r="C83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>38</v>
+      <c r="D83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>38</v>
@@ -7013,26 +7022,26 @@
       <c r="O83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>38</v>
+      <c r="P83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>38</v>
+      <c r="U83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>38</v>
@@ -7090,8 +7099,8 @@
       <c r="O84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>38</v>
+      <c r="P84" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>38</v>
@@ -7131,11 +7140,11 @@
       <c r="C85" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>38</v>
+      <c r="D85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>38</v>
@@ -7176,17 +7185,17 @@
       <c r="R85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S85" s="2" t="s">
-        <v>38</v>
+      <c r="S85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>38</v>
+      <c r="U85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W85" s="2" t="s">
         <v>38</v>
@@ -7208,14 +7217,14 @@
       <c r="C86" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>37</v>
+      <c r="D86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>38</v>
@@ -7223,47 +7232,47 @@
       <c r="H86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>37</v>
+      <c r="I86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>37</v>
+      <c r="P86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>37</v>
+      <c r="U86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>38</v>
@@ -7288,11 +7297,11 @@
       <c r="D87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>37</v>
+      <c r="E87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>38</v>
@@ -7300,11 +7309,11 @@
       <c r="H87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>37</v>
+      <c r="I87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>38</v>
@@ -7312,35 +7321,35 @@
       <c r="L87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>37</v>
+      <c r="M87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>37</v>
+      <c r="P87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>37</v>
+      <c r="U87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W87" s="2" t="s">
         <v>38</v>
@@ -7362,8 +7371,8 @@
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>37</v>
+      <c r="D88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>38</v>
@@ -7383,11 +7392,11 @@
       <c r="J88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>37</v>
+      <c r="K88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>38</v>
@@ -7398,14 +7407,14 @@
       <c r="O88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>37</v>
+      <c r="P88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>38</v>
@@ -7442,11 +7451,11 @@
       <c r="D89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>38</v>
+      <c r="E89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -7454,23 +7463,23 @@
       <c r="H89" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>38</v>
+      <c r="I89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>38</v>
+      <c r="L89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>38</v>
@@ -7484,17 +7493,17 @@
       <c r="R89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S89" s="2" t="s">
-        <v>38</v>
+      <c r="S89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>38</v>
+      <c r="U89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W89" s="2" t="s">
         <v>38</v>
@@ -7516,14 +7525,14 @@
       <c r="C90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>38</v>
+      <c r="D90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>38</v>
@@ -7543,8 +7552,8 @@
       <c r="L90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>38</v>
+      <c r="M90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>37</v>
@@ -7552,14 +7561,14 @@
       <c r="O90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>38</v>
+      <c r="P90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>37</v>
@@ -7567,11 +7576,11 @@
       <c r="T90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>38</v>
+      <c r="U90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W90" s="2" t="s">
         <v>38</v>
@@ -7593,8 +7602,8 @@
       <c r="C91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>38</v>
+      <c r="D91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>38</v>
@@ -7608,17 +7617,17 @@
       <c r="H91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>38</v>
+      <c r="I91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>38</v>
@@ -7629,17 +7638,17 @@
       <c r="O91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>37</v>
+      <c r="P91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>38</v>
@@ -7670,8 +7679,8 @@
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>38</v>
+      <c r="D92" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>38</v>
@@ -7685,14 +7694,14 @@
       <c r="H92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>38</v>
+      <c r="I92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>38</v>
@@ -7706,17 +7715,17 @@
       <c r="O92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>37</v>
+      <c r="P92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>38</v>
@@ -7777,8 +7786,8 @@
       <c r="M93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>38</v>
+      <c r="N93" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>38</v>
@@ -7842,8 +7851,8 @@
       <c r="I94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>38</v>
+      <c r="J94" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>38</v>
@@ -8304,8 +8313,8 @@
       <c r="I100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>37</v>
+      <c r="J100" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>38</v>
@@ -8458,8 +8467,8 @@
       <c r="I102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>38</v>
+      <c r="J102" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>38</v>
@@ -8517,20 +8526,20 @@
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>37</v>
+      <c r="D103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>37</v>
@@ -8538,41 +8547,41 @@
       <c r="J103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>37</v>
+      <c r="K103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>37</v>
+      <c r="P103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>37</v>
+      <c r="T103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W103" s="2" t="s">
         <v>38</v>
@@ -8594,14 +8603,14 @@
       <c r="C104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>37</v>
+      <c r="D104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>38</v>
@@ -8609,11 +8618,11 @@
       <c r="H104" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>38</v>
+      <c r="I104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>38</v>
@@ -8642,14 +8651,14 @@
       <c r="S104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>37</v>
+      <c r="T104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W104" s="2" t="s">
         <v>38</v>
@@ -8686,8 +8695,8 @@
       <c r="H105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>38</v>
+      <c r="I105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>38</v>
@@ -8716,8 +8725,8 @@
       <c r="R105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S105" s="2" t="s">
-        <v>38</v>
+      <c r="S105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>38</v>
@@ -8754,56 +8763,56 @@
       <c r="E106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>38</v>
+      <c r="F106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V106" s="2" t="s">
-        <v>38</v>
+      <c r="P106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W106" s="2" t="s">
         <v>38</v>
@@ -8828,11 +8837,11 @@
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>38</v>
+      <c r="E107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -8870,17 +8879,17 @@
       <c r="R107" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>38</v>
+      <c r="S107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W107" s="2" t="s">
         <v>38</v>
@@ -8902,29 +8911,29 @@
       <c r="C108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>37</v>
+      <c r="D108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>37</v>
+      <c r="I108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>37</v>
+      <c r="K108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>38</v>
@@ -8938,26 +8947,26 @@
       <c r="O108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>37</v>
+      <c r="P108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W108" s="2" t="s">
         <v>38</v>
@@ -8994,14 +9003,14 @@
       <c r="H109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>37</v>
+      <c r="I109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>37</v>
+      <c r="K109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>38</v>
@@ -9024,17 +9033,17 @@
       <c r="R109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S109" s="1" t="s">
-        <v>37</v>
+      <c r="S109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V109" s="1" t="s">
-        <v>37</v>
+      <c r="U109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W109" s="2" t="s">
         <v>38</v>
@@ -9059,26 +9068,26 @@
       <c r="D110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>37</v>
+      <c r="E110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>37</v>
+      <c r="G110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>37</v>
+      <c r="I110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>37</v>
+      <c r="K110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>38</v>
@@ -9092,26 +9101,26 @@
       <c r="O110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>37</v>
+      <c r="P110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W110" s="2" t="s">
         <v>38</v>
@@ -9130,8 +9139,8 @@
       <c r="B111" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>38</v>
+      <c r="C111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>37</v>
@@ -9145,23 +9154,23 @@
       <c r="G111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
+      <c r="H111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>37</v>
+      <c r="J111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>37</v>
+      <c r="L111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>38</v>
@@ -9169,17 +9178,17 @@
       <c r="O111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>38</v>
+      <c r="P111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>37</v>
@@ -9207,14 +9216,14 @@
       <c r="B112" t="s">
         <v>147</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>38</v>
+      <c r="C112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>38</v>
@@ -9225,14 +9234,14 @@
       <c r="H112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>38</v>
+      <c r="I112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>38</v>
+      <c r="K112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>38</v>
@@ -9255,17 +9264,17 @@
       <c r="R112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S112" s="2" t="s">
-        <v>38</v>
+      <c r="S112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>38</v>
+      <c r="U112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>38</v>
@@ -9284,8 +9293,8 @@
       <c r="B113" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>38</v>
+      <c r="C113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
@@ -9293,29 +9302,29 @@
       <c r="E113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
+      <c r="F113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>37</v>
+      <c r="H113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>37</v>
+      <c r="J113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>37</v>
+      <c r="L113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>38</v>
@@ -9323,17 +9332,17 @@
       <c r="O113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>38</v>
+      <c r="P113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>37</v>
@@ -9364,35 +9373,35 @@
       <c r="C114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>38</v>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>38</v>
@@ -9412,14 +9421,14 @@
       <c r="S114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>38</v>
+      <c r="T114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W114" s="2" t="s">
         <v>38</v>
@@ -9438,17 +9447,17 @@
       <c r="B115" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>38</v>
@@ -9456,20 +9465,20 @@
       <c r="H115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>37</v>
+      <c r="I115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>38</v>
@@ -9492,8 +9501,8 @@
       <c r="T115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U115" s="1" t="s">
-        <v>37</v>
+      <c r="U115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>38</v>
@@ -9515,38 +9524,38 @@
       <c r="B116" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>37</v>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>38</v>
+      <c r="E116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9566,14 +9575,14 @@
       <c r="S116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>38</v>
+      <c r="T116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>38</v>
@@ -9592,11 +9601,11 @@
       <c r="B117" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>37</v>
+      <c r="C117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>38</v>
@@ -9672,14 +9681,14 @@
       <c r="C118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>38</v>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>38</v>
@@ -9687,20 +9696,20 @@
       <c r="H118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>38</v>
+      <c r="I118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>38</v>
@@ -9723,8 +9732,8 @@
       <c r="T118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U118" s="2" t="s">
-        <v>38</v>
+      <c r="U118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>38</v>
@@ -9752,11 +9761,11 @@
       <c r="D119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
+      <c r="E119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -9764,20 +9773,20 @@
       <c r="H119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>37</v>
+      <c r="I119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9800,8 +9809,8 @@
       <c r="T119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>37</v>
+      <c r="U119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>38</v>
@@ -9829,8 +9838,8 @@
       <c r="D120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>37</v>
+      <c r="E120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>38</v>
@@ -9841,14 +9850,14 @@
       <c r="H120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>37</v>
+      <c r="I120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>37</v>
+      <c r="K120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>38</v>
@@ -9877,8 +9886,8 @@
       <c r="T120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>37</v>
+      <c r="U120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>38</v>
@@ -9903,8 +9912,8 @@
       <c r="C121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>37</v>
+      <c r="D121" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>38</v>
@@ -9980,14 +9989,14 @@
       <c r="C122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>38</v>
+      <c r="D122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>38</v>
@@ -9995,20 +10004,20 @@
       <c r="H122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>38</v>
+      <c r="I122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>38</v>
@@ -10031,8 +10040,8 @@
       <c r="T122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U122" s="2" t="s">
-        <v>38</v>
+      <c r="U122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>38</v>
@@ -10044,6 +10053,237 @@
         <v>38</v>
       </c>
       <c r="Y122" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y123" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="3">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y124" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y125" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10062,12 +10302,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="163">
   <si>
     <t>User Right</t>
   </si>
@@ -63,7 +63,7 @@
     <t>National Observer</t>
   </si>
   <si>
-    <t>State Observer</t>
+    <t>Region Observer</t>
   </si>
   <si>
     <t>District Observer</t>
@@ -108,7 +108,7 @@
     <t>District</t>
   </si>
   <si>
-    <t>Health facility</t>
+    <t>Facility</t>
   </si>
   <si>
     <t>Community</t>
@@ -255,7 +255,7 @@
     <t>CONTACT_REASSIGN_CASE</t>
   </si>
   <si>
-    <t>CONTACT_CREATE_PIA_ACCOUNT</t>
+    <t>MANAGE_EXTERNAL_SYMPTOM_JOURNAL</t>
   </si>
   <si>
     <t>VISIT_CREATE</t>
@@ -288,6 +288,15 @@
     <t>TASK_DELETE</t>
   </si>
   <si>
+    <t>ACTION_CREATE</t>
+  </si>
+  <si>
+    <t>ACTION_DELETE</t>
+  </si>
+  <si>
+    <t>ACTION_EDIT</t>
+  </si>
+  <si>
     <t>EVENT_CREATE</t>
   </si>
   <si>
@@ -492,7 +501,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.45.0-SNAPSHOT</t>
+    <t>1.46.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2076,8 +2085,8 @@
       <c r="L19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>38</v>
+      <c r="M19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>37</v>
@@ -2230,8 +2239,8 @@
       <c r="L21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>38</v>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>37</v>
@@ -2307,8 +2316,8 @@
       <c r="L22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>38</v>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>38</v>
@@ -2692,8 +2701,8 @@
       <c r="L27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>38</v>
+      <c r="M27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>37</v>
@@ -2769,8 +2778,8 @@
       <c r="L28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>38</v>
+      <c r="M28" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>37</v>
@@ -4975,35 +4984,35 @@
       <c r="C57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>37</v>
+      <c r="D57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>38</v>
@@ -5011,23 +5020,23 @@
       <c r="O57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>37</v>
+      <c r="P57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>38</v>
@@ -5135,8 +5144,8 @@
       <c r="E59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>38</v>
+      <c r="F59" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>38</v>
@@ -5144,23 +5153,23 @@
       <c r="H59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>37</v>
+      <c r="I59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>37</v>
+      <c r="K59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>37</v>
+      <c r="M59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>38</v>
@@ -5174,17 +5183,17 @@
       <c r="R59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>37</v>
+      <c r="S59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>37</v>
+      <c r="U59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>38</v>
@@ -5206,35 +5215,35 @@
       <c r="C60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>38</v>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>38</v>
@@ -5242,23 +5251,23 @@
       <c r="O60" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>38</v>
+      <c r="P60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>38</v>
@@ -5286,11 +5295,11 @@
       <c r="D61" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>38</v>
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -5310,8 +5319,8 @@
       <c r="L61" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>38</v>
+      <c r="M61" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>38</v>
@@ -5363,8 +5372,8 @@
       <c r="D62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>38</v>
+      <c r="E62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>38</v>
@@ -5390,20 +5399,20 @@
       <c r="M62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="2" t="s">
-        <v>38</v>
+      <c r="N62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>37</v>
+      <c r="P62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>37</v>
@@ -5437,14 +5446,14 @@
       <c r="C63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>37</v>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>38</v>
@@ -5464,8 +5473,8 @@
       <c r="L63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>37</v>
+      <c r="M63" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>38</v>
@@ -5517,11 +5526,11 @@
       <c r="D64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
+      <c r="E64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>38</v>
@@ -5541,8 +5550,8 @@
       <c r="L64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>37</v>
+      <c r="M64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>38</v>
@@ -5606,14 +5615,14 @@
       <c r="H65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>38</v>
+      <c r="I65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>38</v>
+      <c r="K65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>38</v>
@@ -5627,26 +5636,26 @@
       <c r="O65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>38</v>
+      <c r="P65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>38</v>
+      <c r="U65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>38</v>
@@ -5665,23 +5674,23 @@
       <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>38</v>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>37</v>
+      <c r="G66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>38</v>
@@ -5695,8 +5704,8 @@
       <c r="L66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>38</v>
+      <c r="M66" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>38</v>
@@ -5754,26 +5763,26 @@
       <c r="F67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>37</v>
+      <c r="G67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>37</v>
+      <c r="K67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>38</v>
+      <c r="M67" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>38</v>
@@ -5781,17 +5790,17 @@
       <c r="O67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>37</v>
+      <c r="P67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>38</v>
@@ -5822,8 +5831,8 @@
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>38</v>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>38</v>
@@ -5896,8 +5905,8 @@
       <c r="B69" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>37</v>
+      <c r="C69" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>38</v>
@@ -5905,14 +5914,14 @@
       <c r="E69" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>38</v>
+      <c r="F69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>38</v>
@@ -5976,29 +5985,29 @@
       <c r="C70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>38</v>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>38</v>
+      <c r="K70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>38</v>
@@ -6012,17 +6021,17 @@
       <c r="O70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>38</v>
+      <c r="P70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>38</v>
@@ -6053,11 +6062,11 @@
       <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>37</v>
+      <c r="D71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>38</v>
@@ -6089,26 +6098,26 @@
       <c r="O71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>37</v>
+      <c r="P71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>37</v>
+      <c r="U71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>38</v>
@@ -6130,8 +6139,8 @@
       <c r="C72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>37</v>
+      <c r="D72" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>38</v>
@@ -6204,14 +6213,14 @@
       <c r="B73" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>38</v>
+      <c r="C73" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>37</v>
+      <c r="E73" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>38</v>
@@ -6299,14 +6308,14 @@
       <c r="H74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>37</v>
+      <c r="I74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>37</v>
+      <c r="K74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>38</v>
@@ -6314,8 +6323,8 @@
       <c r="M74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>37</v>
+      <c r="N74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>38</v>
@@ -6364,8 +6373,8 @@
       <c r="D75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>37</v>
+      <c r="E75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>38</v>
@@ -6376,14 +6385,14 @@
       <c r="H75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>37</v>
+      <c r="I75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>37</v>
+      <c r="K75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>38</v>
@@ -6391,8 +6400,8 @@
       <c r="M75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>37</v>
+      <c r="N75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>38</v>
@@ -6406,17 +6415,17 @@
       <c r="R75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S75" s="1" t="s">
-        <v>37</v>
+      <c r="S75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>37</v>
+      <c r="U75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>38</v>
@@ -6435,14 +6444,14 @@
       <c r="B76" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>38</v>
+      <c r="C76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>38</v>
@@ -6515,11 +6524,11 @@
       <c r="C77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>38</v>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>38</v>
@@ -6530,14 +6539,14 @@
       <c r="H77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>38</v>
+      <c r="I77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>38</v>
+      <c r="K77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>38</v>
@@ -6545,32 +6554,32 @@
       <c r="M77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>38</v>
+      <c r="N77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>38</v>
+      <c r="P77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>38</v>
+      <c r="U77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W77" s="2" t="s">
         <v>38</v>
@@ -6592,11 +6601,11 @@
       <c r="C78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>38</v>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>38</v>
@@ -6607,14 +6616,14 @@
       <c r="H78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>38</v>
+      <c r="I78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>38</v>
+      <c r="K78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>38</v>
@@ -6622,8 +6631,8 @@
       <c r="M78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="2" t="s">
-        <v>38</v>
+      <c r="N78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>38</v>
@@ -6637,17 +6646,17 @@
       <c r="R78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S78" s="2" t="s">
-        <v>38</v>
+      <c r="S78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>38</v>
+      <c r="U78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>38</v>
@@ -6669,8 +6678,8 @@
       <c r="C79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>38</v>
+      <c r="D79" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>38</v>
@@ -6746,11 +6755,11 @@
       <c r="C80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>37</v>
+      <c r="D80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>38</v>
@@ -6782,26 +6791,26 @@
       <c r="O80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>37</v>
+      <c r="P80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>37</v>
+      <c r="U80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>38</v>
@@ -6823,8 +6832,8 @@
       <c r="C81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>37</v>
+      <c r="D81" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>38</v>
@@ -6859,8 +6868,8 @@
       <c r="O81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>37</v>
+      <c r="P81" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>38</v>
@@ -6900,11 +6909,11 @@
       <c r="C82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>37</v>
+      <c r="D82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>38</v>
@@ -6945,17 +6954,17 @@
       <c r="R82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>37</v>
+      <c r="S82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>37</v>
+      <c r="U82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>38</v>
@@ -6977,11 +6986,11 @@
       <c r="C83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>38</v>
+      <c r="D83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>38</v>
@@ -7013,26 +7022,26 @@
       <c r="O83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>38</v>
+      <c r="P83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>38</v>
+      <c r="U83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>38</v>
@@ -7090,8 +7099,8 @@
       <c r="O84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>38</v>
+      <c r="P84" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>38</v>
@@ -7131,11 +7140,11 @@
       <c r="C85" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>38</v>
+      <c r="D85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>38</v>
@@ -7176,17 +7185,17 @@
       <c r="R85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S85" s="2" t="s">
-        <v>38</v>
+      <c r="S85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>38</v>
+      <c r="U85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W85" s="2" t="s">
         <v>38</v>
@@ -7208,14 +7217,14 @@
       <c r="C86" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>37</v>
+      <c r="D86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>38</v>
@@ -7223,47 +7232,47 @@
       <c r="H86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>37</v>
+      <c r="I86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>37</v>
+      <c r="P86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>37</v>
+      <c r="U86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>38</v>
@@ -7288,11 +7297,11 @@
       <c r="D87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>37</v>
+      <c r="E87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>38</v>
@@ -7300,11 +7309,11 @@
       <c r="H87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>37</v>
+      <c r="I87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>38</v>
@@ -7312,35 +7321,35 @@
       <c r="L87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>37</v>
+      <c r="M87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>37</v>
+      <c r="P87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>37</v>
+      <c r="U87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W87" s="2" t="s">
         <v>38</v>
@@ -7362,8 +7371,8 @@
       <c r="C88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>37</v>
+      <c r="D88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>38</v>
@@ -7383,11 +7392,11 @@
       <c r="J88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>37</v>
+      <c r="K88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>38</v>
@@ -7398,14 +7407,14 @@
       <c r="O88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>37</v>
+      <c r="P88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>38</v>
@@ -7442,11 +7451,11 @@
       <c r="D89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>38</v>
+      <c r="E89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -7454,23 +7463,23 @@
       <c r="H89" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>38</v>
+      <c r="I89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>38</v>
+      <c r="L89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>38</v>
@@ -7484,17 +7493,17 @@
       <c r="R89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S89" s="2" t="s">
-        <v>38</v>
+      <c r="S89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>38</v>
+      <c r="U89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W89" s="2" t="s">
         <v>38</v>
@@ -7516,14 +7525,14 @@
       <c r="C90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>38</v>
+      <c r="D90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>38</v>
@@ -7543,8 +7552,8 @@
       <c r="L90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>38</v>
+      <c r="M90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>37</v>
@@ -7552,14 +7561,14 @@
       <c r="O90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>38</v>
+      <c r="P90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>37</v>
@@ -7567,11 +7576,11 @@
       <c r="T90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>38</v>
+      <c r="U90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W90" s="2" t="s">
         <v>38</v>
@@ -7593,8 +7602,8 @@
       <c r="C91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>38</v>
+      <c r="D91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>38</v>
@@ -7608,17 +7617,17 @@
       <c r="H91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>38</v>
+      <c r="I91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>38</v>
@@ -7629,17 +7638,17 @@
       <c r="O91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>37</v>
+      <c r="P91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>38</v>
@@ -7670,8 +7679,8 @@
       <c r="C92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>38</v>
+      <c r="D92" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>38</v>
@@ -7685,14 +7694,14 @@
       <c r="H92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>38</v>
+      <c r="I92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>38</v>
@@ -7706,17 +7715,17 @@
       <c r="O92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>37</v>
+      <c r="P92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>38</v>
@@ -7777,8 +7786,8 @@
       <c r="M93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>38</v>
+      <c r="N93" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>38</v>
@@ -7842,8 +7851,8 @@
       <c r="I94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>38</v>
+      <c r="J94" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>38</v>
@@ -8304,8 +8313,8 @@
       <c r="I100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>37</v>
+      <c r="J100" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>38</v>
@@ -8458,8 +8467,8 @@
       <c r="I102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>38</v>
+      <c r="J102" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>38</v>
@@ -8517,20 +8526,20 @@
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>37</v>
+      <c r="D103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>37</v>
@@ -8538,41 +8547,41 @@
       <c r="J103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>37</v>
+      <c r="K103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>37</v>
+      <c r="P103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>37</v>
+      <c r="T103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W103" s="2" t="s">
         <v>38</v>
@@ -8594,14 +8603,14 @@
       <c r="C104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>37</v>
+      <c r="D104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>38</v>
@@ -8609,11 +8618,11 @@
       <c r="H104" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>38</v>
+      <c r="I104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>38</v>
@@ -8642,14 +8651,14 @@
       <c r="S104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>37</v>
+      <c r="T104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W104" s="2" t="s">
         <v>38</v>
@@ -8686,8 +8695,8 @@
       <c r="H105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>38</v>
+      <c r="I105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>38</v>
@@ -8716,8 +8725,8 @@
       <c r="R105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S105" s="2" t="s">
-        <v>38</v>
+      <c r="S105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>38</v>
@@ -8754,56 +8763,56 @@
       <c r="E106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>38</v>
+      <c r="F106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V106" s="2" t="s">
-        <v>38</v>
+      <c r="P106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W106" s="2" t="s">
         <v>38</v>
@@ -8828,11 +8837,11 @@
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>38</v>
+      <c r="E107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -8870,17 +8879,17 @@
       <c r="R107" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>38</v>
+      <c r="S107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W107" s="2" t="s">
         <v>38</v>
@@ -8902,29 +8911,29 @@
       <c r="C108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>37</v>
+      <c r="D108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>37</v>
+      <c r="I108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>37</v>
+      <c r="K108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>38</v>
@@ -8938,26 +8947,26 @@
       <c r="O108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>37</v>
+      <c r="P108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W108" s="2" t="s">
         <v>38</v>
@@ -8994,14 +9003,14 @@
       <c r="H109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>37</v>
+      <c r="I109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>37</v>
+      <c r="K109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>38</v>
@@ -9024,17 +9033,17 @@
       <c r="R109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S109" s="1" t="s">
-        <v>37</v>
+      <c r="S109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V109" s="1" t="s">
-        <v>37</v>
+      <c r="U109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W109" s="2" t="s">
         <v>38</v>
@@ -9059,26 +9068,26 @@
       <c r="D110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>37</v>
+      <c r="E110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>37</v>
+      <c r="G110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>37</v>
+      <c r="I110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>37</v>
+      <c r="K110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>38</v>
@@ -9092,26 +9101,26 @@
       <c r="O110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>37</v>
+      <c r="P110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W110" s="2" t="s">
         <v>38</v>
@@ -9130,8 +9139,8 @@
       <c r="B111" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>38</v>
+      <c r="C111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>37</v>
@@ -9145,23 +9154,23 @@
       <c r="G111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
+      <c r="H111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>37</v>
+      <c r="J111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>37</v>
+      <c r="L111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>38</v>
@@ -9169,17 +9178,17 @@
       <c r="O111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>38</v>
+      <c r="P111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>37</v>
@@ -9207,14 +9216,14 @@
       <c r="B112" t="s">
         <v>147</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>38</v>
+      <c r="C112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>38</v>
@@ -9225,14 +9234,14 @@
       <c r="H112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>38</v>
+      <c r="I112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>38</v>
+      <c r="K112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>38</v>
@@ -9255,17 +9264,17 @@
       <c r="R112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S112" s="2" t="s">
-        <v>38</v>
+      <c r="S112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>38</v>
+      <c r="U112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>38</v>
@@ -9284,8 +9293,8 @@
       <c r="B113" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>38</v>
+      <c r="C113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>37</v>
@@ -9293,29 +9302,29 @@
       <c r="E113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
+      <c r="F113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>37</v>
+      <c r="H113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>37</v>
+      <c r="J113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>37</v>
+      <c r="L113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>38</v>
@@ -9323,17 +9332,17 @@
       <c r="O113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>38</v>
+      <c r="P113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>37</v>
@@ -9364,35 +9373,35 @@
       <c r="C114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>38</v>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>38</v>
@@ -9412,14 +9421,14 @@
       <c r="S114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>38</v>
+      <c r="T114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W114" s="2" t="s">
         <v>38</v>
@@ -9438,17 +9447,17 @@
       <c r="B115" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>38</v>
@@ -9456,20 +9465,20 @@
       <c r="H115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>37</v>
+      <c r="I115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>38</v>
@@ -9492,8 +9501,8 @@
       <c r="T115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U115" s="1" t="s">
-        <v>37</v>
+      <c r="U115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>38</v>
@@ -9515,38 +9524,38 @@
       <c r="B116" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>37</v>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>38</v>
+      <c r="E116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9566,14 +9575,14 @@
       <c r="S116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>38</v>
+      <c r="T116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>38</v>
@@ -9592,11 +9601,11 @@
       <c r="B117" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>37</v>
+      <c r="C117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>38</v>
@@ -9672,14 +9681,14 @@
       <c r="C118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>38</v>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>38</v>
@@ -9687,20 +9696,20 @@
       <c r="H118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>38</v>
+      <c r="I118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>38</v>
@@ -9723,8 +9732,8 @@
       <c r="T118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U118" s="2" t="s">
-        <v>38</v>
+      <c r="U118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>38</v>
@@ -9752,11 +9761,11 @@
       <c r="D119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
+      <c r="E119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -9764,20 +9773,20 @@
       <c r="H119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>37</v>
+      <c r="I119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9800,8 +9809,8 @@
       <c r="T119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>37</v>
+      <c r="U119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>38</v>
@@ -9829,8 +9838,8 @@
       <c r="D120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>37</v>
+      <c r="E120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>38</v>
@@ -9841,14 +9850,14 @@
       <c r="H120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>37</v>
+      <c r="I120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>37</v>
+      <c r="K120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>38</v>
@@ -9877,8 +9886,8 @@
       <c r="T120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>37</v>
+      <c r="U120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>38</v>
@@ -9903,8 +9912,8 @@
       <c r="C121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>37</v>
+      <c r="D121" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>38</v>
@@ -9980,14 +9989,14 @@
       <c r="C122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>38</v>
+      <c r="D122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>38</v>
@@ -9995,20 +10004,20 @@
       <c r="H122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>38</v>
+      <c r="I122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>38</v>
@@ -10031,8 +10040,8 @@
       <c r="T122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U122" s="2" t="s">
-        <v>38</v>
+      <c r="U122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>38</v>
@@ -10044,6 +10053,237 @@
         <v>38</v>
       </c>
       <c r="Y122" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y123" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="3">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y124" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="3">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y125" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10062,12 +10302,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -501,7 +501,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.46.0-SNAPSHOT</t>
+    <t>1.47.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="164">
   <si>
     <t>User Right</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>DASHBOARD_CONTACT_VIEW_TRANSMISSION_CHAINS</t>
+  </si>
+  <si>
+    <t>DASHBOARD_CAMPAIGNS_ACCESS</t>
   </si>
   <si>
     <t>CASE_MANAGEMENT_ACCESS</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z125"/>
+  <dimension ref="A1:Z126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7756,14 +7759,14 @@
       <c r="C93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>38</v>
+      <c r="D93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>38</v>
@@ -7777,17 +7780,17 @@
       <c r="J93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>37</v>
+      <c r="K93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>38</v>
@@ -7801,14 +7804,14 @@
       <c r="R93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S93" s="1" t="s">
-        <v>37</v>
+      <c r="S93" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U93" s="2" t="s">
-        <v>38</v>
+      <c r="U93" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>38</v>
@@ -7863,8 +7866,8 @@
       <c r="M94" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>38</v>
+      <c r="N94" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>38</v>
@@ -8082,8 +8085,8 @@
       <c r="I97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>38</v>
+      <c r="J97" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>38</v>
@@ -8159,8 +8162,8 @@
       <c r="I98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>37</v>
+      <c r="J98" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>38</v>
@@ -8313,8 +8316,8 @@
       <c r="I100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>38</v>
+      <c r="J100" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>38</v>
@@ -8390,8 +8393,8 @@
       <c r="I101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>37</v>
+      <c r="J101" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>38</v>
@@ -8698,8 +8701,8 @@
       <c r="I105" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>38</v>
+      <c r="J105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>38</v>
@@ -8757,62 +8760,62 @@
       <c r="C106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>37</v>
+      <c r="D106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>37</v>
+      <c r="J106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>37</v>
+      <c r="P106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>37</v>
+      <c r="T106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V106" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W106" s="2" t="s">
         <v>38</v>
@@ -8843,41 +8846,41 @@
       <c r="F107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>38</v>
+      <c r="G107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R107" s="2" t="s">
-        <v>38</v>
+      <c r="P107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>37</v>
@@ -8911,14 +8914,14 @@
       <c r="C108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>38</v>
+      <c r="D108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>38</v>
@@ -8956,17 +8959,17 @@
       <c r="R108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V108" s="2" t="s">
-        <v>38</v>
+      <c r="S108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W108" s="2" t="s">
         <v>38</v>
@@ -8988,11 +8991,11 @@
       <c r="C109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>37</v>
+      <c r="D109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>38</v>
@@ -9068,8 +9071,8 @@
       <c r="D110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>38</v>
+      <c r="E110" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
@@ -9145,26 +9148,26 @@
       <c r="D111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>37</v>
+      <c r="E111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>37</v>
+      <c r="I111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>37</v>
+      <c r="K111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>38</v>
@@ -9178,26 +9181,26 @@
       <c r="O111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V111" s="1" t="s">
-        <v>37</v>
+      <c r="P111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W111" s="2" t="s">
         <v>38</v>
@@ -9225,11 +9228,11 @@
       <c r="E112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>38</v>
+      <c r="F112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>38</v>
@@ -9255,20 +9258,20 @@
       <c r="O112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R112" s="2" t="s">
-        <v>38</v>
+      <c r="P112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T112" s="2" t="s">
-        <v>38</v>
+      <c r="T112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="U112" s="1" t="s">
         <v>37</v>
@@ -9305,8 +9308,8 @@
       <c r="F113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>37</v>
+      <c r="G113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>38</v>
@@ -9332,20 +9335,20 @@
       <c r="O113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>37</v>
+      <c r="P113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T113" s="1" t="s">
-        <v>37</v>
+      <c r="T113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>37</v>
@@ -9370,8 +9373,8 @@
       <c r="B114" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>38</v>
+      <c r="C114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>37</v>
@@ -9379,29 +9382,29 @@
       <c r="E114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>37</v>
+      <c r="F114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>37</v>
+      <c r="H114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>37</v>
+      <c r="J114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>37</v>
+      <c r="L114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>38</v>
@@ -9409,17 +9412,17 @@
       <c r="O114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S114" s="2" t="s">
-        <v>38</v>
+      <c r="P114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>37</v>
@@ -9450,35 +9453,35 @@
       <c r="C115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>38</v>
+      <c r="D115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>38</v>
@@ -9498,14 +9501,14 @@
       <c r="S115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V115" s="2" t="s">
-        <v>38</v>
+      <c r="T115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W115" s="2" t="s">
         <v>38</v>
@@ -9527,35 +9530,35 @@
       <c r="C116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>37</v>
+      <c r="D116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9575,14 +9578,14 @@
       <c r="S116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V116" s="1" t="s">
-        <v>37</v>
+      <c r="T116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>38</v>
@@ -9604,35 +9607,35 @@
       <c r="C117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>38</v>
+      <c r="D117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>38</v>
@@ -9652,14 +9655,14 @@
       <c r="S117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>38</v>
+      <c r="T117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W117" s="2" t="s">
         <v>38</v>
@@ -9678,17 +9681,17 @@
       <c r="B118" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>37</v>
+      <c r="C118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>38</v>
@@ -9696,20 +9699,20 @@
       <c r="H118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>37</v>
+      <c r="I118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>38</v>
@@ -9732,8 +9735,8 @@
       <c r="T118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U118" s="1" t="s">
-        <v>37</v>
+      <c r="U118" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>38</v>
@@ -9761,11 +9764,11 @@
       <c r="D119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>38</v>
+      <c r="E119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -9773,20 +9776,20 @@
       <c r="H119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>38</v>
+      <c r="I119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9809,8 +9812,8 @@
       <c r="T119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U119" s="2" t="s">
-        <v>38</v>
+      <c r="U119" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>38</v>
@@ -9912,8 +9915,8 @@
       <c r="C121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>38</v>
+      <c r="D121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>38</v>
@@ -9989,14 +9992,14 @@
       <c r="C122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>37</v>
+      <c r="D122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>38</v>
@@ -10004,20 +10007,20 @@
       <c r="H122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>37</v>
+      <c r="I122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>38</v>
@@ -10040,8 +10043,8 @@
       <c r="T122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>37</v>
+      <c r="U122" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>38</v>
@@ -10072,8 +10075,8 @@
       <c r="E123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>38</v>
+      <c r="F123" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>38</v>
@@ -10084,17 +10087,17 @@
       <c r="I123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>38</v>
+      <c r="J123" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L123" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>38</v>
+      <c r="L123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>38</v>
@@ -10146,8 +10149,8 @@
       <c r="D124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>38</v>
+      <c r="E124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>38</v>
@@ -10158,14 +10161,14 @@
       <c r="H124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>38</v>
+      <c r="I124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K124" s="2" t="s">
-        <v>38</v>
+      <c r="K124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>38</v>
@@ -10194,8 +10197,8 @@
       <c r="T124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U124" s="2" t="s">
-        <v>38</v>
+      <c r="U124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>38</v>
@@ -10220,8 +10223,8 @@
       <c r="C125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>38</v>
+      <c r="D125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>38</v>
@@ -10284,6 +10287,83 @@
         <v>38</v>
       </c>
       <c r="Y125" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y126" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10302,12 +10382,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="161">
   <si>
     <t>User Right</t>
   </si>
@@ -387,6 +387,9 @@
     <t>DASHBOARD_CONTACT_ACCESS</t>
   </si>
   <si>
+    <t>DASHBOARD_SAMPLE_ACCESS</t>
+  </si>
+  <si>
     <t>DASHBOARD_CONTACT_VIEW_TRANSMISSION_CHAINS</t>
   </si>
   <si>
@@ -492,7 +495,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.45.0-SNAPSHOT</t>
+    <t>1.45.0</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7463,8 +7466,8 @@
       <c r="K89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>38</v>
+      <c r="L89" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>38</v>
@@ -7516,8 +7519,8 @@
       <c r="C90" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>38</v>
+      <c r="D90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>38</v>
@@ -7531,14 +7534,14 @@
       <c r="H90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>38</v>
+      <c r="I90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>38</v>
@@ -7546,23 +7549,23 @@
       <c r="M90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>37</v>
+      <c r="N90" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>37</v>
+      <c r="P90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>38</v>
@@ -7623,8 +7626,8 @@
       <c r="M91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>38</v>
+      <c r="N91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>38</v>
@@ -7842,8 +7845,8 @@
       <c r="I94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>38</v>
+      <c r="J94" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>38</v>
@@ -7919,8 +7922,8 @@
       <c r="I95" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>37</v>
+      <c r="J95" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>38</v>
@@ -8073,8 +8076,8 @@
       <c r="I97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>38</v>
+      <c r="J97" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>38</v>
@@ -8150,8 +8153,8 @@
       <c r="I98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>37</v>
+      <c r="J98" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>38</v>
@@ -8458,8 +8461,8 @@
       <c r="I102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>38</v>
+      <c r="J102" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>38</v>
@@ -8517,62 +8520,62 @@
       <c r="C103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>37</v>
+      <c r="D103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>37</v>
+      <c r="J103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>37</v>
+      <c r="P103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>37</v>
+      <c r="T103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W103" s="2" t="s">
         <v>38</v>
@@ -8603,41 +8606,41 @@
       <c r="F104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>38</v>
+      <c r="G104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>38</v>
+      <c r="P104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>37</v>
@@ -8671,14 +8674,14 @@
       <c r="C105" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>38</v>
+      <c r="D105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -8716,17 +8719,17 @@
       <c r="R105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V105" s="2" t="s">
-        <v>38</v>
+      <c r="S105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V105" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W105" s="2" t="s">
         <v>38</v>
@@ -8748,11 +8751,11 @@
       <c r="C106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>37</v>
+      <c r="D106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>38</v>
@@ -8828,8 +8831,8 @@
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>38</v>
+      <c r="E107" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>38</v>
@@ -8905,26 +8908,26 @@
       <c r="D108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>37</v>
+      <c r="E108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>37</v>
+      <c r="I108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>37</v>
+      <c r="K108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>38</v>
@@ -8938,26 +8941,26 @@
       <c r="O108" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V108" s="1" t="s">
-        <v>37</v>
+      <c r="P108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W108" s="2" t="s">
         <v>38</v>
@@ -8985,11 +8988,11 @@
       <c r="E109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>38</v>
+      <c r="F109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>38</v>
@@ -9015,20 +9018,20 @@
       <c r="O109" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R109" s="2" t="s">
-        <v>38</v>
+      <c r="P109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T109" s="2" t="s">
-        <v>38</v>
+      <c r="T109" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>37</v>
@@ -9065,8 +9068,8 @@
       <c r="F110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>37</v>
+      <c r="G110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>38</v>
@@ -9092,20 +9095,20 @@
       <c r="O110" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>37</v>
+      <c r="P110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T110" s="1" t="s">
-        <v>37</v>
+      <c r="T110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>37</v>
@@ -9130,8 +9133,8 @@
       <c r="B111" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>38</v>
+      <c r="C111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>37</v>
@@ -9139,29 +9142,29 @@
       <c r="E111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>37</v>
+      <c r="F111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>37</v>
+      <c r="H111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>37</v>
+      <c r="J111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>37</v>
+      <c r="L111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>38</v>
@@ -9169,17 +9172,17 @@
       <c r="O111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>38</v>
+      <c r="P111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>37</v>
@@ -9210,35 +9213,35 @@
       <c r="C112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>38</v>
+      <c r="D112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>38</v>
@@ -9258,14 +9261,14 @@
       <c r="S112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U112" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>38</v>
+      <c r="T112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>38</v>
@@ -9287,35 +9290,35 @@
       <c r="C113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>37</v>
+      <c r="D113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>38</v>
@@ -9335,14 +9338,14 @@
       <c r="S113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>37</v>
+      <c r="T113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W113" s="2" t="s">
         <v>38</v>
@@ -9364,35 +9367,35 @@
       <c r="C114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>38</v>
+      <c r="D114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>38</v>
@@ -9412,14 +9415,14 @@
       <c r="S114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>38</v>
+      <c r="T114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W114" s="2" t="s">
         <v>38</v>
@@ -9438,17 +9441,17 @@
       <c r="B115" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
+      <c r="C115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>38</v>
@@ -9456,20 +9459,20 @@
       <c r="H115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>37</v>
+      <c r="I115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>38</v>
@@ -9492,8 +9495,8 @@
       <c r="T115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U115" s="1" t="s">
-        <v>37</v>
+      <c r="U115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>38</v>
@@ -9521,11 +9524,11 @@
       <c r="D116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>38</v>
+      <c r="E116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>38</v>
@@ -9533,20 +9536,20 @@
       <c r="H116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>38</v>
+      <c r="I116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9569,8 +9572,8 @@
       <c r="T116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U116" s="2" t="s">
-        <v>38</v>
+      <c r="U116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V116" s="2" t="s">
         <v>38</v>
@@ -9672,8 +9675,8 @@
       <c r="C118" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>38</v>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>38</v>
@@ -9749,14 +9752,14 @@
       <c r="C119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
+      <c r="D119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -9764,20 +9767,20 @@
       <c r="H119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>37</v>
+      <c r="I119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9800,8 +9803,8 @@
       <c r="T119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>37</v>
+      <c r="U119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>38</v>
@@ -9832,8 +9835,8 @@
       <c r="E120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>38</v>
+      <c r="F120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>38</v>
@@ -9844,17 +9847,17 @@
       <c r="I120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>38</v>
+      <c r="J120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>38</v>
+      <c r="L120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>38</v>
@@ -9906,8 +9909,8 @@
       <c r="D121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>38</v>
+      <c r="E121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>38</v>
@@ -9918,14 +9921,14 @@
       <c r="H121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>38</v>
+      <c r="I121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>38</v>
+      <c r="K121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>38</v>
@@ -9954,8 +9957,8 @@
       <c r="T121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U121" s="2" t="s">
-        <v>38</v>
+      <c r="U121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>38</v>
@@ -9980,8 +9983,8 @@
       <c r="C122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>38</v>
+      <c r="D122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>38</v>
@@ -10044,6 +10047,83 @@
         <v>38</v>
       </c>
       <c r="Y122" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y123" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10062,12 +10142,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="165">
   <si>
     <t>User Right</t>
   </si>
@@ -501,10 +501,13 @@
     <t>CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
+    <t>CAMPAIGN_FORM_DATA_EXPORT</t>
+  </si>
+  <si>
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.47.0-SNAPSHOT</t>
+    <t>1.48.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:Z127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10367,6 +10370,83 @@
         <v>38</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y127" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -10382,12 +10462,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -507,7 +507,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.48.0-SNAPSHOT</t>
+    <t>1.49.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="166">
   <si>
     <t>User Right</t>
   </si>
@@ -450,6 +450,9 @@
     <t>POPULATION_MANAGE</t>
   </si>
   <si>
+    <t>DOCUMENT_TEMPLATE_MANAGEMENT</t>
+  </si>
+  <si>
     <t>LINE_LISTING_CONFIGURE</t>
   </si>
   <si>
@@ -507,7 +510,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.49.0-SNAPSHOT</t>
+    <t>1.50.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z127"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9071,11 +9074,11 @@
       <c r="C110" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>37</v>
+      <c r="D110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
@@ -9151,8 +9154,8 @@
       <c r="D111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>38</v>
+      <c r="E111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>38</v>
@@ -9228,26 +9231,26 @@
       <c r="D112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>37</v>
+      <c r="E112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>37</v>
+      <c r="I112" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>37</v>
+      <c r="K112" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>38</v>
@@ -9261,26 +9264,26 @@
       <c r="O112" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V112" s="1" t="s">
-        <v>37</v>
+      <c r="P112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>38</v>
@@ -9308,11 +9311,11 @@
       <c r="E113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>38</v>
+      <c r="F113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>38</v>
@@ -9338,20 +9341,20 @@
       <c r="O113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R113" s="2" t="s">
-        <v>38</v>
+      <c r="P113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T113" s="2" t="s">
-        <v>38</v>
+      <c r="T113" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>37</v>
@@ -9388,8 +9391,8 @@
       <c r="F114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>37</v>
+      <c r="G114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>38</v>
@@ -9415,20 +9418,20 @@
       <c r="O114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>37</v>
+      <c r="P114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T114" s="1" t="s">
-        <v>37</v>
+      <c r="T114" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U114" s="1" t="s">
         <v>37</v>
@@ -9453,8 +9456,8 @@
       <c r="B115" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>38</v>
+      <c r="C115" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>37</v>
@@ -9462,29 +9465,29 @@
       <c r="E115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
+      <c r="F115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>37</v>
+      <c r="H115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>37</v>
+      <c r="J115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>37</v>
+      <c r="L115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>38</v>
@@ -9492,17 +9495,17 @@
       <c r="O115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R115" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>38</v>
+      <c r="P115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T115" s="1" t="s">
         <v>37</v>
@@ -9533,35 +9536,35 @@
       <c r="C116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>38</v>
+      <c r="D116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9581,14 +9584,14 @@
       <c r="S116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>38</v>
+      <c r="T116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>38</v>
@@ -9610,35 +9613,35 @@
       <c r="C117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>37</v>
+      <c r="D117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>38</v>
@@ -9658,14 +9661,14 @@
       <c r="S117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V117" s="1" t="s">
-        <v>37</v>
+      <c r="T117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V117" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W117" s="2" t="s">
         <v>38</v>
@@ -9687,35 +9690,35 @@
       <c r="C118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>38</v>
+      <c r="D118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>38</v>
@@ -9735,14 +9738,14 @@
       <c r="S118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U118" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V118" s="2" t="s">
-        <v>38</v>
+      <c r="T118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W118" s="2" t="s">
         <v>38</v>
@@ -9761,17 +9764,17 @@
       <c r="B119" t="s">
         <v>154</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>37</v>
+      <c r="C119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -9779,20 +9782,20 @@
       <c r="H119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>37</v>
+      <c r="I119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9815,8 +9818,8 @@
       <c r="T119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>37</v>
+      <c r="U119" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>38</v>
@@ -9844,11 +9847,11 @@
       <c r="D120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>38</v>
+      <c r="E120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>38</v>
@@ -9856,20 +9859,20 @@
       <c r="H120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>38</v>
+      <c r="I120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>38</v>
@@ -9892,8 +9895,8 @@
       <c r="T120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U120" s="2" t="s">
-        <v>38</v>
+      <c r="U120" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>38</v>
@@ -9995,8 +9998,8 @@
       <c r="C122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>38</v>
+      <c r="D122" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>38</v>
@@ -10072,14 +10075,14 @@
       <c r="C123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>37</v>
+      <c r="D123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>38</v>
@@ -10087,20 +10090,20 @@
       <c r="H123" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>37</v>
+      <c r="I123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>38</v>
@@ -10123,8 +10126,8 @@
       <c r="T123" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U123" s="1" t="s">
-        <v>37</v>
+      <c r="U123" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V123" s="2" t="s">
         <v>38</v>
@@ -10155,8 +10158,8 @@
       <c r="E124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>38</v>
+      <c r="F124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>38</v>
@@ -10167,17 +10170,17 @@
       <c r="I124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>38</v>
+      <c r="J124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L124" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>38</v>
+      <c r="L124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>38</v>
@@ -10229,8 +10232,8 @@
       <c r="D125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>38</v>
+      <c r="E125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>38</v>
@@ -10241,14 +10244,14 @@
       <c r="H125" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>38</v>
+      <c r="I125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K125" s="2" t="s">
-        <v>38</v>
+      <c r="K125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>38</v>
@@ -10277,8 +10280,8 @@
       <c r="T125" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U125" s="2" t="s">
-        <v>38</v>
+      <c r="U125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V125" s="2" t="s">
         <v>38</v>
@@ -10303,8 +10306,8 @@
       <c r="C126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>38</v>
+      <c r="D126" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>38</v>
@@ -10380,11 +10383,11 @@
       <c r="C127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>37</v>
+      <c r="D127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>38</v>
@@ -10395,14 +10398,14 @@
       <c r="H127" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>37</v>
+      <c r="I127" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>37</v>
+      <c r="K127" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>38</v>
@@ -10431,8 +10434,8 @@
       <c r="T127" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U127" s="1" t="s">
-        <v>37</v>
+      <c r="U127" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V127" s="2" t="s">
         <v>38</v>
@@ -10444,6 +10447,83 @@
         <v>38</v>
       </c>
       <c r="Y127" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y128" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10462,12 +10542,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="167">
   <si>
     <t>User Right</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>DOCUMENT_TEMPLATE_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>QUARANTINE_ORDER_CREATE</t>
   </si>
   <si>
     <t>LINE_LISTING_CONFIGURE</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z128"/>
+  <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9151,8 +9154,8 @@
       <c r="C111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>37</v>
+      <c r="D111" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>37</v>
@@ -9166,17 +9169,17 @@
       <c r="H111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>38</v>
+      <c r="I111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>38</v>
@@ -9231,8 +9234,8 @@
       <c r="D112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>38</v>
+      <c r="E112" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>38</v>
@@ -9308,26 +9311,26 @@
       <c r="D113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>37</v>
+      <c r="E113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>37</v>
+      <c r="I113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>37</v>
+      <c r="K113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>38</v>
@@ -9341,26 +9344,26 @@
       <c r="O113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>37</v>
+      <c r="P113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W113" s="2" t="s">
         <v>38</v>
@@ -9388,11 +9391,11 @@
       <c r="E114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>38</v>
+      <c r="F114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>38</v>
@@ -9418,20 +9421,20 @@
       <c r="O114" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R114" s="2" t="s">
-        <v>38</v>
+      <c r="P114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T114" s="2" t="s">
-        <v>38</v>
+      <c r="T114" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="U114" s="1" t="s">
         <v>37</v>
@@ -9468,8 +9471,8 @@
       <c r="F115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>37</v>
+      <c r="G115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>38</v>
@@ -9495,20 +9498,20 @@
       <c r="O115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>37</v>
+      <c r="P115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T115" s="1" t="s">
-        <v>37</v>
+      <c r="T115" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>37</v>
@@ -9533,8 +9536,8 @@
       <c r="B116" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>38</v>
+      <c r="C116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>37</v>
@@ -9542,29 +9545,29 @@
       <c r="E116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>37</v>
+      <c r="F116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>37</v>
+      <c r="H116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>37</v>
+      <c r="J116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>37</v>
+      <c r="L116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>38</v>
@@ -9572,17 +9575,17 @@
       <c r="O116" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>38</v>
+      <c r="P116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>37</v>
@@ -9613,35 +9616,35 @@
       <c r="C117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>38</v>
+      <c r="D117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>38</v>
@@ -9661,14 +9664,14 @@
       <c r="S117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>38</v>
+      <c r="T117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W117" s="2" t="s">
         <v>38</v>
@@ -9690,35 +9693,35 @@
       <c r="C118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>37</v>
+      <c r="D118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>38</v>
@@ -9738,14 +9741,14 @@
       <c r="S118" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>37</v>
+      <c r="T118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="W118" s="2" t="s">
         <v>38</v>
@@ -9767,35 +9770,35 @@
       <c r="C119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>38</v>
+      <c r="D119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>38</v>
@@ -9815,14 +9818,14 @@
       <c r="S119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U119" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V119" s="2" t="s">
-        <v>38</v>
+      <c r="T119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W119" s="2" t="s">
         <v>38</v>
@@ -9841,17 +9844,17 @@
       <c r="B120" t="s">
         <v>155</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>37</v>
+      <c r="C120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>38</v>
@@ -9859,20 +9862,20 @@
       <c r="H120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>37</v>
+      <c r="I120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>38</v>
@@ -9895,8 +9898,8 @@
       <c r="T120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>37</v>
+      <c r="U120" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>38</v>
@@ -9924,11 +9927,11 @@
       <c r="D121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>38</v>
+      <c r="E121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>38</v>
@@ -9936,20 +9939,20 @@
       <c r="H121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>38</v>
+      <c r="I121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>38</v>
@@ -9972,8 +9975,8 @@
       <c r="T121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U121" s="2" t="s">
-        <v>38</v>
+      <c r="U121" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>38</v>
@@ -10075,8 +10078,8 @@
       <c r="C123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>38</v>
+      <c r="D123" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>38</v>
@@ -10152,14 +10155,14 @@
       <c r="C124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>37</v>
+      <c r="D124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>38</v>
@@ -10167,20 +10170,20 @@
       <c r="H124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>37</v>
+      <c r="I124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>38</v>
@@ -10203,8 +10206,8 @@
       <c r="T124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U124" s="1" t="s">
-        <v>37</v>
+      <c r="U124" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>38</v>
@@ -10235,8 +10238,8 @@
       <c r="E125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>38</v>
+      <c r="F125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>38</v>
@@ -10247,17 +10250,17 @@
       <c r="I125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>38</v>
+      <c r="J125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L125" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>38</v>
+      <c r="L125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>38</v>
@@ -10309,8 +10312,8 @@
       <c r="D126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>38</v>
+      <c r="E126" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>38</v>
@@ -10321,14 +10324,14 @@
       <c r="H126" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>38</v>
+      <c r="I126" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>38</v>
+      <c r="K126" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>38</v>
@@ -10357,8 +10360,8 @@
       <c r="T126" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U126" s="2" t="s">
-        <v>38</v>
+      <c r="U126" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V126" s="2" t="s">
         <v>38</v>
@@ -10383,8 +10386,8 @@
       <c r="C127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>38</v>
+      <c r="D127" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>38</v>
@@ -10460,11 +10463,11 @@
       <c r="C128" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>37</v>
+      <c r="D128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>38</v>
@@ -10475,14 +10478,14 @@
       <c r="H128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>37</v>
+      <c r="I128" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>37</v>
+      <c r="K128" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>38</v>
@@ -10511,8 +10514,8 @@
       <c r="T128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U128" s="1" t="s">
-        <v>37</v>
+      <c r="U128" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="V128" s="2" t="s">
         <v>38</v>
@@ -10524,6 +10527,83 @@
         <v>38</v>
       </c>
       <c r="Y128" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y129" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10542,12 +10622,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="169">
   <si>
     <t>User Right</t>
   </si>
@@ -453,6 +453,12 @@
     <t>POPULATION_MANAGE</t>
   </si>
   <si>
+    <t>DOCUMENT_TEMPLATE_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>QUARANTINE_ORDER_CREATE</t>
+  </si>
+  <si>
     <t>LINE_LISTING_CONFIGURE</t>
   </si>
   <si>
@@ -513,7 +519,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.50.0-SNAPSHOT</t>
+    <t>1.51.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA128"/>
+  <dimension ref="A1:AA130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9405,11 +9411,11 @@
       <c r="C110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>38</v>
+      <c r="D110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>39</v>
@@ -9482,14 +9488,14 @@
       <c r="B111" t="s">
         <v>147</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>39</v>
+      <c r="C111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>39</v>
@@ -9500,17 +9506,17 @@
       <c r="H111" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>39</v>
+      <c r="I111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>39</v>
@@ -9571,23 +9577,23 @@
       <c r="E112" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>38</v>
+      <c r="F112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>38</v>
+      <c r="I112" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>38</v>
+      <c r="K112" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>39</v>
@@ -9601,26 +9607,26 @@
       <c r="O112" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V112" s="1" t="s">
-        <v>38</v>
+      <c r="P112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="W112" s="2" t="s">
         <v>39</v>
@@ -9648,8 +9654,8 @@
       <c r="D113" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>38</v>
+      <c r="E113" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>39</v>
@@ -9660,14 +9666,14 @@
       <c r="H113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>38</v>
+      <c r="I113" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>38</v>
+      <c r="K113" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>39</v>
@@ -9690,17 +9696,17 @@
       <c r="R113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S113" s="1" t="s">
-        <v>38</v>
+      <c r="S113" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U113" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>38</v>
+      <c r="U113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="W113" s="2" t="s">
         <v>39</v>
@@ -9731,8 +9737,8 @@
       <c r="E114" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>39</v>
+      <c r="F114" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>38</v>
@@ -9802,8 +9808,8 @@
       <c r="B115" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>39</v>
+      <c r="C115" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>38</v>
@@ -9811,29 +9817,29 @@
       <c r="E115" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>38</v>
+      <c r="F115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>38</v>
+      <c r="J115" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>38</v>
+      <c r="L115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>39</v>
@@ -9850,11 +9856,11 @@
       <c r="R115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S115" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T115" s="1" t="s">
-        <v>38</v>
+      <c r="S115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>38</v>
@@ -9882,32 +9888,32 @@
       <c r="B116" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>39</v>
+      <c r="C116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>39</v>
+      <c r="G116" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>39</v>
+      <c r="I116" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K116" s="2" t="s">
-        <v>39</v>
+      <c r="K116" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>39</v>
@@ -9921,26 +9927,26 @@
       <c r="O116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>39</v>
+      <c r="P116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="W116" s="2" t="s">
         <v>39</v>
@@ -10122,8 +10128,8 @@
       <c r="B119" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>38</v>
+      <c r="C119" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>38</v>
@@ -10134,11 +10140,11 @@
       <c r="F119" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>39</v>
+      <c r="G119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>38</v>
@@ -10173,14 +10179,14 @@
       <c r="S119" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T119" s="2" t="s">
-        <v>39</v>
+      <c r="T119" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="U119" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V119" s="2" t="s">
-        <v>39</v>
+      <c r="V119" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="W119" s="2" t="s">
         <v>39</v>
@@ -10202,11 +10208,11 @@
       <c r="B120" t="s">
         <v>156</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>38</v>
+      <c r="C120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>39</v>
@@ -10288,11 +10294,11 @@
       <c r="D121" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>39</v>
+      <c r="E121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>39</v>
@@ -10300,20 +10306,20 @@
       <c r="H121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>39</v>
+      <c r="I121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>39</v>
@@ -10336,8 +10342,8 @@
       <c r="T121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U121" s="2" t="s">
-        <v>39</v>
+      <c r="U121" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>39</v>
@@ -10365,8 +10371,8 @@
       <c r="C122" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>39</v>
+      <c r="D122" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>39</v>
@@ -10448,11 +10454,11 @@
       <c r="D123" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>38</v>
+      <c r="E123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>39</v>
@@ -10460,20 +10466,20 @@
       <c r="H123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>38</v>
+      <c r="I123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>39</v>
@@ -10496,8 +10502,8 @@
       <c r="T123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U123" s="1" t="s">
-        <v>38</v>
+      <c r="U123" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="V123" s="2" t="s">
         <v>39</v>
@@ -10525,11 +10531,11 @@
       <c r="C124" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>38</v>
+      <c r="D124" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>39</v>
@@ -10540,14 +10546,14 @@
       <c r="H124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>38</v>
+      <c r="I124" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>38</v>
+      <c r="K124" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>39</v>
@@ -10576,8 +10582,8 @@
       <c r="T124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U124" s="1" t="s">
-        <v>38</v>
+      <c r="U124" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>39</v>
@@ -10608,11 +10614,11 @@
       <c r="D125" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>39</v>
+      <c r="E125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>39</v>
@@ -10620,20 +10626,20 @@
       <c r="H125" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>39</v>
+      <c r="I125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>39</v>
@@ -10656,8 +10662,8 @@
       <c r="T125" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U125" s="2" t="s">
-        <v>39</v>
+      <c r="U125" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="V125" s="2" t="s">
         <v>39</v>
@@ -10685,11 +10691,11 @@
       <c r="C126" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>39</v>
+      <c r="D126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>39</v>
@@ -10700,14 +10706,14 @@
       <c r="H126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>39</v>
+      <c r="I126" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>39</v>
+      <c r="K126" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>39</v>
@@ -10736,8 +10742,8 @@
       <c r="T126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U126" s="2" t="s">
-        <v>39</v>
+      <c r="U126" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="V126" s="2" t="s">
         <v>39</v>
@@ -10768,8 +10774,8 @@
       <c r="D127" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>38</v>
+      <c r="E127" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>39</v>
@@ -10780,14 +10786,14 @@
       <c r="H127" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>38</v>
+      <c r="I127" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>38</v>
+      <c r="K127" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>39</v>
@@ -10816,8 +10822,8 @@
       <c r="T127" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U127" s="1" t="s">
-        <v>38</v>
+      <c r="U127" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="V127" s="2" t="s">
         <v>39</v>
@@ -10845,11 +10851,11 @@
       <c r="C128" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>38</v>
+      <c r="D128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>39</v>
@@ -10860,14 +10866,14 @@
       <c r="H128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>38</v>
+      <c r="I128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>38</v>
+      <c r="K128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>39</v>
@@ -10875,8 +10881,8 @@
       <c r="M128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N128" s="1" t="s">
-        <v>38</v>
+      <c r="N128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>39</v>
@@ -10890,17 +10896,17 @@
       <c r="R128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S128" s="1" t="s">
-        <v>38</v>
+      <c r="S128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U128" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V128" s="1" t="s">
-        <v>38</v>
+      <c r="U128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="W128" s="2" t="s">
         <v>39</v>
@@ -10912,6 +10918,166 @@
         <v>39</v>
       </c>
       <c r="Z128" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="3">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s">
+        <v>165</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z129" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="3">
+        <v>166</v>
+      </c>
+      <c r="B130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z130" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10930,12 +11096,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -513,7 +513,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.50.0-SNAPSHOT</t>
+    <t>${project.version}</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="171">
   <si>
     <t>User Right</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>BAG_EXPORT</t>
+  </si>
+  <si>
+    <t>SORMAS_TO_SORMAS_SHARE</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB130"/>
+  <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1614,8 +1617,8 @@
       <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
@@ -10522,8 +10525,8 @@
       <c r="N119" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O119" s="2" t="s">
-        <v>40</v>
+      <c r="O119" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>40</v>
@@ -11472,6 +11475,89 @@
         <v>40</v>
       </c>
       <c r="AA130" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="3">
+        <v>168</v>
+      </c>
+      <c r="B131" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA131" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11490,12 +11576,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -525,7 +525,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.51.0-SNAPSHOT</t>
+    <t>${project.version}</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -525,7 +525,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.51.0-SNAPSHOT</t>
+    <t>${project.version}</t>
   </si>
 </sst>
 </file>
@@ -6929,8 +6929,8 @@
       <c r="E76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>39</v>
+      <c r="F76" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>40</v>
@@ -9828,14 +9828,14 @@
       <c r="C111" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>39</v>
+      <c r="D111" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>39</v>
+      <c r="F111" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>40</v>
@@ -9917,8 +9917,8 @@
       <c r="E112" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>39</v>
+      <c r="F112" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>40</v>
@@ -11494,8 +11494,8 @@
       <c r="E131" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>39</v>
+      <c r="F131" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>39</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -6929,8 +6929,8 @@
       <c r="E76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>40</v>
+      <c r="F76" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>40</v>
@@ -9828,14 +9828,14 @@
       <c r="C111" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>40</v>
+      <c r="D111" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>40</v>
+      <c r="F111" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>40</v>
@@ -9917,8 +9917,8 @@
       <c r="E112" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>40</v>
+      <c r="F112" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>40</v>
@@ -11494,8 +11494,8 @@
       <c r="E131" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>40</v>
+      <c r="F131" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>39</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -531,7 +531,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.52.0-SNAPSHOT</t>
+    <t>1.53.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -857,7 +857,7 @@
         <v>29</v>
       </c>
       <c r="AA2" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -537,7 +537,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.53.0-SNAPSHOT</t>
+    <t>1.54.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -11008,14 +11008,14 @@
       <c r="X120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y120" s="2" t="s">
-        <v>41</v>
+      <c r="Y120" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA120" s="2" t="s">
-        <v>41</v>
+      <c r="AA120" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB120" s="2" t="s">
         <v>41</v>
@@ -11094,14 +11094,14 @@
       <c r="X121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y121" s="2" t="s">
-        <v>41</v>
+      <c r="Y121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA121" s="2" t="s">
-        <v>41</v>
+      <c r="AA121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB121" s="2" t="s">
         <v>41</v>
@@ -11180,14 +11180,14 @@
       <c r="X122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y122" s="2" t="s">
-        <v>41</v>
+      <c r="Y122" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA122" s="2" t="s">
-        <v>41</v>
+      <c r="AA122" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB122" s="2" t="s">
         <v>41</v>
@@ -11266,14 +11266,14 @@
       <c r="X123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y123" s="2" t="s">
-        <v>41</v>
+      <c r="Y123" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA123" s="2" t="s">
-        <v>41</v>
+      <c r="AA123" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB123" s="2" t="s">
         <v>41</v>
@@ -11375,8 +11375,8 @@
       <c r="C125" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>40</v>
+      <c r="D125" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>41</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="177">
   <si>
     <t>User Right</t>
   </si>
@@ -381,6 +381,9 @@
     <t>PERFORM_BULK_OPERATIONS</t>
   </si>
   <si>
+    <t>PERFORM_BULK_OPERATIONS_CASE_SAMPLES</t>
+  </si>
+  <si>
     <t>INFRASTRUCTURE_CREATE</t>
   </si>
   <si>
@@ -532,6 +535,9 @@
   </si>
   <si>
     <t>SORMAS_TO_SORMAS_SHARE</t>
+  </si>
+  <si>
+    <t>LAB_MESSAGES</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7855,8 +7861,8 @@
       <c r="E84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>41</v>
+      <c r="F84" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>41</v>
@@ -8021,14 +8027,14 @@
       <c r="C86" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>40</v>
+      <c r="D86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>41</v>
@@ -8060,26 +8066,26 @@
       <c r="P86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>40</v>
+      <c r="Q86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>40</v>
+      <c r="V86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>41</v>
@@ -8110,11 +8116,11 @@
       <c r="D87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>41</v>
+      <c r="E87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>41</v>
@@ -8149,23 +8155,23 @@
       <c r="Q87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>41</v>
+      <c r="R87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>41</v>
+      <c r="V87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>41</v>
@@ -8196,11 +8202,11 @@
       <c r="D88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>40</v>
+      <c r="E88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>41</v>
@@ -8232,8 +8238,8 @@
       <c r="P88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q88" s="2" t="s">
-        <v>41</v>
+      <c r="Q88" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>41</v>
@@ -8241,17 +8247,17 @@
       <c r="S88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>40</v>
+      <c r="T88" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>40</v>
+      <c r="V88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X88" s="2" t="s">
         <v>41</v>
@@ -8279,14 +8285,14 @@
       <c r="C89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>41</v>
+      <c r="D89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>41</v>
@@ -8327,17 +8333,17 @@
       <c r="S89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T89" s="2" t="s">
-        <v>41</v>
+      <c r="T89" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>41</v>
+      <c r="V89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>41</v>
@@ -8365,8 +8371,8 @@
       <c r="C90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>40</v>
+      <c r="D90" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>41</v>
@@ -8451,8 +8457,8 @@
       <c r="C91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>41</v>
+      <c r="D91" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>41</v>
@@ -8537,17 +8543,17 @@
       <c r="C92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>40</v>
+      <c r="D92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>41</v>
@@ -8555,47 +8561,47 @@
       <c r="I92" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>40</v>
+      <c r="J92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>40</v>
+      <c r="Q92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>40</v>
+      <c r="V92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>41</v>
@@ -8647,11 +8653,11 @@
       <c r="K93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>41</v>
+      <c r="L93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>40</v>
@@ -8712,14 +8718,14 @@
       <c r="D94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>41</v>
+      <c r="E94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>41</v>
@@ -8727,23 +8733,23 @@
       <c r="I94" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>41</v>
+      <c r="J94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>41</v>
@@ -8757,17 +8763,17 @@
       <c r="S94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T94" s="2" t="s">
-        <v>41</v>
+      <c r="T94" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W94" s="2" t="s">
-        <v>41</v>
+      <c r="V94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>41</v>
@@ -8822,8 +8828,8 @@
       <c r="L95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>41</v>
+      <c r="M95" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>41</v>
@@ -8884,14 +8890,14 @@
       <c r="D96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>40</v>
+      <c r="E96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>41</v>
@@ -8899,20 +8905,20 @@
       <c r="I96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>40</v>
+      <c r="J96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>40</v>
+      <c r="M96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>41</v>
@@ -8920,14 +8926,14 @@
       <c r="P96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>41</v>
+      <c r="Q96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>41</v>
@@ -8935,8 +8941,8 @@
       <c r="U96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>40</v>
+      <c r="V96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W96" s="2" t="s">
         <v>41</v>
@@ -8967,17 +8973,17 @@
       <c r="C97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>41</v>
+      <c r="D97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>41</v>
@@ -8991,17 +8997,17 @@
       <c r="K97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>40</v>
+      <c r="L97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>41</v>
@@ -9015,14 +9021,14 @@
       <c r="S97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>40</v>
+      <c r="T97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>41</v>
+      <c r="V97" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W97" s="2" t="s">
         <v>41</v>
@@ -9086,8 +9092,8 @@
       <c r="N98" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O98" s="2" t="s">
-        <v>41</v>
+      <c r="O98" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>41</v>
@@ -9332,8 +9338,8 @@
       <c r="J101" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>41</v>
+      <c r="K101" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>41</v>
@@ -9418,8 +9424,8 @@
       <c r="J102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>40</v>
+      <c r="K102" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>41</v>
@@ -9590,8 +9596,8 @@
       <c r="J104" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>41</v>
+      <c r="K104" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>41</v>
@@ -9676,8 +9682,8 @@
       <c r="J105" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>40</v>
+      <c r="K105" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>41</v>
@@ -10020,8 +10026,8 @@
       <c r="J109" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>41</v>
+      <c r="K109" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>41</v>
@@ -10085,65 +10091,65 @@
       <c r="C110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>40</v>
+      <c r="D110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>40</v>
+      <c r="K110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>40</v>
+      <c r="Q110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="T110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>40</v>
+      <c r="U110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W110" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>41</v>
@@ -10183,41 +10189,41 @@
       <c r="G111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>41</v>
+      <c r="H111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R111" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>41</v>
+      <c r="Q111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>40</v>
@@ -10257,17 +10263,17 @@
       <c r="C112" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>41</v>
+      <c r="D112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>41</v>
@@ -10305,17 +10311,17 @@
       <c r="S112" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W112" s="2" t="s">
-        <v>41</v>
+      <c r="T112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X112" s="2" t="s">
         <v>41</v>
@@ -10426,17 +10432,17 @@
       <c r="B114" t="s">
         <v>152</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>40</v>
+      <c r="C114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>41</v>
@@ -10447,17 +10453,17 @@
       <c r="I114" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>40</v>
+      <c r="J114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>41</v>
@@ -10512,8 +10518,8 @@
       <c r="B115" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>40</v>
+      <c r="C115" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>40</v>
@@ -10533,17 +10539,17 @@
       <c r="I115" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>41</v>
+      <c r="J115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>41</v>
@@ -10604,11 +10610,11 @@
       <c r="D116" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>41</v>
+      <c r="E116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>41</v>
@@ -10690,29 +10696,29 @@
       <c r="D117" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>40</v>
+      <c r="E117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>40</v>
+      <c r="J117" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>40</v>
+      <c r="L117" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>41</v>
@@ -10726,26 +10732,26 @@
       <c r="P117" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W117" s="1" t="s">
-        <v>40</v>
+      <c r="Q117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V117" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W117" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X117" s="2" t="s">
         <v>41</v>
@@ -10782,11 +10788,11 @@
       <c r="F118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>41</v>
+      <c r="G118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>41</v>
@@ -10812,20 +10818,20 @@
       <c r="P118" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q118" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R118" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>41</v>
+      <c r="Q118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U118" s="2" t="s">
-        <v>41</v>
+      <c r="U118" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="V118" s="1" t="s">
         <v>40</v>
@@ -10871,8 +10877,8 @@
       <c r="G119" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>40</v>
+      <c r="H119" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>41</v>
@@ -10898,20 +10904,20 @@
       <c r="P119" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q119" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S119" s="1" t="s">
-        <v>40</v>
+      <c r="Q119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="T119" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>40</v>
+      <c r="U119" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>40</v>
@@ -10942,8 +10948,8 @@
       <c r="B120" t="s">
         <v>158</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>41</v>
+      <c r="C120" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>40</v>
@@ -10954,29 +10960,29 @@
       <c r="F120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>40</v>
+      <c r="G120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>40</v>
+      <c r="I120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>40</v>
+      <c r="K120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>40</v>
+      <c r="M120" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>41</v>
@@ -10984,17 +10990,17 @@
       <c r="P120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q120" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R120" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S120" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T120" s="2" t="s">
-        <v>41</v>
+      <c r="Q120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U120" s="1" t="s">
         <v>40</v>
@@ -11008,14 +11014,14 @@
       <c r="X120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y120" s="1" t="s">
-        <v>40</v>
+      <c r="Y120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Z120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA120" s="1" t="s">
-        <v>40</v>
+      <c r="AA120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB120" s="2" t="s">
         <v>41</v>
@@ -11031,38 +11037,38 @@
       <c r="C121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>41</v>
+      <c r="D121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>41</v>
@@ -11082,14 +11088,14 @@
       <c r="T121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W121" s="2" t="s">
-        <v>41</v>
+      <c r="U121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X121" s="2" t="s">
         <v>41</v>
@@ -11117,41 +11123,41 @@
       <c r="C122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>40</v>
+      <c r="D122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>41</v>
@@ -11168,14 +11174,14 @@
       <c r="T122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>40</v>
+      <c r="U122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X122" s="2" t="s">
         <v>41</v>
@@ -11203,41 +11209,41 @@
       <c r="C123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>41</v>
+      <c r="D123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>41</v>
@@ -11254,14 +11260,14 @@
       <c r="T123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V123" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W123" s="2" t="s">
-        <v>41</v>
+      <c r="U123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X123" s="2" t="s">
         <v>41</v>
@@ -11286,20 +11292,20 @@
       <c r="B124" t="s">
         <v>162</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>40</v>
+      <c r="C124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>41</v>
@@ -11307,20 +11313,20 @@
       <c r="I124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>40</v>
+      <c r="J124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>41</v>
@@ -11343,8 +11349,8 @@
       <c r="U124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>40</v>
+      <c r="V124" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W124" s="2" t="s">
         <v>41</v>
@@ -11352,14 +11358,14 @@
       <c r="X124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y124" s="2" t="s">
-        <v>41</v>
+      <c r="Y124" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA124" s="2" t="s">
-        <v>41</v>
+      <c r="AA124" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB124" s="2" t="s">
         <v>41</v>
@@ -11375,17 +11381,17 @@
       <c r="C125" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>41</v>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>41</v>
@@ -11393,20 +11399,20 @@
       <c r="I125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>41</v>
+      <c r="J125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>41</v>
@@ -11429,8 +11435,8 @@
       <c r="U125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V125" s="2" t="s">
-        <v>41</v>
+      <c r="V125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W125" s="2" t="s">
         <v>41</v>
@@ -11461,8 +11467,8 @@
       <c r="C126" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>40</v>
+      <c r="D126" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>41</v>
@@ -11547,8 +11553,8 @@
       <c r="C127" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>41</v>
+      <c r="D127" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>41</v>
@@ -11633,17 +11639,17 @@
       <c r="C128" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>40</v>
+      <c r="D128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>41</v>
@@ -11651,20 +11657,20 @@
       <c r="I128" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>40</v>
+      <c r="J128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>41</v>
@@ -11687,8 +11693,8 @@
       <c r="U128" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>40</v>
+      <c r="V128" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W128" s="2" t="s">
         <v>41</v>
@@ -11728,8 +11734,8 @@
       <c r="F129" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>41</v>
+      <c r="G129" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>41</v>
@@ -11740,17 +11746,17 @@
       <c r="J129" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>41</v>
+      <c r="K129" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M129" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>41</v>
+      <c r="M129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>41</v>
@@ -11808,11 +11814,11 @@
       <c r="D130" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>41</v>
+      <c r="E130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>41</v>
@@ -11823,14 +11829,14 @@
       <c r="I130" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>41</v>
+      <c r="J130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L130" s="2" t="s">
-        <v>41</v>
+      <c r="L130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>41</v>
@@ -11859,8 +11865,8 @@
       <c r="U130" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V130" s="2" t="s">
-        <v>41</v>
+      <c r="V130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W130" s="2" t="s">
         <v>41</v>
@@ -11891,8 +11897,8 @@
       <c r="C131" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>41</v>
+      <c r="D131" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>41</v>
@@ -11977,14 +11983,14 @@
       <c r="C132" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>40</v>
+      <c r="D132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>41</v>
@@ -11995,14 +12001,14 @@
       <c r="I132" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>40</v>
+      <c r="J132" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>40</v>
+      <c r="L132" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>41</v>
@@ -12031,8 +12037,8 @@
       <c r="U132" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>40</v>
+      <c r="V132" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W132" s="2" t="s">
         <v>41</v>
@@ -12060,17 +12066,17 @@
       <c r="B133" t="s">
         <v>171</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>41</v>
+      <c r="C133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>41</v>
@@ -12081,14 +12087,14 @@
       <c r="I133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>41</v>
+      <c r="J133" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L133" s="2" t="s">
-        <v>41</v>
+      <c r="L133" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>41</v>
@@ -12117,8 +12123,8 @@
       <c r="U133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V133" s="2" t="s">
-        <v>41</v>
+      <c r="V133" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W133" s="2" t="s">
         <v>41</v>
@@ -12135,8 +12141,8 @@
       <c r="AA133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB133" s="1" t="s">
-        <v>40</v>
+      <c r="AB133" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="134">
@@ -12146,20 +12152,20 @@
       <c r="B134" t="s">
         <v>172</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>40</v>
+      <c r="C134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>41</v>
@@ -12167,20 +12173,20 @@
       <c r="I134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>40</v>
+      <c r="J134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>41</v>
@@ -12188,26 +12194,26 @@
       <c r="P134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T134" s="1" t="s">
-        <v>40</v>
+      <c r="Q134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W134" s="1" t="s">
-        <v>40</v>
+      <c r="V134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X134" s="2" t="s">
         <v>41</v>
@@ -12221,7 +12227,179 @@
       <c r="AA134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB134" s="2" t="s">
+      <c r="AB134" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="B135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB135" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="3">
+        <v>174</v>
+      </c>
+      <c r="B136" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB136" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12240,12 +12418,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="178">
   <si>
     <t>User Right</t>
   </si>
@@ -381,6 +381,9 @@
     <t>PERFORM_BULK_OPERATIONS</t>
   </si>
   <si>
+    <t>MANAGE_PUBLIC_EXPORT_CONFIGURATION</t>
+  </si>
+  <si>
     <t>PERFORM_BULK_OPERATIONS_CASE_SAMPLES</t>
   </si>
   <si>
@@ -543,7 +546,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.54.0-SNAPSHOT</t>
+    <t>1.56.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7855,8 +7858,8 @@
       <c r="C84" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>41</v>
+      <c r="D84" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>41</v>
@@ -7947,8 +7950,8 @@
       <c r="E85" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>41</v>
+      <c r="F85" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>41</v>
@@ -8113,14 +8116,14 @@
       <c r="C87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>40</v>
+      <c r="D87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>41</v>
@@ -8152,26 +8155,26 @@
       <c r="P87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>40</v>
+      <c r="Q87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>40</v>
+      <c r="V87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>41</v>
@@ -8202,11 +8205,11 @@
       <c r="D88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>41</v>
+      <c r="E88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>41</v>
@@ -8241,23 +8244,23 @@
       <c r="Q88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>41</v>
+      <c r="R88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>41</v>
+      <c r="V88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X88" s="2" t="s">
         <v>41</v>
@@ -8288,11 +8291,11 @@
       <c r="D89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>40</v>
+      <c r="E89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>41</v>
@@ -8324,8 +8327,8 @@
       <c r="P89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q89" s="2" t="s">
-        <v>41</v>
+      <c r="Q89" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R89" s="2" t="s">
         <v>41</v>
@@ -8333,17 +8336,17 @@
       <c r="S89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>40</v>
+      <c r="T89" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W89" s="1" t="s">
-        <v>40</v>
+      <c r="V89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>41</v>
@@ -8371,14 +8374,14 @@
       <c r="C90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>41</v>
+      <c r="D90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>41</v>
@@ -8419,17 +8422,17 @@
       <c r="S90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T90" s="2" t="s">
-        <v>41</v>
+      <c r="T90" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>41</v>
+      <c r="V90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X90" s="2" t="s">
         <v>41</v>
@@ -8457,8 +8460,8 @@
       <c r="C91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>40</v>
+      <c r="D91" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>41</v>
@@ -8543,8 +8546,8 @@
       <c r="C92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>41</v>
+      <c r="D92" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>41</v>
@@ -8629,17 +8632,17 @@
       <c r="C93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>40</v>
+      <c r="D93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>41</v>
@@ -8647,47 +8650,47 @@
       <c r="I93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>40</v>
+      <c r="J93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>40</v>
+      <c r="Q93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>40</v>
+      <c r="V93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>41</v>
@@ -8739,11 +8742,11 @@
       <c r="K94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>41</v>
+      <c r="L94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>40</v>
@@ -8804,14 +8807,14 @@
       <c r="D95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>41</v>
+      <c r="E95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>41</v>
@@ -8819,23 +8822,23 @@
       <c r="I95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>41</v>
+      <c r="J95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>41</v>
@@ -8849,17 +8852,17 @@
       <c r="S95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T95" s="2" t="s">
-        <v>41</v>
+      <c r="T95" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W95" s="2" t="s">
-        <v>41</v>
+      <c r="V95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>41</v>
@@ -8914,8 +8917,8 @@
       <c r="L96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>41</v>
+      <c r="M96" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>41</v>
@@ -8976,14 +8979,14 @@
       <c r="D97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>40</v>
+      <c r="E97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>41</v>
@@ -8991,20 +8994,20 @@
       <c r="I97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>40</v>
+      <c r="J97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>40</v>
+      <c r="M97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>41</v>
@@ -9012,14 +9015,14 @@
       <c r="P97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>41</v>
+      <c r="Q97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>41</v>
@@ -9027,8 +9030,8 @@
       <c r="U97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>40</v>
+      <c r="V97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W97" s="2" t="s">
         <v>41</v>
@@ -9059,17 +9062,17 @@
       <c r="C98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>41</v>
+      <c r="D98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>41</v>
@@ -9083,17 +9086,17 @@
       <c r="K98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>40</v>
+      <c r="L98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>41</v>
@@ -9107,14 +9110,14 @@
       <c r="S98" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>40</v>
+      <c r="T98" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>41</v>
+      <c r="V98" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W98" s="2" t="s">
         <v>41</v>
@@ -9178,8 +9181,8 @@
       <c r="N99" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>41</v>
+      <c r="O99" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>41</v>
@@ -9424,8 +9427,8 @@
       <c r="J102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>41</v>
+      <c r="K102" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>41</v>
@@ -9510,8 +9513,8 @@
       <c r="J103" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>40</v>
+      <c r="K103" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>41</v>
@@ -9682,8 +9685,8 @@
       <c r="J105" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>41</v>
+      <c r="K105" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>41</v>
@@ -9768,8 +9771,8 @@
       <c r="J106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>40</v>
+      <c r="K106" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>41</v>
@@ -10112,8 +10115,8 @@
       <c r="J110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>41</v>
+      <c r="K110" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>41</v>
@@ -10177,65 +10180,65 @@
       <c r="C111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>40</v>
+      <c r="D111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>40</v>
+      <c r="K111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>40</v>
+      <c r="Q111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W111" s="1" t="s">
-        <v>40</v>
+      <c r="U111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>41</v>
@@ -10275,41 +10278,41 @@
       <c r="G112" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>41</v>
+      <c r="H112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S112" s="2" t="s">
-        <v>41</v>
+      <c r="Q112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>40</v>
@@ -10349,17 +10352,17 @@
       <c r="C113" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>41</v>
+      <c r="D113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>41</v>
@@ -10397,17 +10400,17 @@
       <c r="S113" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W113" s="2" t="s">
-        <v>41</v>
+      <c r="T113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X113" s="2" t="s">
         <v>41</v>
@@ -10518,17 +10521,17 @@
       <c r="B115" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>40</v>
+      <c r="C115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>41</v>
@@ -10539,17 +10542,17 @@
       <c r="I115" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>40</v>
+      <c r="J115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>41</v>
@@ -10604,8 +10607,8 @@
       <c r="B116" t="s">
         <v>154</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>40</v>
+      <c r="C116" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>40</v>
@@ -10625,17 +10628,17 @@
       <c r="I116" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>41</v>
+      <c r="J116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>41</v>
@@ -10696,11 +10699,11 @@
       <c r="D117" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>41</v>
+      <c r="E117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>41</v>
@@ -10782,29 +10785,29 @@
       <c r="D118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>40</v>
+      <c r="E118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>40</v>
+      <c r="J118" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>40</v>
+      <c r="L118" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>41</v>
@@ -10818,26 +10821,26 @@
       <c r="P118" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W118" s="1" t="s">
-        <v>40</v>
+      <c r="Q118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W118" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X118" s="2" t="s">
         <v>41</v>
@@ -10874,11 +10877,11 @@
       <c r="F119" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>41</v>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>41</v>
@@ -10904,20 +10907,20 @@
       <c r="P119" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q119" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R119" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S119" s="2" t="s">
-        <v>41</v>
+      <c r="Q119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="T119" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U119" s="2" t="s">
-        <v>41</v>
+      <c r="U119" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>40</v>
@@ -10963,8 +10966,8 @@
       <c r="G120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>40</v>
+      <c r="H120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>41</v>
@@ -10990,20 +10993,20 @@
       <c r="P120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q120" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S120" s="1" t="s">
-        <v>40</v>
+      <c r="Q120" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="T120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>40</v>
+      <c r="U120" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="V120" s="1" t="s">
         <v>40</v>
@@ -11034,8 +11037,8 @@
       <c r="B121" t="s">
         <v>159</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>41</v>
+      <c r="C121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>40</v>
@@ -11046,29 +11049,29 @@
       <c r="F121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>40</v>
+      <c r="G121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>40</v>
+      <c r="I121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>40</v>
+      <c r="K121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>40</v>
+      <c r="M121" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>41</v>
@@ -11076,17 +11079,17 @@
       <c r="P121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S121" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T121" s="2" t="s">
-        <v>41</v>
+      <c r="Q121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U121" s="1" t="s">
         <v>40</v>
@@ -11100,14 +11103,14 @@
       <c r="X121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y121" s="1" t="s">
-        <v>40</v>
+      <c r="Y121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Z121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA121" s="1" t="s">
-        <v>40</v>
+      <c r="AA121" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB121" s="2" t="s">
         <v>41</v>
@@ -11123,38 +11126,38 @@
       <c r="C122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>41</v>
+      <c r="D122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>41</v>
@@ -11174,14 +11177,14 @@
       <c r="T122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V122" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W122" s="2" t="s">
-        <v>41</v>
+      <c r="U122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X122" s="2" t="s">
         <v>41</v>
@@ -11209,41 +11212,41 @@
       <c r="C123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>40</v>
+      <c r="D123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>41</v>
@@ -11260,14 +11263,14 @@
       <c r="T123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W123" s="1" t="s">
-        <v>40</v>
+      <c r="U123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X123" s="2" t="s">
         <v>41</v>
@@ -11295,41 +11298,41 @@
       <c r="C124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>41</v>
+      <c r="D124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>41</v>
@@ -11346,14 +11349,14 @@
       <c r="T124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>41</v>
+      <c r="U124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X124" s="2" t="s">
         <v>41</v>
@@ -11378,20 +11381,20 @@
       <c r="B125" t="s">
         <v>163</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>40</v>
+      <c r="C125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>41</v>
@@ -11399,20 +11402,20 @@
       <c r="I125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>40</v>
+      <c r="J125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>41</v>
@@ -11435,8 +11438,8 @@
       <c r="U125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>40</v>
+      <c r="V125" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W125" s="2" t="s">
         <v>41</v>
@@ -11444,14 +11447,14 @@
       <c r="X125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y125" s="2" t="s">
-        <v>41</v>
+      <c r="Y125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="Z125" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA125" s="2" t="s">
-        <v>41</v>
+      <c r="AA125" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB125" s="2" t="s">
         <v>41</v>
@@ -11467,17 +11470,17 @@
       <c r="C126" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>41</v>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>41</v>
@@ -11485,20 +11488,20 @@
       <c r="I126" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>41</v>
+      <c r="J126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>41</v>
@@ -11521,8 +11524,8 @@
       <c r="U126" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V126" s="2" t="s">
-        <v>41</v>
+      <c r="V126" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W126" s="2" t="s">
         <v>41</v>
@@ -11553,8 +11556,8 @@
       <c r="C127" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>40</v>
+      <c r="D127" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>41</v>
@@ -11639,8 +11642,8 @@
       <c r="C128" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>41</v>
+      <c r="D128" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>41</v>
@@ -11725,17 +11728,17 @@
       <c r="C129" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>40</v>
+      <c r="D129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>41</v>
@@ -11743,20 +11746,20 @@
       <c r="I129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>40</v>
+      <c r="J129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>41</v>
@@ -11779,8 +11782,8 @@
       <c r="U129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>40</v>
+      <c r="V129" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W129" s="2" t="s">
         <v>41</v>
@@ -11820,8 +11823,8 @@
       <c r="F130" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>41</v>
+      <c r="G130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>41</v>
@@ -11832,17 +11835,17 @@
       <c r="J130" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>41</v>
+      <c r="K130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M130" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>41</v>
+      <c r="M130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>41</v>
@@ -11900,11 +11903,11 @@
       <c r="D131" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>41</v>
+      <c r="E131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>41</v>
@@ -11915,14 +11918,14 @@
       <c r="I131" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>41</v>
+      <c r="J131" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L131" s="2" t="s">
-        <v>41</v>
+      <c r="L131" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>41</v>
@@ -11951,8 +11954,8 @@
       <c r="U131" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V131" s="2" t="s">
-        <v>41</v>
+      <c r="V131" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W131" s="2" t="s">
         <v>41</v>
@@ -11983,8 +11986,8 @@
       <c r="C132" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>41</v>
+      <c r="D132" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>41</v>
@@ -12069,14 +12072,14 @@
       <c r="C133" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>40</v>
+      <c r="D133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>41</v>
@@ -12087,14 +12090,14 @@
       <c r="I133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>40</v>
+      <c r="J133" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>40</v>
+      <c r="L133" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>41</v>
@@ -12123,8 +12126,8 @@
       <c r="U133" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>40</v>
+      <c r="V133" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="W133" s="2" t="s">
         <v>41</v>
@@ -12152,17 +12155,17 @@
       <c r="B134" t="s">
         <v>172</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>41</v>
+      <c r="C134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>41</v>
@@ -12173,14 +12176,14 @@
       <c r="I134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>41</v>
+      <c r="J134" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L134" s="2" t="s">
-        <v>41</v>
+      <c r="L134" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>41</v>
@@ -12209,8 +12212,8 @@
       <c r="U134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V134" s="2" t="s">
-        <v>41</v>
+      <c r="V134" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="W134" s="2" t="s">
         <v>41</v>
@@ -12227,8 +12230,8 @@
       <c r="AA134" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB134" s="1" t="s">
-        <v>40</v>
+      <c r="AB134" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="135">
@@ -12238,20 +12241,20 @@
       <c r="B135" t="s">
         <v>173</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>40</v>
+      <c r="C135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>41</v>
@@ -12259,20 +12262,20 @@
       <c r="I135" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>40</v>
+      <c r="J135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>41</v>
@@ -12280,26 +12283,26 @@
       <c r="P135" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>40</v>
+      <c r="Q135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>40</v>
+      <c r="V135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>41</v>
@@ -12313,8 +12316,8 @@
       <c r="AA135" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB135" s="2" t="s">
-        <v>41</v>
+      <c r="AB135" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="136">
@@ -12324,8 +12327,8 @@
       <c r="B136" t="s">
         <v>174</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>41</v>
+      <c r="C136" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>40</v>
@@ -12333,11 +12336,11 @@
       <c r="E136" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>41</v>
+      <c r="F136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>41</v>
@@ -12345,20 +12348,20 @@
       <c r="I136" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>41</v>
+      <c r="J136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>41</v>
@@ -12366,26 +12369,26 @@
       <c r="P136" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>41</v>
+      <c r="Q136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="U136" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W136" s="2" t="s">
-        <v>41</v>
+      <c r="V136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>41</v>
@@ -12400,6 +12403,92 @@
         <v>41</v>
       </c>
       <c r="AB136" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB137" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12418,12 +12507,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -546,7 +546,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.56.0-SNAPSHOT</t>
+    <t>1.57.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -555,7 +555,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.57.0-SNAPSHOT</t>
+    <t>1.58.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -555,7 +555,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.58.0-SNAPSHOT</t>
+    <t>1.57.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="182">
   <si>
     <t>User Right</t>
   </si>
@@ -330,6 +330,9 @@
     <t>EVENT_EDIT</t>
   </si>
   <si>
+    <t>EVENT_IMPORT</t>
+  </si>
+  <si>
     <t>EVENT_EXPORT</t>
   </si>
   <si>
@@ -555,7 +558,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.57.0-SNAPSHOT</t>
+    <t>1.58.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD139"/>
+  <dimension ref="A1:AD140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6515,14 +6518,14 @@
       <c r="C66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>41</v>
+      <c r="D66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>42</v>
@@ -6536,14 +6539,14 @@
       <c r="J66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>41</v>
+      <c r="K66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>41</v>
+      <c r="M66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>42</v>
@@ -6551,8 +6554,8 @@
       <c r="O66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>41</v>
+      <c r="P66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>42</v>
@@ -6566,20 +6569,20 @@
       <c r="T66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U66" s="1" t="s">
-        <v>41</v>
+      <c r="U66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>42</v>
+      <c r="W66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Z66" s="2" t="s">
         <v>42</v>
@@ -6604,14 +6607,14 @@
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>42</v>
+      <c r="D67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>42</v>
@@ -6625,14 +6628,14 @@
       <c r="J67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>42</v>
+      <c r="K67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>42</v>
+      <c r="M67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>42</v>
@@ -6640,8 +6643,8 @@
       <c r="O67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>42</v>
+      <c r="P67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>42</v>
@@ -6655,17 +6658,17 @@
       <c r="T67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U67" s="2" t="s">
-        <v>42</v>
+      <c r="U67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>42</v>
+      <c r="W67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y67" s="2" t="s">
         <v>42</v>
@@ -6693,8 +6696,8 @@
       <c r="C68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>41</v>
+      <c r="D68" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>42</v>
@@ -6803,14 +6806,14 @@
       <c r="J69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>41</v>
+      <c r="K69" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>41</v>
+      <c r="M69" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>42</v>
@@ -6824,26 +6827,26 @@
       <c r="Q69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>41</v>
+      <c r="R69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>41</v>
+      <c r="W69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y69" s="2" t="s">
         <v>42</v>
@@ -6874,38 +6877,38 @@
       <c r="D70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>41</v>
+      <c r="E70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>41</v>
+      <c r="I70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>42</v>
+      <c r="K70" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>42</v>
+      <c r="M70" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>41</v>
+      <c r="O70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>42</v>
@@ -6913,26 +6916,26 @@
       <c r="Q70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>42</v>
+      <c r="R70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>42</v>
+      <c r="W70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y70" s="2" t="s">
         <v>42</v>
@@ -7052,20 +7055,20 @@
       <c r="D72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>42</v>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>42</v>
+      <c r="I72" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>42</v>
@@ -7082,8 +7085,8 @@
       <c r="N72" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>42</v>
+      <c r="O72" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>42</v>
@@ -7141,20 +7144,20 @@
       <c r="D73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>41</v>
+      <c r="E73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>41</v>
+      <c r="I73" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>42</v>
@@ -7171,8 +7174,8 @@
       <c r="N73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>41</v>
+      <c r="O73" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>42</v>
@@ -7201,8 +7204,8 @@
       <c r="X73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y73" s="1" t="s">
-        <v>41</v>
+      <c r="Y73" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Z73" s="2" t="s">
         <v>42</v>
@@ -7224,29 +7227,29 @@
       <c r="B74" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>42</v>
+      <c r="C74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>41</v>
+      <c r="H74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>41</v>
+      <c r="J74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>42</v>
@@ -7260,8 +7263,8 @@
       <c r="N74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>42</v>
+      <c r="O74" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>42</v>
@@ -7290,8 +7293,8 @@
       <c r="X74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y74" s="2" t="s">
-        <v>42</v>
+      <c r="Y74" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Z74" s="2" t="s">
         <v>42</v>
@@ -7313,17 +7316,17 @@
       <c r="B75" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>41</v>
+      <c r="C75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>41</v>
@@ -7337,14 +7340,14 @@
       <c r="J75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>41</v>
+      <c r="K75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>41</v>
+      <c r="M75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>42</v>
@@ -7358,17 +7361,17 @@
       <c r="Q75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>41</v>
+      <c r="R75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>42</v>
@@ -7405,35 +7408,35 @@
       <c r="C76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>42</v>
+      <c r="D76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>42</v>
+      <c r="M76" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>42</v>
@@ -7447,17 +7450,17 @@
       <c r="Q76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>42</v>
+      <c r="R76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>42</v>
@@ -7672,14 +7675,14 @@
       <c r="C79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>41</v>
+      <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>42</v>
@@ -7714,26 +7717,26 @@
       <c r="Q79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>41</v>
+      <c r="R79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>41</v>
+      <c r="W79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y79" s="2" t="s">
         <v>42</v>
@@ -7764,11 +7767,11 @@
       <c r="D80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>42</v>
+      <c r="E80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>42</v>
@@ -7803,26 +7806,26 @@
       <c r="Q80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>42</v>
+      <c r="R80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>42</v>
+      <c r="W80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>42</v>
@@ -7847,17 +7850,17 @@
       <c r="B81" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>41</v>
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
@@ -7936,17 +7939,17 @@
       <c r="B82" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>42</v>
+      <c r="C82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
@@ -8031,11 +8034,11 @@
       <c r="D83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>41</v>
+      <c r="E83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
@@ -8049,14 +8052,14 @@
       <c r="J83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>41</v>
+      <c r="K83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>41</v>
+      <c r="M83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>42</v>
@@ -8064,32 +8067,32 @@
       <c r="O83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>41</v>
+      <c r="P83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>41</v>
+      <c r="R83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>41</v>
+      <c r="W83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y83" s="2" t="s">
         <v>42</v>
@@ -8159,14 +8162,14 @@
       <c r="Q84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>42</v>
+      <c r="R84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>41</v>
@@ -8209,11 +8212,11 @@
       <c r="D85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>42</v>
+      <c r="E85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>42</v>
@@ -8227,14 +8230,14 @@
       <c r="J85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>42</v>
+      <c r="K85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>42</v>
+      <c r="M85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>42</v>
@@ -8242,8 +8245,8 @@
       <c r="O85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P85" s="2" t="s">
-        <v>42</v>
+      <c r="P85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>42</v>
@@ -8257,17 +8260,17 @@
       <c r="T85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U85" s="2" t="s">
-        <v>42</v>
+      <c r="U85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>42</v>
+      <c r="W85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y85" s="2" t="s">
         <v>42</v>
@@ -8295,8 +8298,8 @@
       <c r="C86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>42</v>
+      <c r="D86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>42</v>
@@ -8384,14 +8387,14 @@
       <c r="C87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>41</v>
+      <c r="D87" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>41</v>
+      <c r="F87" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>42</v>
@@ -8473,8 +8476,8 @@
       <c r="C88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>42</v>
+      <c r="D88" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>42</v>
@@ -8568,8 +8571,8 @@
       <c r="E89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>42</v>
+      <c r="F89" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>42</v>
@@ -8740,14 +8743,14 @@
       <c r="C91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>41</v>
+      <c r="D91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>42</v>
@@ -8782,26 +8785,26 @@
       <c r="Q91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>41</v>
+      <c r="R91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W91" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>41</v>
+      <c r="W91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y91" s="2" t="s">
         <v>42</v>
@@ -8832,11 +8835,11 @@
       <c r="D92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>42</v>
+      <c r="E92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
@@ -8874,23 +8877,23 @@
       <c r="R92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>42</v>
+      <c r="S92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>42</v>
+      <c r="W92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>42</v>
@@ -8921,11 +8924,11 @@
       <c r="D93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>41</v>
+      <c r="E93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
@@ -8960,8 +8963,8 @@
       <c r="Q93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R93" s="2" t="s">
-        <v>42</v>
+      <c r="R93" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>42</v>
@@ -8969,17 +8972,17 @@
       <c r="T93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U93" s="1" t="s">
-        <v>41</v>
+      <c r="U93" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>41</v>
+      <c r="W93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y93" s="2" t="s">
         <v>42</v>
@@ -9007,14 +9010,14 @@
       <c r="C94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>42</v>
+      <c r="D94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>42</v>
@@ -9058,17 +9061,17 @@
       <c r="T94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U94" s="2" t="s">
-        <v>42</v>
+      <c r="U94" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X94" s="2" t="s">
-        <v>42</v>
+      <c r="W94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y94" s="2" t="s">
         <v>42</v>
@@ -9096,8 +9099,8 @@
       <c r="C95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>41</v>
+      <c r="D95" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>42</v>
@@ -9185,8 +9188,8 @@
       <c r="C96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>42</v>
+      <c r="D96" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>42</v>
@@ -9274,32 +9277,32 @@
       <c r="C97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>41</v>
+      <c r="D97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>41</v>
+      <c r="I97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>41</v>
+      <c r="K97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>42</v>
@@ -9307,35 +9310,35 @@
       <c r="N97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>41</v>
+      <c r="O97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>41</v>
+      <c r="R97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X97" s="1" t="s">
-        <v>41</v>
+      <c r="W97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y97" s="2" t="s">
         <v>42</v>
@@ -9366,14 +9369,14 @@
       <c r="D98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>42</v>
+      <c r="E98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>42</v>
@@ -9384,23 +9387,23 @@
       <c r="J98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>42</v>
+      <c r="K98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>42</v>
@@ -9414,17 +9417,17 @@
       <c r="T98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U98" s="2" t="s">
-        <v>42</v>
+      <c r="U98" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>42</v>
+      <c r="W98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y98" s="2" t="s">
         <v>42</v>
@@ -9467,8 +9470,8 @@
       <c r="H99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>42</v>
+      <c r="I99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>42</v>
@@ -9482,8 +9485,8 @@
       <c r="M99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N99" s="2" t="s">
-        <v>42</v>
+      <c r="N99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>42</v>
@@ -9544,38 +9547,38 @@
       <c r="D100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>41</v>
+      <c r="E100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>41</v>
+      <c r="I100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>41</v>
+      <c r="N100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>42</v>
@@ -9583,14 +9586,14 @@
       <c r="Q100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>42</v>
+      <c r="R100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U100" s="2" t="s">
         <v>42</v>
@@ -9598,8 +9601,8 @@
       <c r="V100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W100" s="1" t="s">
-        <v>41</v>
+      <c r="W100" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X100" s="2" t="s">
         <v>42</v>
@@ -9630,26 +9633,26 @@
       <c r="C101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>42</v>
+      <c r="D101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>42</v>
+      <c r="I101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>41</v>
@@ -9657,17 +9660,17 @@
       <c r="L101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>41</v>
+      <c r="M101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>42</v>
@@ -9681,14 +9684,14 @@
       <c r="T101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U101" s="1" t="s">
-        <v>41</v>
+      <c r="U101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W101" s="2" t="s">
-        <v>42</v>
+      <c r="W101" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>42</v>
@@ -9755,8 +9758,8 @@
       <c r="O102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>42</v>
+      <c r="P102" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>42</v>
@@ -10010,8 +10013,8 @@
       <c r="K105" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L105" s="2" t="s">
-        <v>42</v>
+      <c r="L105" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>42</v>
@@ -10099,8 +10102,8 @@
       <c r="K106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>41</v>
+      <c r="L106" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>42</v>
@@ -10277,8 +10280,8 @@
       <c r="K108" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>42</v>
+      <c r="L108" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>42</v>
@@ -10366,8 +10369,8 @@
       <c r="K109" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>41</v>
+      <c r="L109" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>42</v>
@@ -10722,8 +10725,8 @@
       <c r="K113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>42</v>
+      <c r="L113" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>42</v>
@@ -10787,68 +10790,68 @@
       <c r="C114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>41</v>
+      <c r="D114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>41</v>
+      <c r="L114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T114" s="1" t="s">
-        <v>41</v>
+      <c r="R114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X114" s="1" t="s">
-        <v>41</v>
+      <c r="V114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X114" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y114" s="2" t="s">
         <v>42</v>
@@ -10888,44 +10891,44 @@
       <c r="G115" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>42</v>
+      <c r="H115" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>42</v>
+      <c r="J115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T115" s="2" t="s">
-        <v>42</v>
+      <c r="R115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>41</v>
@@ -10965,23 +10968,23 @@
       <c r="C116" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>42</v>
+      <c r="D116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>42</v>
+      <c r="I116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>42</v>
@@ -11016,17 +11019,17 @@
       <c r="T116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X116" s="2" t="s">
-        <v>42</v>
+      <c r="U116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y116" s="2" t="s">
         <v>42</v>
@@ -11140,17 +11143,17 @@
       <c r="B118" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>41</v>
+      <c r="C118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>42</v>
@@ -11158,23 +11161,23 @@
       <c r="H118" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>41</v>
+      <c r="I118" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>41</v>
+      <c r="K118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>42</v>
@@ -11229,8 +11232,8 @@
       <c r="B119" t="s">
         <v>158</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>41</v>
+      <c r="C119" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>41</v>
@@ -11247,23 +11250,23 @@
       <c r="H119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>42</v>
+      <c r="I119" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>42</v>
+      <c r="K119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>42</v>
@@ -11324,11 +11327,11 @@
       <c r="D120" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>42</v>
+      <c r="E120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>42</v>
@@ -11413,32 +11416,32 @@
       <c r="D121" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>41</v>
+      <c r="E121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>41</v>
+      <c r="K121" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M121" s="1" t="s">
-        <v>41</v>
+      <c r="M121" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>42</v>
@@ -11452,26 +11455,26 @@
       <c r="Q121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W121" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X121" s="1" t="s">
-        <v>41</v>
+      <c r="R121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y121" s="2" t="s">
         <v>42</v>
@@ -11508,14 +11511,14 @@
       <c r="F122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>42</v>
+      <c r="G122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>42</v>
@@ -11541,20 +11544,20 @@
       <c r="Q122" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>42</v>
+      <c r="R122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V122" s="2" t="s">
-        <v>42</v>
+      <c r="V122" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>41</v>
@@ -11600,8 +11603,8 @@
       <c r="G123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>41</v>
+      <c r="H123" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>42</v>
@@ -11630,20 +11633,20 @@
       <c r="Q123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T123" s="1" t="s">
-        <v>41</v>
+      <c r="R123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>41</v>
+      <c r="V123" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>41</v>
@@ -11674,8 +11677,8 @@
       <c r="B124" t="s">
         <v>163</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>42</v>
+      <c r="C124" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>41</v>
@@ -11686,32 +11689,32 @@
       <c r="F124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>41</v>
+      <c r="G124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>41</v>
+      <c r="I124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L124" s="1" t="s">
-        <v>41</v>
+      <c r="L124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>41</v>
+      <c r="N124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>42</v>
@@ -11719,17 +11722,17 @@
       <c r="Q124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R124" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S124" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>42</v>
+      <c r="R124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V124" s="1" t="s">
         <v>41</v>
@@ -11743,14 +11746,14 @@
       <c r="Y124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z124" s="1" t="s">
-        <v>41</v>
+      <c r="Z124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AA124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB124" s="1" t="s">
-        <v>41</v>
+      <c r="AB124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC124" s="2" t="s">
         <v>42</v>
@@ -11766,41 +11769,41 @@
       <c r="C125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O125" s="2" t="s">
-        <v>42</v>
+      <c r="D125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>42</v>
@@ -11820,14 +11823,14 @@
       <c r="U125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X125" s="2" t="s">
-        <v>42</v>
+      <c r="V125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y125" s="2" t="s">
         <v>42</v>
@@ -11855,44 +11858,44 @@
       <c r="C126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>41</v>
+      <c r="D126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>42</v>
@@ -11909,14 +11912,14 @@
       <c r="U126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X126" s="1" t="s">
-        <v>41</v>
+      <c r="V126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>42</v>
@@ -11944,44 +11947,44 @@
       <c r="C127" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>42</v>
+      <c r="D127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>42</v>
@@ -11998,14 +12001,14 @@
       <c r="U127" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W127" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X127" s="2" t="s">
-        <v>42</v>
+      <c r="V127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y127" s="2" t="s">
         <v>42</v>
@@ -12030,44 +12033,44 @@
       <c r="B128" t="s">
         <v>167</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>41</v>
+      <c r="C128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>41</v>
+      <c r="I128" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>41</v>
+      <c r="K128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>42</v>
@@ -12090,8 +12093,8 @@
       <c r="V128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W128" s="1" t="s">
-        <v>41</v>
+      <c r="W128" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X128" s="2" t="s">
         <v>42</v>
@@ -12099,14 +12102,14 @@
       <c r="Y128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z128" s="2" t="s">
-        <v>42</v>
+      <c r="Z128" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AA128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB128" s="2" t="s">
-        <v>42</v>
+      <c r="AB128" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AC128" s="2" t="s">
         <v>42</v>
@@ -12122,41 +12125,41 @@
       <c r="C129" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>42</v>
+      <c r="D129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>42</v>
+      <c r="I129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>42</v>
+      <c r="K129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>42</v>
@@ -12179,8 +12182,8 @@
       <c r="V129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W129" s="2" t="s">
-        <v>42</v>
+      <c r="W129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X129" s="2" t="s">
         <v>42</v>
@@ -12211,8 +12214,8 @@
       <c r="C130" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>41</v>
+      <c r="D130" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>42</v>
@@ -12300,8 +12303,8 @@
       <c r="C131" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>42</v>
+      <c r="D131" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>42</v>
@@ -12389,41 +12392,41 @@
       <c r="C132" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>41</v>
+      <c r="D132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>41</v>
+      <c r="I132" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>41</v>
+      <c r="K132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>42</v>
@@ -12446,8 +12449,8 @@
       <c r="V132" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W132" s="1" t="s">
-        <v>41</v>
+      <c r="W132" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X132" s="2" t="s">
         <v>42</v>
@@ -12487,14 +12490,14 @@
       <c r="F133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>42</v>
+      <c r="G133" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>42</v>
+      <c r="I133" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>42</v>
@@ -12502,17 +12505,17 @@
       <c r="K133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L133" s="2" t="s">
-        <v>42</v>
+      <c r="L133" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>42</v>
+      <c r="N133" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>42</v>
@@ -12570,11 +12573,11 @@
       <c r="D134" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>42</v>
+      <c r="E134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>42</v>
@@ -12588,14 +12591,14 @@
       <c r="J134" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>42</v>
+      <c r="K134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>42</v>
+      <c r="M134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>42</v>
@@ -12624,8 +12627,8 @@
       <c r="V134" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W134" s="2" t="s">
-        <v>42</v>
+      <c r="W134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X134" s="2" t="s">
         <v>42</v>
@@ -12656,8 +12659,8 @@
       <c r="C135" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>42</v>
+      <c r="D135" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>42</v>
@@ -12745,14 +12748,14 @@
       <c r="C136" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>41</v>
+      <c r="D136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>42</v>
@@ -12766,14 +12769,14 @@
       <c r="J136" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K136" s="1" t="s">
-        <v>41</v>
+      <c r="K136" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M136" s="1" t="s">
-        <v>41</v>
+      <c r="M136" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>42</v>
@@ -12802,8 +12805,8 @@
       <c r="V136" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W136" s="1" t="s">
-        <v>41</v>
+      <c r="W136" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>42</v>
@@ -12831,17 +12834,17 @@
       <c r="B137" t="s">
         <v>176</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>42</v>
+      <c r="C137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>42</v>
@@ -12855,14 +12858,14 @@
       <c r="J137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>42</v>
+      <c r="K137" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M137" s="2" t="s">
-        <v>42</v>
+      <c r="M137" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>42</v>
@@ -12891,8 +12894,8 @@
       <c r="V137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W137" s="2" t="s">
-        <v>42</v>
+      <c r="W137" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X137" s="2" t="s">
         <v>42</v>
@@ -12909,8 +12912,8 @@
       <c r="AB137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC137" s="1" t="s">
-        <v>41</v>
+      <c r="AC137" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="138">
@@ -12920,44 +12923,44 @@
       <c r="B138" t="s">
         <v>177</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>41</v>
+      <c r="C138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>41</v>
+      <c r="I138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>41</v>
+      <c r="K138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>42</v>
@@ -12965,26 +12968,26 @@
       <c r="Q138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U138" s="1" t="s">
-        <v>41</v>
+      <c r="R138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W138" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X138" s="1" t="s">
-        <v>41</v>
+      <c r="W138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y138" s="2" t="s">
         <v>42</v>
@@ -12998,8 +13001,8 @@
       <c r="AB138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC138" s="2" t="s">
-        <v>42</v>
+      <c r="AC138" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="139">
@@ -13009,8 +13012,8 @@
       <c r="B139" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>42</v>
+      <c r="C139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>41</v>
@@ -13018,35 +13021,35 @@
       <c r="E139" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>42</v>
+      <c r="F139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>42</v>
+      <c r="I139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>42</v>
+      <c r="K139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>42</v>
@@ -13054,26 +13057,26 @@
       <c r="Q139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U139" s="2" t="s">
-        <v>42</v>
+      <c r="R139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W139" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X139" s="2" t="s">
-        <v>42</v>
+      <c r="W139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y139" s="2" t="s">
         <v>42</v>
@@ -13088,6 +13091,95 @@
         <v>42</v>
       </c>
       <c r="AC139" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC140" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13106,12 +13198,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -8135,8 +8135,8 @@
       <c r="H84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>42</v>
+      <c r="I84" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>42</v>
@@ -8224,8 +8224,8 @@
       <c r="H85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>42</v>
+      <c r="I85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>42</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="183">
   <si>
     <t>User Right</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>PERSON_DELETE</t>
+  </si>
+  <si>
+    <t>PERSON_CONTACT_DETAILS_DELETE</t>
   </si>
   <si>
     <t>SAMPLE_CREATE</t>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD140"/>
+  <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2605,29 +2608,29 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>41</v>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>42</v>
@@ -2635,11 +2638,11 @@
       <c r="N22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>41</v>
+      <c r="O22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>42</v>
@@ -2653,8 +2656,8 @@
       <c r="T22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>41</v>
+      <c r="U22" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>42</v>
@@ -2718,11 +2721,11 @@
       <c r="L23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>41</v>
+      <c r="M23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>41</v>
@@ -2730,17 +2733,17 @@
       <c r="P23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="Q23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>41</v>
@@ -2807,11 +2810,11 @@
       <c r="L24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>42</v>
+      <c r="M24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>41</v>
@@ -2822,14 +2825,14 @@
       <c r="Q24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>42</v>
+      <c r="R24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>41</v>
@@ -2869,8 +2872,8 @@
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>41</v>
@@ -2878,23 +2881,23 @@
       <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>42</v>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>42</v>
@@ -2905,11 +2908,11 @@
       <c r="O25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>42</v>
+      <c r="P25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>42</v>
@@ -2920,8 +2923,8 @@
       <c r="T25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>42</v>
+      <c r="U25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>42</v>
@@ -2958,11 +2961,11 @@
       <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>41</v>
@@ -2991,8 +2994,8 @@
       <c r="N26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>42</v>
+      <c r="O26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>42</v>
@@ -3050,8 +3053,8 @@
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>41</v>
@@ -3068,8 +3071,8 @@
       <c r="J27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>41</v>
+      <c r="K27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>42</v>
@@ -3083,11 +3086,11 @@
       <c r="O27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>41</v>
+      <c r="P27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>42</v>
@@ -3098,8 +3101,8 @@
       <c r="T27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>41</v>
+      <c r="U27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>42</v>
@@ -3163,8 +3166,8 @@
       <c r="L28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>41</v>
+      <c r="M28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>42</v>
@@ -3175,8 +3178,8 @@
       <c r="P28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>42</v>
+      <c r="Q28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>42</v>
@@ -3228,11 +3231,11 @@
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>42</v>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>42</v>
@@ -3261,20 +3264,20 @@
       <c r="O29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>42</v>
+      <c r="P29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>41</v>
+      <c r="R29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>41</v>
@@ -3317,20 +3320,20 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>41</v>
+      <c r="I30" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>42</v>
@@ -3341,29 +3344,29 @@
       <c r="L30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>42</v>
+      <c r="M30" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>42</v>
+      <c r="O30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>41</v>
@@ -3495,26 +3498,26 @@
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>42</v>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>42</v>
+      <c r="I32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>42</v>
+      <c r="K32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>42</v>
@@ -3525,14 +3528,14 @@
       <c r="N32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>42</v>
+      <c r="O32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>42</v>
@@ -3543,8 +3546,8 @@
       <c r="T32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U32" s="2" t="s">
-        <v>42</v>
+      <c r="U32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>42</v>
@@ -3581,8 +3584,8 @@
       <c r="C33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>42</v>
@@ -3602,11 +3605,11 @@
       <c r="J33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>41</v>
+      <c r="K33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>42</v>
@@ -3617,11 +3620,11 @@
       <c r="O33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>41</v>
+      <c r="P33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>42</v>
@@ -3632,8 +3635,8 @@
       <c r="T33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>41</v>
+      <c r="U33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>42</v>
@@ -3848,8 +3851,8 @@
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>42</v>
@@ -3869,11 +3872,11 @@
       <c r="J36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>42</v>
+      <c r="K36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>42</v>
@@ -3884,11 +3887,11 @@
       <c r="O36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>42</v>
+      <c r="P36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>42</v>
@@ -3899,8 +3902,8 @@
       <c r="T36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>42</v>
+      <c r="U36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>42</v>
@@ -3940,20 +3943,20 @@
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>41</v>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>41</v>
+      <c r="I37" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>42</v>
@@ -3964,11 +3967,11 @@
       <c r="L37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>41</v>
+      <c r="M37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>42</v>
@@ -4026,23 +4029,23 @@
       <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>42</v>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>42</v>
+      <c r="I38" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>42</v>
@@ -4053,11 +4056,11 @@
       <c r="L38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>42</v>
+      <c r="M38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>42</v>
@@ -4089,8 +4092,8 @@
       <c r="X38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>41</v>
+      <c r="Y38" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>42</v>
@@ -4115,41 +4118,41 @@
       <c r="C39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>41</v>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>41</v>
+      <c r="I39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>41</v>
+      <c r="K39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>41</v>
+      <c r="M39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>42</v>
@@ -4157,17 +4160,17 @@
       <c r="Q39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>41</v>
+      <c r="R39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>42</v>
@@ -4178,8 +4181,8 @@
       <c r="X39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y39" s="2" t="s">
-        <v>42</v>
+      <c r="Y39" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>42</v>
@@ -4207,26 +4210,26 @@
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>42</v>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>42</v>
+      <c r="I40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>42</v>
+      <c r="K40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>42</v>
@@ -4234,11 +4237,11 @@
       <c r="M40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>42</v>
+      <c r="N40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>42</v>
@@ -4246,17 +4249,17 @@
       <c r="Q40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>42</v>
+      <c r="R40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>42</v>
@@ -4296,20 +4299,20 @@
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>41</v>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>41</v>
+      <c r="I41" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>42</v>
@@ -4323,8 +4326,8 @@
       <c r="M41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>41</v>
+      <c r="N41" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>42</v>
@@ -4385,20 +4388,20 @@
       <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>42</v>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>42</v>
+      <c r="I42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>42</v>
@@ -4409,11 +4412,11 @@
       <c r="L42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>42</v>
+      <c r="M42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>42</v>
@@ -4486,8 +4489,8 @@
       <c r="H43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>41</v>
+      <c r="I43" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>42</v>
@@ -4498,11 +4501,11 @@
       <c r="L43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>41</v>
+      <c r="M43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>42</v>
@@ -4563,14 +4566,14 @@
       <c r="D44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>41</v>
+      <c r="E44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>42</v>
@@ -4658,20 +4661,20 @@
       <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>42</v>
+      <c r="G45" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>42</v>
+      <c r="I45" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>41</v>
+      <c r="K45" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>42</v>
@@ -4679,14 +4682,14 @@
       <c r="M45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>42</v>
+      <c r="N45" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>41</v>
+      <c r="P45" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>42</v>
@@ -4700,8 +4703,8 @@
       <c r="T45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>41</v>
+      <c r="U45" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>42</v>
@@ -4741,11 +4744,11 @@
       <c r="D46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>42</v>
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>42</v>
@@ -4774,20 +4777,20 @@
       <c r="O46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>42</v>
+      <c r="P46" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>41</v>
+      <c r="R46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>41</v>
@@ -4830,26 +4833,26 @@
       <c r="D47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>41</v>
+      <c r="E47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>41</v>
+      <c r="I47" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>42</v>
+      <c r="K47" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>42</v>
@@ -4857,8 +4860,8 @@
       <c r="M47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>41</v>
+      <c r="N47" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>42</v>
@@ -4869,17 +4872,17 @@
       <c r="Q47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>42</v>
+      <c r="R47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>42</v>
@@ -4913,20 +4916,20 @@
       <c r="B48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>42</v>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>42</v>
@@ -5002,8 +5005,8 @@
       <c r="B49" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>41</v>
+      <c r="C49" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>41</v>
@@ -5198,8 +5201,8 @@
       <c r="H51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>42</v>
+      <c r="I51" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>42</v>
@@ -5210,11 +5213,11 @@
       <c r="L51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>42</v>
+      <c r="M51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>42</v>
@@ -5275,11 +5278,11 @@
       <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>41</v>
+      <c r="E52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>42</v>
@@ -5293,14 +5296,14 @@
       <c r="J52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>41</v>
+      <c r="K52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>41</v>
+      <c r="M52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>42</v>
@@ -5308,8 +5311,8 @@
       <c r="O52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>41</v>
+      <c r="P52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>42</v>
@@ -5323,8 +5326,8 @@
       <c r="T52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>41</v>
+      <c r="U52" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>42</v>
@@ -5370,14 +5373,14 @@
       <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>41</v>
+      <c r="G53" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>41</v>
+      <c r="I53" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>42</v>
@@ -5418,11 +5421,11 @@
       <c r="V53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>41</v>
+      <c r="W53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>42</v>
@@ -5462,50 +5465,50 @@
       <c r="G54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>41</v>
+      <c r="H54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>41</v>
+      <c r="J54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>41</v>
+      <c r="L54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>41</v>
+      <c r="N54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>41</v>
+      <c r="Q54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>41</v>
+      <c r="V54" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>41</v>
@@ -5581,14 +5584,14 @@
       <c r="Q55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>42</v>
+      <c r="R55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>41</v>
@@ -5640,35 +5643,35 @@
       <c r="G56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>42</v>
+      <c r="H56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>42</v>
+      <c r="J56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>42</v>
+      <c r="L56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>42</v>
+      <c r="N56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q56" s="2" t="s">
-        <v>42</v>
+      <c r="Q56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>42</v>
@@ -5682,8 +5685,8 @@
       <c r="U56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>42</v>
+      <c r="V56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>41</v>
@@ -5720,20 +5723,20 @@
       <c r="D57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>42</v>
+      <c r="E57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>42</v>
+      <c r="I57" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>42</v>
@@ -5753,20 +5756,20 @@
       <c r="O57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>42</v>
+      <c r="P57" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>41</v>
+      <c r="R57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>41</v>
@@ -5827,14 +5830,14 @@
       <c r="J58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>42</v>
+      <c r="K58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>42</v>
+      <c r="M58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>42</v>
@@ -5848,26 +5851,26 @@
       <c r="Q58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>42</v>
+      <c r="R58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>42</v>
+      <c r="W58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>42</v>
@@ -5898,44 +5901,44 @@
       <c r="D59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>41</v>
+      <c r="E59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>42</v>
@@ -5946,17 +5949,17 @@
       <c r="T59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>41</v>
+      <c r="U59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y59" s="2" t="s">
         <v>42</v>
@@ -5996,35 +5999,35 @@
       <c r="G60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>42</v>
+      <c r="H60" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>42</v>
+      <c r="J60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>42</v>
+      <c r="P60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>42</v>
@@ -6035,17 +6038,17 @@
       <c r="T60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>42</v>
+      <c r="U60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>42</v>
@@ -6073,23 +6076,23 @@
       <c r="C61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>42</v>
+      <c r="D61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>42</v>
+      <c r="I61" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>42</v>
@@ -6106,8 +6109,8 @@
       <c r="N61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O61" s="2" t="s">
-        <v>42</v>
+      <c r="O61" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>42</v>
@@ -6162,23 +6165,23 @@
       <c r="C62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>41</v>
+      <c r="D62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>41</v>
+      <c r="I62" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>42</v>
@@ -6195,8 +6198,8 @@
       <c r="N62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>41</v>
+      <c r="O62" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>42</v>
@@ -6352,26 +6355,26 @@
       <c r="G64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>41</v>
+      <c r="H64" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>41</v>
+      <c r="J64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>41</v>
@@ -6382,23 +6385,23 @@
       <c r="Q64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>41</v>
+      <c r="R64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>42</v>
@@ -6441,26 +6444,26 @@
       <c r="G65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>42</v>
+      <c r="H65" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>42</v>
+      <c r="J65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>41</v>
@@ -6471,23 +6474,23 @@
       <c r="Q65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>42</v>
+      <c r="R65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>42</v>
@@ -6518,23 +6521,23 @@
       <c r="C66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>42</v>
+      <c r="D66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>42</v>
+      <c r="I66" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>42</v>
@@ -6551,8 +6554,8 @@
       <c r="N66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>42</v>
+      <c r="O66" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>42</v>
@@ -6581,8 +6584,8 @@
       <c r="X66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y66" s="1" t="s">
-        <v>41</v>
+      <c r="Y66" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Z66" s="2" t="s">
         <v>42</v>
@@ -6607,14 +6610,14 @@
       <c r="C67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>41</v>
+      <c r="D67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>42</v>
@@ -6628,14 +6631,14 @@
       <c r="J67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>41</v>
+      <c r="K67" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>41</v>
+      <c r="M67" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>42</v>
@@ -6643,8 +6646,8 @@
       <c r="O67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>41</v>
+      <c r="P67" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>42</v>
@@ -6658,20 +6661,20 @@
       <c r="T67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U67" s="1" t="s">
-        <v>41</v>
+      <c r="U67" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>42</v>
+      <c r="W67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Z67" s="2" t="s">
         <v>42</v>
@@ -6696,14 +6699,14 @@
       <c r="C68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>42</v>
+      <c r="D68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>42</v>
@@ -6717,14 +6720,14 @@
       <c r="J68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>42</v>
+      <c r="K68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>42</v>
+      <c r="M68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>42</v>
@@ -6732,8 +6735,8 @@
       <c r="O68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>42</v>
+      <c r="P68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>42</v>
@@ -6747,17 +6750,17 @@
       <c r="T68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U68" s="2" t="s">
-        <v>42</v>
+      <c r="U68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>42</v>
+      <c r="W68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y68" s="2" t="s">
         <v>42</v>
@@ -6785,8 +6788,8 @@
       <c r="C69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>41</v>
+      <c r="D69" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>42</v>
@@ -6895,14 +6898,14 @@
       <c r="J70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>41</v>
+      <c r="K70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>41</v>
+      <c r="M70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>42</v>
@@ -6916,26 +6919,26 @@
       <c r="Q70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>41</v>
+      <c r="R70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>41</v>
+      <c r="W70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y70" s="2" t="s">
         <v>42</v>
@@ -6966,38 +6969,38 @@
       <c r="D71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>41</v>
+      <c r="E71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>41</v>
+      <c r="I71" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>42</v>
+      <c r="K71" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>42</v>
+      <c r="M71" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>41</v>
+      <c r="O71" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>42</v>
@@ -7005,26 +7008,26 @@
       <c r="Q71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>42</v>
+      <c r="R71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>42</v>
+      <c r="W71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y71" s="2" t="s">
         <v>42</v>
@@ -7144,20 +7147,20 @@
       <c r="D73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>42</v>
+      <c r="E73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>42</v>
+      <c r="I73" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>42</v>
@@ -7174,8 +7177,8 @@
       <c r="N73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>42</v>
+      <c r="O73" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>42</v>
@@ -7233,20 +7236,20 @@
       <c r="D74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>41</v>
+      <c r="E74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>41</v>
+      <c r="I74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>42</v>
@@ -7263,8 +7266,8 @@
       <c r="N74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>41</v>
+      <c r="O74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>42</v>
@@ -7293,8 +7296,8 @@
       <c r="X74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y74" s="1" t="s">
-        <v>41</v>
+      <c r="Y74" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Z74" s="2" t="s">
         <v>42</v>
@@ -7316,29 +7319,29 @@
       <c r="B75" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>42</v>
+      <c r="C75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>41</v>
+      <c r="H75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>41</v>
+      <c r="J75" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>42</v>
@@ -7352,8 +7355,8 @@
       <c r="N75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>42</v>
+      <c r="O75" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>42</v>
@@ -7382,8 +7385,8 @@
       <c r="X75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y75" s="2" t="s">
-        <v>42</v>
+      <c r="Y75" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Z75" s="2" t="s">
         <v>42</v>
@@ -7405,17 +7408,17 @@
       <c r="B76" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>41</v>
+      <c r="C76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>41</v>
@@ -7429,14 +7432,14 @@
       <c r="J76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>41</v>
+      <c r="K76" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>41</v>
+      <c r="M76" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>42</v>
@@ -7450,17 +7453,17 @@
       <c r="Q76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>41</v>
+      <c r="R76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>42</v>
@@ -7497,35 +7500,35 @@
       <c r="C77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>42</v>
+      <c r="D77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>42</v>
+      <c r="M77" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>42</v>
@@ -7539,17 +7542,17 @@
       <c r="Q77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>42</v>
+      <c r="R77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>42</v>
@@ -7764,14 +7767,14 @@
       <c r="C80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>41</v>
+      <c r="D80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>42</v>
@@ -7806,26 +7809,26 @@
       <c r="Q80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>41</v>
+      <c r="R80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X80" s="1" t="s">
-        <v>41</v>
+      <c r="W80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>42</v>
@@ -7856,11 +7859,11 @@
       <c r="D81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>42</v>
+      <c r="E81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>42</v>
@@ -7895,26 +7898,26 @@
       <c r="Q81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>42</v>
+      <c r="R81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X81" s="2" t="s">
-        <v>42</v>
+      <c r="W81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y81" s="2" t="s">
         <v>42</v>
@@ -7939,17 +7942,17 @@
       <c r="B82" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>41</v>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
@@ -8028,17 +8031,17 @@
       <c r="B83" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>42</v>
+      <c r="C83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
@@ -8123,11 +8126,11 @@
       <c r="D84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>41</v>
+      <c r="E84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>42</v>
@@ -8141,14 +8144,14 @@
       <c r="J84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>41</v>
+      <c r="K84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>41</v>
+      <c r="M84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>42</v>
@@ -8156,32 +8159,32 @@
       <c r="O84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P84" s="1" t="s">
-        <v>41</v>
+      <c r="P84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>41</v>
+      <c r="R84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>41</v>
+      <c r="W84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y84" s="2" t="s">
         <v>42</v>
@@ -8224,8 +8227,8 @@
       <c r="H85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>42</v>
+      <c r="I85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>42</v>
@@ -8251,14 +8254,14 @@
       <c r="Q85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>42</v>
+      <c r="R85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>41</v>
@@ -8301,11 +8304,11 @@
       <c r="D86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>42</v>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>42</v>
@@ -8313,20 +8316,20 @@
       <c r="H86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>42</v>
+      <c r="I86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>42</v>
+      <c r="K86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>42</v>
+      <c r="M86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>42</v>
@@ -8334,8 +8337,8 @@
       <c r="O86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P86" s="2" t="s">
-        <v>42</v>
+      <c r="P86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>42</v>
@@ -8349,17 +8352,17 @@
       <c r="T86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U86" s="2" t="s">
-        <v>42</v>
+      <c r="U86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X86" s="2" t="s">
-        <v>42</v>
+      <c r="W86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y86" s="2" t="s">
         <v>42</v>
@@ -8387,8 +8390,8 @@
       <c r="C87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>42</v>
+      <c r="D87" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>42</v>
@@ -8476,14 +8479,14 @@
       <c r="C88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>41</v>
+      <c r="D88" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>41</v>
+      <c r="F88" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>42</v>
@@ -8565,8 +8568,8 @@
       <c r="C89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>42</v>
+      <c r="D89" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>42</v>
@@ -8660,8 +8663,8 @@
       <c r="E90" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>42</v>
+      <c r="F90" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>42</v>
@@ -8832,14 +8835,14 @@
       <c r="C92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>41</v>
+      <c r="D92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>42</v>
@@ -8874,26 +8877,26 @@
       <c r="Q92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>41</v>
+      <c r="R92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>41</v>
+      <c r="W92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>42</v>
@@ -8924,11 +8927,11 @@
       <c r="D93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>42</v>
+      <c r="E93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
@@ -8966,23 +8969,23 @@
       <c r="R93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U93" s="2" t="s">
-        <v>42</v>
+      <c r="S93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X93" s="2" t="s">
-        <v>42</v>
+      <c r="W93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y93" s="2" t="s">
         <v>42</v>
@@ -9013,11 +9016,11 @@
       <c r="D94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>41</v>
+      <c r="E94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>42</v>
@@ -9052,8 +9055,8 @@
       <c r="Q94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R94" s="2" t="s">
-        <v>42</v>
+      <c r="R94" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>42</v>
@@ -9061,17 +9064,17 @@
       <c r="T94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U94" s="1" t="s">
-        <v>41</v>
+      <c r="U94" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X94" s="1" t="s">
-        <v>41</v>
+      <c r="W94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y94" s="2" t="s">
         <v>42</v>
@@ -9099,14 +9102,14 @@
       <c r="C95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>42</v>
+      <c r="D95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>42</v>
@@ -9150,17 +9153,17 @@
       <c r="T95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U95" s="2" t="s">
-        <v>42</v>
+      <c r="U95" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W95" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>42</v>
+      <c r="W95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>42</v>
@@ -9188,8 +9191,8 @@
       <c r="C96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>41</v>
+      <c r="D96" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>42</v>
@@ -9277,8 +9280,8 @@
       <c r="C97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>42</v>
+      <c r="D97" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>42</v>
@@ -9366,32 +9369,32 @@
       <c r="C98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>41</v>
+      <c r="D98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>41</v>
+      <c r="I98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>41</v>
+      <c r="K98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>42</v>
@@ -9399,35 +9402,35 @@
       <c r="N98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>41</v>
+      <c r="O98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>41</v>
+      <c r="R98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W98" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>41</v>
+      <c r="W98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y98" s="2" t="s">
         <v>42</v>
@@ -9458,14 +9461,14 @@
       <c r="D99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>42</v>
+      <c r="E99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>42</v>
@@ -9476,23 +9479,23 @@
       <c r="J99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>42</v>
+      <c r="K99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>42</v>
@@ -9506,17 +9509,17 @@
       <c r="T99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U99" s="2" t="s">
-        <v>42</v>
+      <c r="U99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>42</v>
+      <c r="W99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>42</v>
@@ -9559,8 +9562,8 @@
       <c r="H100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>42</v>
+      <c r="I100" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>42</v>
@@ -9574,8 +9577,8 @@
       <c r="M100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>42</v>
+      <c r="N100" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>42</v>
@@ -9636,38 +9639,38 @@
       <c r="D101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>41</v>
+      <c r="E101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>41</v>
+      <c r="I101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>41</v>
+      <c r="N101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>42</v>
@@ -9675,14 +9678,14 @@
       <c r="Q101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>42</v>
+      <c r="R101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U101" s="2" t="s">
         <v>42</v>
@@ -9690,8 +9693,8 @@
       <c r="V101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W101" s="1" t="s">
-        <v>41</v>
+      <c r="W101" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>42</v>
@@ -9722,26 +9725,26 @@
       <c r="C102" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>42</v>
+      <c r="D102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>42</v>
+      <c r="I102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>41</v>
@@ -9749,17 +9752,17 @@
       <c r="L102" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>41</v>
+      <c r="M102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>42</v>
@@ -9773,14 +9776,14 @@
       <c r="T102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U102" s="1" t="s">
-        <v>41</v>
+      <c r="U102" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W102" s="2" t="s">
-        <v>42</v>
+      <c r="W102" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X102" s="2" t="s">
         <v>42</v>
@@ -9847,8 +9850,8 @@
       <c r="O103" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P103" s="2" t="s">
-        <v>42</v>
+      <c r="P103" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>42</v>
@@ -10102,8 +10105,8 @@
       <c r="K106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L106" s="2" t="s">
-        <v>42</v>
+      <c r="L106" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>42</v>
@@ -10191,8 +10194,8 @@
       <c r="K107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>41</v>
+      <c r="L107" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>42</v>
@@ -10369,8 +10372,8 @@
       <c r="K109" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L109" s="2" t="s">
-        <v>42</v>
+      <c r="L109" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>42</v>
@@ -10458,8 +10461,8 @@
       <c r="K110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>41</v>
+      <c r="L110" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>42</v>
@@ -10814,8 +10817,8 @@
       <c r="K114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L114" s="2" t="s">
-        <v>42</v>
+      <c r="L114" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>42</v>
@@ -10879,68 +10882,68 @@
       <c r="C115" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>41</v>
+      <c r="D115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>41</v>
+      <c r="L115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T115" s="1" t="s">
-        <v>41</v>
+      <c r="R115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U115" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X115" s="1" t="s">
-        <v>41</v>
+      <c r="V115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y115" s="2" t="s">
         <v>42</v>
@@ -10980,44 +10983,44 @@
       <c r="G116" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>42</v>
+      <c r="H116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>42</v>
+      <c r="J116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>42</v>
+      <c r="R116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>41</v>
@@ -11057,23 +11060,23 @@
       <c r="C117" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>42</v>
+      <c r="D117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>42</v>
+      <c r="I117" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>42</v>
@@ -11108,17 +11111,17 @@
       <c r="T117" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X117" s="2" t="s">
-        <v>42</v>
+      <c r="U117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y117" s="2" t="s">
         <v>42</v>
@@ -11232,17 +11235,17 @@
       <c r="B119" t="s">
         <v>158</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>41</v>
+      <c r="C119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>42</v>
@@ -11250,23 +11253,23 @@
       <c r="H119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>41</v>
+      <c r="I119" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>41</v>
+      <c r="K119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>42</v>
@@ -11321,8 +11324,8 @@
       <c r="B120" t="s">
         <v>159</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>41</v>
+      <c r="C120" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>41</v>
@@ -11339,23 +11342,23 @@
       <c r="H120" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>42</v>
+      <c r="I120" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>42</v>
+      <c r="K120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>42</v>
@@ -11416,11 +11419,11 @@
       <c r="D121" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>42</v>
+      <c r="E121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>42</v>
@@ -11505,32 +11508,32 @@
       <c r="D122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>41</v>
+      <c r="E122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>41</v>
+      <c r="K122" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M122" s="1" t="s">
-        <v>41</v>
+      <c r="M122" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>42</v>
@@ -11544,26 +11547,26 @@
       <c r="Q122" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>41</v>
+      <c r="R122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>42</v>
@@ -11600,14 +11603,14 @@
       <c r="F123" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>42</v>
+      <c r="G123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>42</v>
@@ -11633,20 +11636,20 @@
       <c r="Q123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>42</v>
+      <c r="R123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V123" s="2" t="s">
-        <v>42</v>
+      <c r="V123" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>41</v>
@@ -11692,8 +11695,8 @@
       <c r="G124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>41</v>
+      <c r="H124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>42</v>
@@ -11722,20 +11725,20 @@
       <c r="Q124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T124" s="1" t="s">
-        <v>41</v>
+      <c r="R124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="U124" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>41</v>
+      <c r="V124" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>41</v>
@@ -11766,8 +11769,8 @@
       <c r="B125" t="s">
         <v>164</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>42</v>
+      <c r="C125" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>41</v>
@@ -11778,32 +11781,32 @@
       <c r="F125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>41</v>
+      <c r="G125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>41</v>
+      <c r="I125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L125" s="1" t="s">
-        <v>41</v>
+      <c r="L125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>41</v>
+      <c r="N125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>42</v>
@@ -11811,17 +11814,17 @@
       <c r="Q125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U125" s="2" t="s">
-        <v>42</v>
+      <c r="R125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V125" s="1" t="s">
         <v>41</v>
@@ -11835,14 +11838,14 @@
       <c r="Y125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z125" s="1" t="s">
-        <v>41</v>
+      <c r="Z125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AA125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB125" s="1" t="s">
-        <v>41</v>
+      <c r="AB125" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AC125" s="2" t="s">
         <v>42</v>
@@ -11858,41 +11861,41 @@
       <c r="C126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>42</v>
+      <c r="D126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>42</v>
@@ -11912,14 +11915,14 @@
       <c r="U126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>42</v>
+      <c r="V126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>42</v>
@@ -11947,44 +11950,44 @@
       <c r="C127" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>41</v>
+      <c r="D127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Q127" s="2" t="s">
         <v>42</v>
@@ -12001,14 +12004,14 @@
       <c r="U127" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W127" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X127" s="1" t="s">
-        <v>41</v>
+      <c r="V127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X127" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y127" s="2" t="s">
         <v>42</v>
@@ -12036,44 +12039,44 @@
       <c r="C128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>42</v>
+      <c r="D128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>42</v>
@@ -12090,14 +12093,14 @@
       <c r="U128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>42</v>
+      <c r="V128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y128" s="2" t="s">
         <v>42</v>
@@ -12122,44 +12125,44 @@
       <c r="B129" t="s">
         <v>168</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>41</v>
+      <c r="C129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>41</v>
+      <c r="I129" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>41</v>
+      <c r="K129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>42</v>
@@ -12182,8 +12185,8 @@
       <c r="V129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W129" s="1" t="s">
-        <v>41</v>
+      <c r="W129" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X129" s="2" t="s">
         <v>42</v>
@@ -12191,14 +12194,14 @@
       <c r="Y129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z129" s="2" t="s">
-        <v>42</v>
+      <c r="Z129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AA129" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB129" s="2" t="s">
-        <v>42</v>
+      <c r="AB129" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AC129" s="2" t="s">
         <v>42</v>
@@ -12214,41 +12217,41 @@
       <c r="C130" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>42</v>
+      <c r="D130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>42</v>
+      <c r="I130" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>42</v>
+      <c r="K130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>42</v>
@@ -12271,8 +12274,8 @@
       <c r="V130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W130" s="2" t="s">
-        <v>42</v>
+      <c r="W130" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X130" s="2" t="s">
         <v>42</v>
@@ -12303,8 +12306,8 @@
       <c r="C131" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>41</v>
+      <c r="D131" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>42</v>
@@ -12392,8 +12395,8 @@
       <c r="C132" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>42</v>
+      <c r="D132" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>42</v>
@@ -12481,41 +12484,41 @@
       <c r="C133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>41</v>
+      <c r="D133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>41</v>
+      <c r="I133" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>41</v>
+      <c r="K133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>42</v>
@@ -12538,8 +12541,8 @@
       <c r="V133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W133" s="1" t="s">
-        <v>41</v>
+      <c r="W133" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X133" s="2" t="s">
         <v>42</v>
@@ -12579,14 +12582,14 @@
       <c r="F134" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>42</v>
+      <c r="G134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>42</v>
+      <c r="I134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>42</v>
@@ -12594,17 +12597,17 @@
       <c r="K134" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L134" s="2" t="s">
-        <v>42</v>
+      <c r="L134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>42</v>
+      <c r="N134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>42</v>
@@ -12662,11 +12665,11 @@
       <c r="D135" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>42</v>
+      <c r="E135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>42</v>
@@ -12680,14 +12683,14 @@
       <c r="J135" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>42</v>
+      <c r="K135" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M135" s="2" t="s">
-        <v>42</v>
+      <c r="M135" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>42</v>
@@ -12716,8 +12719,8 @@
       <c r="V135" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W135" s="2" t="s">
-        <v>42</v>
+      <c r="W135" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>42</v>
@@ -12748,8 +12751,8 @@
       <c r="C136" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>42</v>
+      <c r="D136" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>42</v>
@@ -12837,14 +12840,14 @@
       <c r="C137" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>41</v>
+      <c r="D137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>42</v>
@@ -12858,14 +12861,14 @@
       <c r="J137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>41</v>
+      <c r="K137" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M137" s="1" t="s">
-        <v>41</v>
+      <c r="M137" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>42</v>
@@ -12894,8 +12897,8 @@
       <c r="V137" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W137" s="1" t="s">
-        <v>41</v>
+      <c r="W137" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="X137" s="2" t="s">
         <v>42</v>
@@ -12923,17 +12926,17 @@
       <c r="B138" t="s">
         <v>177</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>42</v>
+      <c r="C138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>42</v>
@@ -12947,14 +12950,14 @@
       <c r="J138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>42</v>
+      <c r="K138" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>42</v>
+      <c r="M138" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>42</v>
@@ -12983,8 +12986,8 @@
       <c r="V138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W138" s="2" t="s">
-        <v>42</v>
+      <c r="W138" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X138" s="2" t="s">
         <v>42</v>
@@ -13001,8 +13004,8 @@
       <c r="AB138" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC138" s="1" t="s">
-        <v>41</v>
+      <c r="AC138" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="139">
@@ -13012,44 +13015,44 @@
       <c r="B139" t="s">
         <v>178</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>41</v>
+      <c r="C139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>41</v>
+      <c r="I139" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>41</v>
+      <c r="K139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>42</v>
@@ -13057,26 +13060,26 @@
       <c r="Q139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>41</v>
+      <c r="R139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="V139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X139" s="1" t="s">
-        <v>41</v>
+      <c r="W139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y139" s="2" t="s">
         <v>42</v>
@@ -13090,8 +13093,8 @@
       <c r="AB139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC139" s="2" t="s">
-        <v>42</v>
+      <c r="AC139" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="140">
@@ -13101,8 +13104,8 @@
       <c r="B140" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>42</v>
+      <c r="C140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>41</v>
@@ -13110,35 +13113,35 @@
       <c r="E140" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>42</v>
+      <c r="F140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>42</v>
+      <c r="I140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>42</v>
+      <c r="K140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>42</v>
@@ -13146,26 +13149,26 @@
       <c r="Q140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>42</v>
+      <c r="R140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="V140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W140" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X140" s="2" t="s">
-        <v>42</v>
+      <c r="W140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="Y140" s="2" t="s">
         <v>42</v>
@@ -13180,6 +13183,95 @@
         <v>42</v>
       </c>
       <c r="AC140" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="3">
+        <v>180</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC141" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13198,12 +13290,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="330">
   <si>
     <t>User Right</t>
   </si>
@@ -417,6 +417,9 @@
     <t>Reassign the source case of contacts</t>
   </si>
   <si>
+    <t>CONTACT_MERGE</t>
+  </si>
+  <si>
     <t>MANAGE_EXTERNAL_SYMPTOM_JOURNAL</t>
   </si>
   <si>
@@ -999,7 +1002,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.59.0-SNAPSHOT</t>
+    <t>1.60.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD147"/>
+  <dimension ref="A1:AD148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5441,28 +5444,28 @@
         <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>42</v>
+      <c r="G49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>42</v>
+      <c r="I49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>43</v>
@@ -5473,11 +5476,11 @@
       <c r="L49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>42</v>
+      <c r="M49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>43</v>
@@ -5527,25 +5530,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
         <v>136</v>
       </c>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>42</v>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>43</v>
+      <c r="E50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>43</v>
@@ -5616,10 +5619,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
         <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -5705,11 +5708,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
         <v>140</v>
       </c>
-      <c r="B52" t="s">
-        <v>141</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
@@ -5728,8 +5731,8 @@
       <c r="H52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>43</v>
+      <c r="I52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>43</v>
@@ -5740,11 +5743,11 @@
       <c r="L52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>43</v>
+      <c r="M52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>43</v>
@@ -5794,22 +5797,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
         <v>142</v>
       </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>42</v>
+      <c r="E53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>43</v>
@@ -5823,14 +5826,14 @@
       <c r="J53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>42</v>
+      <c r="K53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>42</v>
+      <c r="M53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>43</v>
@@ -5838,8 +5841,8 @@
       <c r="O53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>42</v>
+      <c r="P53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>43</v>
@@ -5853,8 +5856,8 @@
       <c r="T53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="1" t="s">
-        <v>42</v>
+      <c r="U53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>43</v>
@@ -5883,11 +5886,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
         <v>144</v>
       </c>
-      <c r="B54" t="s">
-        <v>145</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>42</v>
       </c>
@@ -5900,14 +5903,14 @@
       <c r="F54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>42</v>
+      <c r="G54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>42</v>
+      <c r="I54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>43</v>
@@ -5948,11 +5951,11 @@
       <c r="V54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>42</v>
+      <c r="W54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>43</v>
@@ -5972,11 +5975,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="3">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
         <v>146</v>
       </c>
-      <c r="B55" t="s">
-        <v>147</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>42</v>
       </c>
@@ -5992,50 +5995,50 @@
       <c r="G55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>42</v>
+      <c r="H55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>42</v>
+      <c r="J55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>42</v>
+      <c r="L55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>42</v>
+      <c r="N55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>42</v>
+      <c r="Q55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>42</v>
+      <c r="V55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>42</v>
@@ -6061,11 +6064,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
         <v>148</v>
       </c>
-      <c r="B56" t="s">
-        <v>149</v>
-      </c>
       <c r="C56" s="1" t="s">
         <v>42</v>
       </c>
@@ -6111,14 +6114,14 @@
       <c r="Q56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>43</v>
+      <c r="R56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>42</v>
@@ -6150,11 +6153,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="3">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s">
         <v>150</v>
       </c>
-      <c r="B57" t="s">
-        <v>151</v>
-      </c>
       <c r="C57" s="1" t="s">
         <v>42</v>
       </c>
@@ -6170,35 +6173,35 @@
       <c r="G57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>43</v>
+      <c r="H57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>43</v>
+      <c r="J57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>43</v>
+      <c r="L57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>43</v>
+      <c r="N57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>43</v>
+      <c r="Q57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>43</v>
@@ -6212,8 +6215,8 @@
       <c r="U57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>43</v>
+      <c r="V57" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>42</v>
@@ -6239,31 +6242,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
         <v>152</v>
       </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>43</v>
+      <c r="E58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>43</v>
+      <c r="I58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>43</v>
@@ -6283,20 +6286,20 @@
       <c r="O58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>43</v>
+      <c r="P58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>42</v>
+      <c r="R58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>42</v>
@@ -6328,11 +6331,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
         <v>154</v>
       </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
@@ -6357,14 +6360,14 @@
       <c r="J59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>43</v>
+      <c r="K59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>43</v>
+      <c r="M59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>43</v>
@@ -6378,26 +6381,26 @@
       <c r="Q59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>43</v>
+      <c r="R59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>43</v>
+      <c r="W59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y59" s="2" t="s">
         <v>43</v>
@@ -6417,55 +6420,55 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
         <v>156</v>
       </c>
-      <c r="B60" t="s">
-        <v>157</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>42</v>
+      <c r="E60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>43</v>
@@ -6476,17 +6479,17 @@
       <c r="T60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>42</v>
+      <c r="U60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>43</v>
@@ -6506,11 +6509,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
         <v>158</v>
       </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
       </c>
@@ -6526,35 +6529,35 @@
       <c r="G61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>43</v>
+      <c r="H61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>43</v>
+      <c r="J61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>43</v>
+      <c r="P61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>43</v>
@@ -6565,17 +6568,17 @@
       <c r="T61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>43</v>
+      <c r="U61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y61" s="2" t="s">
         <v>43</v>
@@ -6595,31 +6598,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="3">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
         <v>160</v>
       </c>
-      <c r="B62" t="s">
-        <v>161</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>43</v>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>43</v>
+      <c r="I62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>43</v>
@@ -6636,8 +6639,8 @@
       <c r="N62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="2" t="s">
-        <v>43</v>
+      <c r="O62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>43</v>
@@ -6684,31 +6687,31 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
         <v>162</v>
       </c>
-      <c r="B63" t="s">
-        <v>163</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>42</v>
+      <c r="D63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>42</v>
+      <c r="I63" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>43</v>
@@ -6725,8 +6728,8 @@
       <c r="N63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>42</v>
+      <c r="O63" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>43</v>
@@ -6773,10 +6776,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
         <v>164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>42</v>
@@ -6862,11 +6865,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="3">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
         <v>166</v>
       </c>
-      <c r="B65" t="s">
-        <v>167</v>
-      </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
       </c>
@@ -6882,26 +6885,26 @@
       <c r="G65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>42</v>
+      <c r="H65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>42</v>
+      <c r="J65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>42</v>
@@ -6912,23 +6915,23 @@
       <c r="Q65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>42</v>
+      <c r="R65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>43</v>
@@ -6951,11 +6954,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="B66" t="s">
         <v>168</v>
       </c>
-      <c r="B66" t="s">
-        <v>169</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>42</v>
       </c>
@@ -6971,26 +6974,26 @@
       <c r="G66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>43</v>
+      <c r="H66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>43</v>
+      <c r="J66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>42</v>
@@ -7001,23 +7004,23 @@
       <c r="Q66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>43</v>
+      <c r="R66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>43</v>
@@ -7040,31 +7043,31 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="3">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
         <v>170</v>
       </c>
-      <c r="B67" t="s">
-        <v>171</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>43</v>
+      <c r="D67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>43</v>
+      <c r="I67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>43</v>
@@ -7081,8 +7084,8 @@
       <c r="N67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>43</v>
+      <c r="O67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>43</v>
@@ -7111,8 +7114,8 @@
       <c r="X67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y67" s="1" t="s">
-        <v>42</v>
+      <c r="Y67" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z67" s="2" t="s">
         <v>43</v>
@@ -7129,22 +7132,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="3">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
         <v>172</v>
       </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>42</v>
+      <c r="D68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>43</v>
@@ -7158,14 +7161,14 @@
       <c r="J68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>42</v>
+      <c r="K68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>42</v>
+      <c r="M68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>43</v>
@@ -7173,8 +7176,8 @@
       <c r="O68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>42</v>
+      <c r="P68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>43</v>
@@ -7188,20 +7191,20 @@
       <c r="T68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U68" s="1" t="s">
-        <v>42</v>
+      <c r="U68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>43</v>
+      <c r="W68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z68" s="2" t="s">
         <v>43</v>
@@ -7218,22 +7221,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="B69" t="s">
         <v>174</v>
       </c>
-      <c r="B69" t="s">
-        <v>175</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>43</v>
+      <c r="D69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>43</v>
@@ -7247,14 +7250,14 @@
       <c r="J69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>43</v>
+      <c r="K69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>43</v>
+      <c r="M69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>43</v>
@@ -7262,8 +7265,8 @@
       <c r="O69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>43</v>
+      <c r="P69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>43</v>
@@ -7277,17 +7280,17 @@
       <c r="T69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="2" t="s">
-        <v>43</v>
+      <c r="U69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X69" s="2" t="s">
-        <v>43</v>
+      <c r="W69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y69" s="2" t="s">
         <v>43</v>
@@ -7307,16 +7310,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="B70" t="s">
         <v>176</v>
       </c>
-      <c r="B70" t="s">
-        <v>177</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>42</v>
+      <c r="D70" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -7396,11 +7399,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="3">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s">
         <v>178</v>
       </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>42</v>
       </c>
@@ -7425,14 +7428,14 @@
       <c r="J71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>42</v>
+      <c r="K71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>42</v>
+      <c r="M71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>43</v>
@@ -7446,26 +7449,26 @@
       <c r="Q71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>42</v>
+      <c r="R71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>42</v>
+      <c r="W71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y71" s="2" t="s">
         <v>43</v>
@@ -7485,49 +7488,49 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s">
         <v>180</v>
       </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>42</v>
+      <c r="E72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>42</v>
+      <c r="I72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>43</v>
+      <c r="K72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>43</v>
+      <c r="M72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>42</v>
+      <c r="O72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>43</v>
@@ -7535,26 +7538,26 @@
       <c r="Q72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>43</v>
+      <c r="R72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>43</v>
+      <c r="W72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y72" s="2" t="s">
         <v>43</v>
@@ -7574,10 +7577,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
         <v>182</v>
-      </c>
-      <c r="B73" t="s">
-        <v>183</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
@@ -7663,31 +7666,31 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
         <v>184</v>
       </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
       <c r="C74" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>43</v>
+      <c r="E74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>43</v>
+      <c r="I74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>43</v>
@@ -7704,8 +7707,8 @@
       <c r="N74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>43</v>
+      <c r="O74" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>43</v>
@@ -7752,31 +7755,31 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
         <v>186</v>
       </c>
-      <c r="B75" t="s">
-        <v>187</v>
-      </c>
       <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>42</v>
+      <c r="E75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>42</v>
+      <c r="I75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>43</v>
@@ -7793,8 +7796,8 @@
       <c r="N75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>42</v>
+      <c r="O75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>43</v>
@@ -7823,8 +7826,8 @@
       <c r="X75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y75" s="1" t="s">
-        <v>42</v>
+      <c r="Y75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z75" s="2" t="s">
         <v>43</v>
@@ -7841,7 +7844,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="3">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>188</v>
@@ -7912,8 +7915,8 @@
       <c r="X76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y76" s="2" t="s">
-        <v>43</v>
+      <c r="Y76" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z76" s="2" t="s">
         <v>43</v>
@@ -8116,23 +8119,23 @@
       <c r="C79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>43</v>
+      <c r="D79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>43</v>
+      <c r="I79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>43</v>
@@ -8149,8 +8152,8 @@
       <c r="N79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="2" t="s">
-        <v>43</v>
+      <c r="O79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>43</v>
@@ -8205,8 +8208,8 @@
       <c r="C80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>42</v>
+      <c r="D80" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>43</v>
@@ -8289,13 +8292,13 @@
         <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>43</v>
+        <v>193</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>43</v>
@@ -8303,17 +8306,17 @@
       <c r="F81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>42</v>
+      <c r="G81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>43</v>
@@ -8375,22 +8378,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="B82" t="s">
         <v>195</v>
       </c>
-      <c r="B82" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>42</v>
+      <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>42</v>
@@ -8404,14 +8407,14 @@
       <c r="J82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>42</v>
+      <c r="K82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>42</v>
+      <c r="M82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>43</v>
@@ -8425,17 +8428,17 @@
       <c r="Q82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>42</v>
+      <c r="R82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>43</v>
@@ -8464,43 +8467,43 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
         <v>197</v>
       </c>
-      <c r="B83" t="s">
-        <v>198</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>43</v>
+      <c r="D83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>43</v>
+      <c r="M83" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>43</v>
@@ -8514,17 +8517,17 @@
       <c r="Q83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>43</v>
+      <c r="R83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>43</v>
@@ -8553,10 +8556,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="3">
+        <v>198</v>
+      </c>
+      <c r="B84" t="s">
         <v>199</v>
-      </c>
-      <c r="B84" t="s">
-        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>42</v>
@@ -8642,10 +8645,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="B85" t="s">
         <v>201</v>
-      </c>
-      <c r="B85" t="s">
-        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>42</v>
@@ -8731,22 +8734,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="B86" t="s">
         <v>203</v>
       </c>
-      <c r="B86" t="s">
-        <v>204</v>
-      </c>
       <c r="C86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>42</v>
+      <c r="D86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>43</v>
@@ -8781,26 +8784,26 @@
       <c r="Q86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>42</v>
+      <c r="R86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>42</v>
+      <c r="W86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y86" s="2" t="s">
         <v>43</v>
@@ -8820,22 +8823,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="B87" t="s">
         <v>205</v>
       </c>
-      <c r="B87" t="s">
-        <v>206</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>43</v>
+      <c r="E87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>43</v>
@@ -8870,26 +8873,26 @@
       <c r="Q87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>43</v>
+      <c r="R87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>43</v>
+      <c r="W87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y87" s="2" t="s">
         <v>43</v>
@@ -8909,22 +8912,22 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="3">
+        <v>206</v>
+      </c>
+      <c r="B88" t="s">
         <v>207</v>
       </c>
-      <c r="B88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>42</v>
+      <c r="C88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>43</v>
@@ -8998,22 +9001,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
         <v>209</v>
       </c>
-      <c r="B89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>43</v>
+      <c r="C89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>43</v>
@@ -9087,22 +9090,22 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="B90" t="s">
         <v>211</v>
       </c>
-      <c r="B90" t="s">
-        <v>212</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>42</v>
+      <c r="E90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>43</v>
@@ -9110,20 +9113,20 @@
       <c r="H90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>42</v>
+      <c r="I90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>42</v>
+      <c r="K90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>42</v>
+      <c r="M90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>43</v>
@@ -9131,32 +9134,32 @@
       <c r="O90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P90" s="1" t="s">
-        <v>42</v>
+      <c r="P90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>42</v>
+      <c r="R90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>42</v>
+      <c r="W90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y90" s="2" t="s">
         <v>43</v>
@@ -9176,11 +9179,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
-        <v>214</v>
-      </c>
       <c r="C91" s="1" t="s">
         <v>42</v>
       </c>
@@ -9226,14 +9229,14 @@
       <c r="Q91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>43</v>
+      <c r="R91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>42</v>
@@ -9265,22 +9268,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="3">
+        <v>214</v>
+      </c>
+      <c r="B92" t="s">
         <v>215</v>
       </c>
-      <c r="B92" t="s">
-        <v>216</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>43</v>
+      <c r="E92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>43</v>
@@ -9288,20 +9291,20 @@
       <c r="H92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>43</v>
+      <c r="I92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>43</v>
+      <c r="K92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>43</v>
+      <c r="M92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>43</v>
@@ -9309,8 +9312,8 @@
       <c r="O92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>43</v>
+      <c r="P92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>43</v>
@@ -9324,17 +9327,17 @@
       <c r="T92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U92" s="2" t="s">
-        <v>43</v>
+      <c r="U92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>43</v>
+      <c r="W92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>43</v>
@@ -9354,16 +9357,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="3">
+        <v>216</v>
+      </c>
+      <c r="B93" t="s">
         <v>217</v>
       </c>
-      <c r="B93" t="s">
-        <v>218</v>
-      </c>
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>43</v>
+      <c r="D93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>43</v>
@@ -9443,22 +9446,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="3">
+        <v>218</v>
+      </c>
+      <c r="B94" t="s">
         <v>219</v>
       </c>
-      <c r="B94" t="s">
-        <v>220</v>
-      </c>
       <c r="C94" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>42</v>
+      <c r="D94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>42</v>
+      <c r="F94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>43</v>
@@ -9532,16 +9535,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="3">
+        <v>220</v>
+      </c>
+      <c r="B95" t="s">
         <v>221</v>
       </c>
-      <c r="B95" t="s">
-        <v>222</v>
-      </c>
       <c r="C95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>43</v>
+      <c r="D95" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>43</v>
@@ -9621,11 +9624,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="B96" t="s">
         <v>223</v>
       </c>
-      <c r="B96" t="s">
-        <v>224</v>
-      </c>
       <c r="C96" s="1" t="s">
         <v>42</v>
       </c>
@@ -9635,8 +9638,8 @@
       <c r="E96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>43</v>
+      <c r="F96" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>43</v>
@@ -9710,10 +9713,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="3">
+        <v>224</v>
+      </c>
+      <c r="B97" t="s">
         <v>225</v>
-      </c>
-      <c r="B97" t="s">
-        <v>226</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>42</v>
@@ -9799,22 +9802,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="3">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
         <v>227</v>
       </c>
-      <c r="B98" t="s">
-        <v>228</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>42</v>
+      <c r="D98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>43</v>
@@ -9849,26 +9852,26 @@
       <c r="Q98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>42</v>
+      <c r="R98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>42</v>
+      <c r="W98" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y98" s="2" t="s">
         <v>43</v>
@@ -9888,22 +9891,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="3">
+        <v>228</v>
+      </c>
+      <c r="B99" t="s">
         <v>229</v>
       </c>
-      <c r="B99" t="s">
-        <v>230</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>43</v>
+      <c r="E99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>43</v>
@@ -9941,23 +9944,23 @@
       <c r="R99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>43</v>
+      <c r="S99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>43</v>
+      <c r="W99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>43</v>
@@ -9977,22 +9980,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="3">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
         <v>231</v>
       </c>
-      <c r="B100" t="s">
-        <v>232</v>
-      </c>
       <c r="C100" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>42</v>
+      <c r="E100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>43</v>
@@ -10027,8 +10030,8 @@
       <c r="Q100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R100" s="2" t="s">
-        <v>43</v>
+      <c r="R100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>43</v>
@@ -10036,17 +10039,17 @@
       <c r="T100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U100" s="1" t="s">
-        <v>42</v>
+      <c r="U100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>42</v>
+      <c r="W100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>43</v>
@@ -10066,22 +10069,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="3">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
         <v>233</v>
       </c>
-      <c r="B101" t="s">
-        <v>234</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>43</v>
+      <c r="D101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>43</v>
@@ -10125,17 +10128,17 @@
       <c r="T101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U101" s="2" t="s">
-        <v>43</v>
+      <c r="U101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>43</v>
+      <c r="W101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y101" s="2" t="s">
         <v>43</v>
@@ -10155,16 +10158,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="3">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
         <v>235</v>
       </c>
-      <c r="B102" t="s">
-        <v>236</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>42</v>
+      <c r="D102" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>43</v>
@@ -10244,16 +10247,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="3">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
         <v>237</v>
       </c>
-      <c r="B103" t="s">
-        <v>238</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>43</v>
+      <c r="D103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>43</v>
@@ -10333,40 +10336,40 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="3">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
         <v>239</v>
       </c>
-      <c r="B104" t="s">
-        <v>240</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>42</v>
+      <c r="D104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>42</v>
+      <c r="I104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>42</v>
+      <c r="K104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>43</v>
@@ -10374,35 +10377,35 @@
       <c r="N104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>42</v>
+      <c r="O104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>42</v>
+      <c r="R104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X104" s="1" t="s">
-        <v>42</v>
+      <c r="W104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y104" s="2" t="s">
         <v>43</v>
@@ -10422,25 +10425,25 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="3">
+        <v>240</v>
+      </c>
+      <c r="B105" t="s">
         <v>241</v>
       </c>
-      <c r="B105" t="s">
-        <v>242</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>43</v>
+      <c r="E105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>43</v>
@@ -10451,23 +10454,23 @@
       <c r="J105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>43</v>
+      <c r="K105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>43</v>
@@ -10481,17 +10484,17 @@
       <c r="T105" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U105" s="2" t="s">
-        <v>43</v>
+      <c r="U105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>43</v>
+      <c r="W105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>43</v>
@@ -10511,11 +10514,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s">
         <v>243</v>
       </c>
-      <c r="B106" t="s">
-        <v>244</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>42</v>
       </c>
@@ -10534,8 +10537,8 @@
       <c r="H106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>43</v>
+      <c r="I106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>43</v>
@@ -10549,8 +10552,8 @@
       <c r="M106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>43</v>
+      <c r="N106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>43</v>
@@ -10600,49 +10603,49 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="3">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s">
         <v>245</v>
       </c>
-      <c r="B107" t="s">
-        <v>246</v>
-      </c>
       <c r="C107" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>42</v>
+      <c r="E107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>42</v>
+      <c r="I107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>42</v>
+      <c r="N107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>43</v>
@@ -10650,14 +10653,14 @@
       <c r="Q107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>43</v>
+      <c r="R107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U107" s="2" t="s">
         <v>43</v>
@@ -10665,8 +10668,8 @@
       <c r="V107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W107" s="1" t="s">
-        <v>42</v>
+      <c r="W107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X107" s="2" t="s">
         <v>43</v>
@@ -10689,34 +10692,34 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="3">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s">
         <v>247</v>
       </c>
-      <c r="B108" t="s">
-        <v>248</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>43</v>
+      <c r="D108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>43</v>
+      <c r="I108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>42</v>
@@ -10724,17 +10727,17 @@
       <c r="L108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>42</v>
+      <c r="M108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>43</v>
@@ -10748,14 +10751,14 @@
       <c r="T108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U108" s="1" t="s">
-        <v>42</v>
+      <c r="U108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W108" s="2" t="s">
-        <v>43</v>
+      <c r="W108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>43</v>
@@ -10778,11 +10781,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="B109" t="s">
         <v>249</v>
       </c>
-      <c r="B109" t="s">
-        <v>250</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>42</v>
       </c>
@@ -10822,8 +10825,8 @@
       <c r="O109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>43</v>
+      <c r="P109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>43</v>
@@ -10867,10 +10870,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="B110" t="s">
         <v>251</v>
-      </c>
-      <c r="B110" t="s">
-        <v>252</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>42</v>
@@ -10956,10 +10959,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="3">
+        <v>252</v>
+      </c>
+      <c r="B111" t="s">
         <v>253</v>
-      </c>
-      <c r="B111" t="s">
-        <v>254</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>42</v>
@@ -11045,11 +11048,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="3">
+        <v>254</v>
+      </c>
+      <c r="B112" t="s">
         <v>255</v>
       </c>
-      <c r="B112" t="s">
-        <v>256</v>
-      </c>
       <c r="C112" s="1" t="s">
         <v>42</v>
       </c>
@@ -11077,8 +11080,8 @@
       <c r="K112" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>43</v>
+      <c r="L112" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>43</v>
@@ -11134,11 +11137,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="3">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
         <v>257</v>
       </c>
-      <c r="B113" t="s">
-        <v>258</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>42</v>
       </c>
@@ -11166,8 +11169,8 @@
       <c r="K113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>42</v>
+      <c r="L113" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>43</v>
@@ -11223,10 +11226,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="3">
+        <v>258</v>
+      </c>
+      <c r="B114" t="s">
         <v>259</v>
-      </c>
-      <c r="B114" t="s">
-        <v>260</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>42</v>
@@ -11312,11 +11315,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="B115" t="s">
         <v>261</v>
       </c>
-      <c r="B115" t="s">
-        <v>262</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>42</v>
       </c>
@@ -11344,8 +11347,8 @@
       <c r="K115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>43</v>
+      <c r="L115" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>43</v>
@@ -11401,11 +11404,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
         <v>263</v>
       </c>
-      <c r="B116" t="s">
-        <v>264</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>42</v>
       </c>
@@ -11433,8 +11436,8 @@
       <c r="K116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>42</v>
+      <c r="L116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>43</v>
@@ -11490,10 +11493,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
         <v>265</v>
-      </c>
-      <c r="B117" t="s">
-        <v>266</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>42</v>
@@ -11579,10 +11582,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="3">
+        <v>266</v>
+      </c>
+      <c r="B118" t="s">
         <v>267</v>
-      </c>
-      <c r="B118" t="s">
-        <v>268</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>42</v>
@@ -11668,10 +11671,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="3">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
         <v>269</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>42</v>
@@ -11757,11 +11760,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="3">
+        <v>270</v>
+      </c>
+      <c r="B120" t="s">
         <v>271</v>
       </c>
-      <c r="B120" t="s">
-        <v>272</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>42</v>
       </c>
@@ -11789,8 +11792,8 @@
       <c r="K120" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L120" s="2" t="s">
-        <v>43</v>
+      <c r="L120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>43</v>
@@ -11846,76 +11849,76 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="3">
+        <v>272</v>
+      </c>
+      <c r="B121" t="s">
         <v>273</v>
       </c>
-      <c r="B121" t="s">
-        <v>274</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>42</v>
+      <c r="D121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>42</v>
+      <c r="L121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T121" s="1" t="s">
-        <v>42</v>
+      <c r="R121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X121" s="1" t="s">
-        <v>42</v>
+      <c r="V121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y121" s="2" t="s">
         <v>43</v>
@@ -11935,11 +11938,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="B122" t="s">
         <v>275</v>
       </c>
-      <c r="B122" t="s">
-        <v>276</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>42</v>
       </c>
@@ -11955,44 +11958,44 @@
       <c r="G122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>43</v>
+      <c r="H122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>43</v>
+      <c r="J122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>43</v>
+      <c r="R122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U122" s="1" t="s">
         <v>42</v>
@@ -12024,31 +12027,31 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="3">
+        <v>276</v>
+      </c>
+      <c r="B123" t="s">
         <v>277</v>
       </c>
-      <c r="B123" t="s">
-        <v>278</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>43</v>
+      <c r="D123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>43</v>
+      <c r="I123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>43</v>
@@ -12083,17 +12086,17 @@
       <c r="T123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X123" s="2" t="s">
-        <v>43</v>
+      <c r="U123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y123" s="2" t="s">
         <v>43</v>
@@ -12113,10 +12116,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="3">
+        <v>278</v>
+      </c>
+      <c r="B124" t="s">
         <v>279</v>
-      </c>
-      <c r="B124" t="s">
-        <v>280</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>42</v>
@@ -12202,22 +12205,22 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="B125" t="s">
         <v>281</v>
       </c>
-      <c r="B125" t="s">
-        <v>282</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>42</v>
+      <c r="C125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>43</v>
@@ -12225,23 +12228,23 @@
       <c r="H125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>42</v>
+      <c r="I125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>42</v>
+      <c r="K125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>43</v>
@@ -12291,13 +12294,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="3">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
         <v>283</v>
       </c>
-      <c r="B126" t="s">
-        <v>284</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>42</v>
+      <c r="C126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>42</v>
@@ -12314,23 +12317,23 @@
       <c r="H126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>43</v>
+      <c r="I126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>43</v>
+      <c r="K126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>43</v>
@@ -12380,22 +12383,22 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="3">
+        <v>284</v>
+      </c>
+      <c r="B127" t="s">
         <v>285</v>
       </c>
-      <c r="B127" t="s">
-        <v>286</v>
-      </c>
       <c r="C127" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>43</v>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>43</v>
@@ -12469,43 +12472,43 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="3">
+        <v>286</v>
+      </c>
+      <c r="B128" t="s">
         <v>287</v>
       </c>
-      <c r="B128" t="s">
-        <v>288</v>
-      </c>
       <c r="C128" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>42</v>
+      <c r="E128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>42</v>
+      <c r="K128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M128" s="1" t="s">
-        <v>42</v>
+      <c r="M128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>43</v>
@@ -12519,26 +12522,26 @@
       <c r="Q128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X128" s="1" t="s">
-        <v>42</v>
+      <c r="R128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y128" s="2" t="s">
         <v>43</v>
@@ -12558,11 +12561,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="3">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
         <v>289</v>
       </c>
-      <c r="B129" t="s">
-        <v>290</v>
-      </c>
       <c r="C129" s="1" t="s">
         <v>42</v>
       </c>
@@ -12575,14 +12578,14 @@
       <c r="F129" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>43</v>
+      <c r="G129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>43</v>
@@ -12608,20 +12611,20 @@
       <c r="Q129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>43</v>
+      <c r="R129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U129" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V129" s="2" t="s">
-        <v>43</v>
+      <c r="V129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>42</v>
@@ -12647,11 +12650,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
         <v>291</v>
       </c>
-      <c r="B130" t="s">
-        <v>292</v>
-      </c>
       <c r="C130" s="1" t="s">
         <v>42</v>
       </c>
@@ -12667,8 +12670,8 @@
       <c r="G130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>42</v>
+      <c r="H130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>43</v>
@@ -12697,20 +12700,20 @@
       <c r="Q130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>42</v>
+      <c r="R130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>42</v>
+      <c r="V130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>42</v>
@@ -12736,13 +12739,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="3">
+        <v>292</v>
+      </c>
+      <c r="B131" t="s">
         <v>293</v>
       </c>
-      <c r="B131" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>43</v>
+      <c r="C131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>42</v>
@@ -12753,32 +12756,32 @@
       <c r="F131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>42</v>
+      <c r="G131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>42</v>
+      <c r="I131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L131" s="1" t="s">
-        <v>42</v>
+      <c r="L131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>42</v>
+      <c r="N131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>43</v>
@@ -12786,17 +12789,17 @@
       <c r="Q131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U131" s="2" t="s">
-        <v>43</v>
+      <c r="R131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V131" s="1" t="s">
         <v>42</v>
@@ -12810,14 +12813,14 @@
       <c r="Y131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z131" s="1" t="s">
-        <v>42</v>
+      <c r="Z131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB131" s="1" t="s">
-        <v>42</v>
+      <c r="AB131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC131" s="2" t="s">
         <v>43</v>
@@ -12825,49 +12828,49 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="3">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
         <v>295</v>
       </c>
-      <c r="B132" t="s">
-        <v>296</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>43</v>
+      <c r="D132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>43</v>
@@ -12887,14 +12890,14 @@
       <c r="U132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X132" s="2" t="s">
-        <v>43</v>
+      <c r="V132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y132" s="2" t="s">
         <v>43</v>
@@ -12914,52 +12917,52 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="B133" t="s">
         <v>297</v>
       </c>
-      <c r="B133" t="s">
-        <v>298</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>42</v>
+      <c r="D133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>43</v>
@@ -12976,14 +12979,14 @@
       <c r="U133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X133" s="1" t="s">
-        <v>42</v>
+      <c r="V133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y133" s="2" t="s">
         <v>43</v>
@@ -13003,52 +13006,52 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="B134" t="s">
         <v>299</v>
       </c>
-      <c r="B134" t="s">
-        <v>300</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>43</v>
+      <c r="D134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>43</v>
@@ -13065,14 +13068,14 @@
       <c r="U134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W134" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X134" s="2" t="s">
-        <v>43</v>
+      <c r="V134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y134" s="2" t="s">
         <v>43</v>
@@ -13092,49 +13095,49 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="B135" t="s">
         <v>301</v>
       </c>
-      <c r="B135" t="s">
-        <v>302</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>42</v>
+      <c r="C135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>42</v>
+      <c r="I135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>42</v>
+      <c r="K135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>43</v>
@@ -13157,8 +13160,8 @@
       <c r="V135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W135" s="1" t="s">
-        <v>42</v>
+      <c r="W135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>43</v>
@@ -13166,14 +13169,14 @@
       <c r="Y135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z135" s="2" t="s">
-        <v>43</v>
+      <c r="Z135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB135" s="2" t="s">
-        <v>43</v>
+      <c r="AB135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC135" s="2" t="s">
         <v>43</v>
@@ -13181,49 +13184,49 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="B136" t="s">
         <v>303</v>
       </c>
-      <c r="B136" t="s">
-        <v>304</v>
-      </c>
       <c r="C136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>43</v>
+      <c r="D136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>43</v>
+      <c r="I136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>43</v>
+      <c r="K136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>43</v>
@@ -13246,8 +13249,8 @@
       <c r="V136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W136" s="2" t="s">
-        <v>43</v>
+      <c r="W136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>43</v>
@@ -13270,16 +13273,16 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="B137" t="s">
         <v>305</v>
       </c>
-      <c r="B137" t="s">
-        <v>306</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>42</v>
+      <c r="D137" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>43</v>
@@ -13359,16 +13362,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="B138" t="s">
         <v>307</v>
       </c>
-      <c r="B138" t="s">
-        <v>308</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>43</v>
+      <c r="D138" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>43</v>
@@ -13448,49 +13451,49 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="3">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
         <v>309</v>
       </c>
-      <c r="B139" t="s">
-        <v>310</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>42</v>
+      <c r="D139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>42</v>
+      <c r="I139" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>42</v>
+      <c r="K139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P139" s="2" t="s">
         <v>43</v>
@@ -13513,8 +13516,8 @@
       <c r="V139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W139" s="1" t="s">
-        <v>42</v>
+      <c r="W139" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X139" s="2" t="s">
         <v>43</v>
@@ -13537,11 +13540,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="B140" t="s">
         <v>311</v>
       </c>
-      <c r="B140" t="s">
-        <v>312</v>
-      </c>
       <c r="C140" s="1" t="s">
         <v>42</v>
       </c>
@@ -13554,14 +13557,14 @@
       <c r="F140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>43</v>
+      <c r="G140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>43</v>
+      <c r="I140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>43</v>
@@ -13569,17 +13572,17 @@
       <c r="K140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L140" s="2" t="s">
-        <v>43</v>
+      <c r="L140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N140" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>43</v>
+      <c r="N140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>43</v>
@@ -13626,49 +13629,49 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="B141" t="s">
         <v>313</v>
       </c>
-      <c r="B141" t="s">
-        <v>314</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>43</v>
+      <c r="E141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>43</v>
+      <c r="I141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>43</v>
+      <c r="K141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>43</v>
@@ -13691,8 +13694,8 @@
       <c r="V141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W141" s="2" t="s">
-        <v>43</v>
+      <c r="W141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X141" s="2" t="s">
         <v>43</v>
@@ -13715,16 +13718,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="B142" t="s">
         <v>315</v>
       </c>
-      <c r="B142" t="s">
-        <v>316</v>
-      </c>
       <c r="C142" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>43</v>
+      <c r="D142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>43</v>
@@ -13804,22 +13807,22 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="B143" t="s">
         <v>317</v>
       </c>
-      <c r="B143" t="s">
-        <v>318</v>
-      </c>
       <c r="C143" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>42</v>
+      <c r="D143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>43</v>
@@ -13833,14 +13836,14 @@
       <c r="J143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>42</v>
+      <c r="K143" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M143" s="1" t="s">
-        <v>42</v>
+      <c r="M143" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>43</v>
@@ -13869,8 +13872,8 @@
       <c r="V143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W143" s="1" t="s">
-        <v>42</v>
+      <c r="W143" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X143" s="2" t="s">
         <v>43</v>
@@ -13893,22 +13896,22 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="B144" t="s">
         <v>319</v>
       </c>
-      <c r="B144" t="s">
-        <v>320</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>43</v>
+      <c r="C144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>43</v>
@@ -13922,14 +13925,14 @@
       <c r="J144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K144" s="2" t="s">
-        <v>43</v>
+      <c r="K144" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M144" s="2" t="s">
-        <v>43</v>
+      <c r="M144" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>43</v>
@@ -13958,8 +13961,8 @@
       <c r="V144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W144" s="2" t="s">
-        <v>43</v>
+      <c r="W144" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X144" s="2" t="s">
         <v>43</v>
@@ -13976,55 +13979,55 @@
       <c r="AB144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC144" s="1" t="s">
-        <v>42</v>
+      <c r="AC144" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="B145" t="s">
         <v>321</v>
       </c>
-      <c r="B145" t="s">
-        <v>322</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>42</v>
+      <c r="C145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>42</v>
+      <c r="I145" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>42</v>
+      <c r="K145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>43</v>
@@ -14032,26 +14035,26 @@
       <c r="Q145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U145" s="1" t="s">
-        <v>42</v>
+      <c r="R145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X145" s="1" t="s">
-        <v>42</v>
+      <c r="W145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y145" s="2" t="s">
         <v>43</v>
@@ -14065,19 +14068,19 @@
       <c r="AB145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC145" s="2" t="s">
-        <v>43</v>
+      <c r="AC145" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="3">
+        <v>322</v>
+      </c>
+      <c r="B146" t="s">
         <v>323</v>
       </c>
-      <c r="B146" t="s">
-        <v>324</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>43</v>
+      <c r="C146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>42</v>
@@ -14085,35 +14088,35 @@
       <c r="E146" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>43</v>
+      <c r="F146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>43</v>
+      <c r="I146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>43</v>
+      <c r="K146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>43</v>
@@ -14121,26 +14124,26 @@
       <c r="Q146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U146" s="2" t="s">
-        <v>43</v>
+      <c r="R146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X146" s="2" t="s">
-        <v>43</v>
+      <c r="W146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y146" s="2" t="s">
         <v>43</v>
@@ -14160,90 +14163,179 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="B147" t="s">
         <v>325</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="3">
         <v>326</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC147" s="2" t="s">
+      <c r="B148" t="s">
+        <v>327</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC148" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14262,12 +14354,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -1002,7 +1002,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.60.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -4684,8 +4684,8 @@
       <c r="O40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>43</v>
+      <c r="P40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>43</v>
@@ -6998,8 +6998,8 @@
       <c r="O66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>43</v>
+      <c r="P66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>43</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="318">
   <si>
     <t>User Right</t>
   </si>
@@ -225,12 +225,6 @@
     <t>Archive cases</t>
   </si>
   <si>
-    <t>CASE_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived cases</t>
-  </si>
-  <si>
     <t>CASE_MERGE</t>
   </si>
   <si>
@@ -303,12 +297,6 @@
     <t>Export samples from SORMAS</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived samples</t>
-  </si>
-  <si>
     <t>PATHOGEN_TEST_CREATE</t>
   </si>
   <si>
@@ -405,12 +393,6 @@
     <t>Export contacts from SORMAS</t>
   </si>
   <si>
-    <t>CONTACT_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived contacts</t>
-  </si>
-  <si>
     <t>CONTACT_REASSIGN_CASE</t>
   </si>
   <si>
@@ -474,12 +456,6 @@
     <t>Assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived tasks</t>
-  </si>
-  <si>
     <t>TASK_DELETE</t>
   </si>
   <si>
@@ -552,12 +528,6 @@
     <t>Delete events from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived events</t>
-  </si>
-  <si>
     <t>EVENTPARTICIPANT_CREATE</t>
   </si>
   <si>
@@ -703,12 +673,6 @@
   </si>
   <si>
     <t>View regions/districts/communities/facilities in the system</t>
-  </si>
-  <si>
-    <t>INFRASTRUCTURE_VIEW_ARCHIVED</t>
-  </si>
-  <si>
-    <t>View archived infrastructure data</t>
   </si>
   <si>
     <t>INFRASTRUCTURE_EXPORT</t>
@@ -1130,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD148"/>
+  <dimension ref="A1:AD142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2601,14 +2565,14 @@
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>43</v>
@@ -2622,14 +2586,14 @@
       <c r="J17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>42</v>
+      <c r="K17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>42</v>
+      <c r="M17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>43</v>
@@ -2643,26 +2607,26 @@
       <c r="Q17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>42</v>
+      <c r="R17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>42</v>
+      <c r="W17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>43</v>
@@ -2690,68 +2654,68 @@
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>43</v>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>43</v>
+      <c r="R18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>43</v>
@@ -2821,14 +2785,14 @@
       <c r="Q19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>42</v>
+      <c r="R19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>42</v>
@@ -2871,41 +2835,41 @@
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>42</v>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>43</v>
@@ -2919,17 +2883,17 @@
       <c r="T20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>42</v>
+      <c r="U20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>43</v>
@@ -3049,29 +3013,29 @@
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>43</v>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>43</v>
@@ -3079,11 +3043,11 @@
       <c r="N22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>43</v>
+      <c r="O22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>43</v>
@@ -3097,8 +3061,8 @@
       <c r="T22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>43</v>
+      <c r="U22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>43</v>
@@ -3162,11 +3126,11 @@
       <c r="L23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>43</v>
+      <c r="M23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>42</v>
@@ -3174,17 +3138,17 @@
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>43</v>
+      <c r="Q23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>42</v>
@@ -3251,11 +3215,11 @@
       <c r="L24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>42</v>
+      <c r="M24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>42</v>
@@ -3266,14 +3230,14 @@
       <c r="Q24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="R24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>42</v>
@@ -3313,8 +3277,8 @@
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -3322,23 +3286,23 @@
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>42</v>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>43</v>
@@ -3349,11 +3313,11 @@
       <c r="O25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>42</v>
+      <c r="P25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>43</v>
@@ -3364,8 +3328,8 @@
       <c r="T25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>42</v>
+      <c r="U25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>43</v>
@@ -3402,11 +3366,11 @@
       <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>42</v>
@@ -3435,8 +3399,8 @@
       <c r="N26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>42</v>
+      <c r="O26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>43</v>
@@ -3494,8 +3458,8 @@
       <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>42</v>
@@ -3512,8 +3476,8 @@
       <c r="J27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>43</v>
+      <c r="K27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>43</v>
@@ -3527,11 +3491,11 @@
       <c r="O27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>43</v>
+      <c r="P27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>43</v>
@@ -3542,8 +3506,8 @@
       <c r="T27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>43</v>
+      <c r="U27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>43</v>
@@ -3607,8 +3571,8 @@
       <c r="L28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>43</v>
+      <c r="M28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>43</v>
@@ -3619,8 +3583,8 @@
       <c r="P28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>42</v>
+      <c r="Q28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>43</v>
@@ -3678,14 +3642,14 @@
       <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>43</v>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>43</v>
+      <c r="I29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>43</v>
@@ -3696,20 +3660,20 @@
       <c r="L29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>42</v>
+      <c r="M29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>43</v>
+      <c r="O29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>43</v>
+      <c r="Q29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>43</v>
@@ -3761,20 +3725,20 @@
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>43</v>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>43</v>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>43</v>
@@ -3785,29 +3749,29 @@
       <c r="L30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>42</v>
+      <c r="M30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>42</v>
+      <c r="O30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>42</v>
@@ -3850,26 +3814,26 @@
       <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>42</v>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>42</v>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>42</v>
+      <c r="K31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>43</v>
@@ -3880,14 +3844,14 @@
       <c r="N31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>42</v>
+      <c r="O31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>43</v>
@@ -3898,8 +3862,8 @@
       <c r="T31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>42</v>
+      <c r="U31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>43</v>
@@ -3936,23 +3900,23 @@
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>42</v>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>42</v>
+      <c r="I32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>43</v>
@@ -3960,8 +3924,8 @@
       <c r="K32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>43</v>
+      <c r="L32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>43</v>
@@ -3969,8 +3933,8 @@
       <c r="N32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>42</v>
+      <c r="O32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>42</v>
@@ -4025,8 +3989,8 @@
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>42</v>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>43</v>
@@ -4046,11 +4010,11 @@
       <c r="J33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>43</v>
+      <c r="K33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>43</v>
@@ -4061,11 +4025,11 @@
       <c r="O33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>43</v>
+      <c r="P33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>43</v>
@@ -4076,8 +4040,8 @@
       <c r="T33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>43</v>
+      <c r="U33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>43</v>
@@ -4203,8 +4167,8 @@
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
+      <c r="D35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>43</v>
@@ -4224,11 +4188,11 @@
       <c r="J35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>42</v>
+      <c r="K35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>43</v>
@@ -4239,11 +4203,11 @@
       <c r="O35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>42</v>
+      <c r="P35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>43</v>
@@ -4254,8 +4218,8 @@
       <c r="T35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>42</v>
+      <c r="U35" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>43</v>
@@ -4292,47 +4256,47 @@
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>43</v>
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>43</v>
+      <c r="I36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>43</v>
+      <c r="K36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>42</v>
+      <c r="P36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>43</v>
@@ -4343,8 +4307,8 @@
       <c r="T36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>42</v>
+      <c r="U36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>43</v>
@@ -4381,8 +4345,8 @@
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>43</v>
@@ -4444,8 +4408,8 @@
       <c r="X37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y37" s="2" t="s">
-        <v>43</v>
+      <c r="Y37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z37" s="2" t="s">
         <v>43</v>
@@ -4491,8 +4455,8 @@
       <c r="J38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>43</v>
+      <c r="K38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>43</v>
@@ -4503,26 +4467,26 @@
       <c r="N38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>43</v>
+      <c r="O38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>43</v>
+      <c r="R38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>43</v>
@@ -4559,8 +4523,8 @@
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>43</v>
+      <c r="D39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -4586,8 +4550,8 @@
       <c r="L39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>43</v>
+      <c r="M39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>43</v>
@@ -4622,8 +4586,8 @@
       <c r="X39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>42</v>
+      <c r="Y39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>43</v>
@@ -4669,8 +4633,8 @@
       <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>42</v>
+      <c r="K40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>43</v>
@@ -4681,8 +4645,8 @@
       <c r="N40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>42</v>
+      <c r="O40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>42</v>
@@ -4690,17 +4654,17 @@
       <c r="Q40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>42</v>
+      <c r="R40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>43</v>
@@ -4764,8 +4728,8 @@
       <c r="L41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>42</v>
+      <c r="M41" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>43</v>
@@ -4829,14 +4793,14 @@
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>42</v>
+      <c r="E42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>43</v>
@@ -4918,20 +4882,20 @@
       <c r="D43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>43</v>
+      <c r="E43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>43</v>
+      <c r="I43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>43</v>
@@ -4942,11 +4906,11 @@
       <c r="L43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>43</v>
+      <c r="M43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>43</v>
@@ -5007,11 +4971,11 @@
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>43</v>
+      <c r="E44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>43</v>
@@ -5019,14 +4983,14 @@
       <c r="H44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>42</v>
+      <c r="I44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>43</v>
+      <c r="K44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>43</v>
@@ -5034,14 +4998,14 @@
       <c r="M44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>42</v>
+      <c r="N44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>43</v>
+      <c r="P44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>43</v>
@@ -5055,8 +5019,8 @@
       <c r="T44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="2" t="s">
-        <v>43</v>
+      <c r="U44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>43</v>
@@ -5177,16 +5141,16 @@
         <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>42</v>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>42</v>
@@ -5203,14 +5167,14 @@
       <c r="J46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>42</v>
+      <c r="K46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>42</v>
+      <c r="M46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>43</v>
@@ -5218,8 +5182,8 @@
       <c r="O46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>42</v>
+      <c r="P46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>43</v>
@@ -5233,8 +5197,8 @@
       <c r="T46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="1" t="s">
-        <v>42</v>
+      <c r="U46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>43</v>
@@ -5263,37 +5227,37 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>42</v>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>43</v>
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>43</v>
+      <c r="I47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>42</v>
+      <c r="K47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>43</v>
@@ -5301,8 +5265,8 @@
       <c r="M47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>43</v>
+      <c r="N47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>43</v>
@@ -5313,17 +5277,17 @@
       <c r="Q47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>42</v>
+      <c r="R47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>43</v>
@@ -5352,25 +5316,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s">
-        <v>133</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>42</v>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>43</v>
@@ -5441,7 +5405,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
@@ -5449,14 +5413,14 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>43</v>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>42</v>
+      <c r="F49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>43</v>
@@ -5464,8 +5428,8 @@
       <c r="H49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>43</v>
+      <c r="I49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>43</v>
@@ -5476,11 +5440,11 @@
       <c r="L49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>43</v>
+      <c r="M49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>43</v>
@@ -5535,26 +5499,26 @@
       <c r="B50" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>43</v>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>42</v>
+      <c r="E50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>42</v>
+      <c r="I50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>43</v>
@@ -5565,11 +5529,11 @@
       <c r="L50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>42</v>
+      <c r="M50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>43</v>
@@ -5630,11 +5594,11 @@
       <c r="D51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>43</v>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>43</v>
@@ -5642,14 +5606,14 @@
       <c r="H51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>42</v>
+      <c r="I51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>43</v>
+      <c r="K51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>43</v>
@@ -5657,14 +5621,14 @@
       <c r="M51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>42</v>
+      <c r="N51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>43</v>
+      <c r="P51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>43</v>
@@ -5678,8 +5642,8 @@
       <c r="T51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U51" s="2" t="s">
-        <v>43</v>
+      <c r="U51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>43</v>
@@ -5719,14 +5683,14 @@
       <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>43</v>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>43</v>
@@ -5737,8 +5701,8 @@
       <c r="J52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>43</v>
+      <c r="K52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>43</v>
@@ -5746,14 +5710,14 @@
       <c r="M52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>42</v>
+      <c r="N52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>43</v>
+      <c r="P52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>43</v>
@@ -5767,17 +5731,17 @@
       <c r="T52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U52" s="2" t="s">
-        <v>43</v>
+      <c r="U52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>43</v>
+      <c r="W52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y52" s="2" t="s">
         <v>43</v>
@@ -5808,65 +5772,65 @@
       <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>43</v>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>43</v>
@@ -5903,38 +5867,38 @@
       <c r="F54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>43</v>
+      <c r="G54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>43</v>
+      <c r="L54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>43</v>
+      <c r="N54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>43</v>
+      <c r="Q54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>43</v>
@@ -5948,14 +5912,14 @@
       <c r="U54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>43</v>
+      <c r="V54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>43</v>
@@ -6075,65 +6039,65 @@
       <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>42</v>
+      <c r="E56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y56" s="2" t="s">
         <v>43</v>
@@ -6271,23 +6235,23 @@
       <c r="J58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>42</v>
+      <c r="K58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>42</v>
+      <c r="M58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>42</v>
+      <c r="O58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>43</v>
@@ -6301,17 +6265,17 @@
       <c r="T58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="1" t="s">
-        <v>42</v>
+      <c r="U58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>42</v>
+      <c r="W58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>43</v>
@@ -6339,8 +6303,8 @@
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>42</v>
+      <c r="D59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>43</v>
@@ -6360,14 +6324,14 @@
       <c r="J59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>42</v>
+      <c r="K59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>42</v>
+      <c r="M59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>43</v>
@@ -6381,26 +6345,26 @@
       <c r="Q59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>42</v>
+      <c r="R59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>42</v>
+      <c r="W59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y59" s="2" t="s">
         <v>43</v>
@@ -6431,20 +6395,20 @@
       <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>43</v>
+      <c r="E60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>43</v>
+      <c r="I60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>43</v>
@@ -6461,8 +6425,8 @@
       <c r="N60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>43</v>
+      <c r="O60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>43</v>
@@ -6529,35 +6493,35 @@
       <c r="G61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>42</v>
+      <c r="H61" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>42</v>
+      <c r="J61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>42</v>
+      <c r="P61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>43</v>
@@ -6568,17 +6532,17 @@
       <c r="T61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>42</v>
+      <c r="U61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y61" s="2" t="s">
         <v>43</v>
@@ -6618,53 +6582,53 @@
       <c r="G62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>43</v>
+      <c r="H62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>43</v>
+      <c r="J62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>43</v>
+      <c r="P62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>43</v>
+      <c r="R62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>43</v>
@@ -6695,23 +6659,23 @@
       <c r="C63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>43</v>
+      <c r="D63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>43</v>
+      <c r="I63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>43</v>
@@ -6728,8 +6692,8 @@
       <c r="N63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>43</v>
+      <c r="O63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>43</v>
@@ -6784,23 +6748,23 @@
       <c r="C64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>42</v>
+      <c r="D64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>42</v>
+      <c r="I64" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>43</v>
@@ -6817,8 +6781,8 @@
       <c r="N64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>42</v>
+      <c r="O64" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>43</v>
@@ -6847,8 +6811,8 @@
       <c r="X64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y64" s="2" t="s">
-        <v>43</v>
+      <c r="Y64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z64" s="2" t="s">
         <v>43</v>
@@ -6882,35 +6846,35 @@
       <c r="F65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>42</v>
+      <c r="G65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>42</v>
+      <c r="I65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>43</v>
+      <c r="K65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>43</v>
+      <c r="M65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>43</v>
+      <c r="O65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>43</v>
@@ -6924,17 +6888,17 @@
       <c r="T65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="2" t="s">
-        <v>43</v>
+      <c r="U65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X65" s="2" t="s">
-        <v>43</v>
+      <c r="W65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y65" s="2" t="s">
         <v>43</v>
@@ -6962,65 +6926,65 @@
       <c r="C66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>42</v>
+      <c r="D66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>42</v>
+      <c r="R66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>43</v>
@@ -7054,20 +7018,20 @@
       <c r="D67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>42</v>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>42</v>
+      <c r="I67" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>43</v>
@@ -7084,8 +7048,8 @@
       <c r="N67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>42</v>
+      <c r="O67" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>43</v>
@@ -7140,23 +7104,23 @@
       <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>43</v>
+      <c r="D68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>43</v>
+      <c r="I68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>43</v>
@@ -7173,8 +7137,8 @@
       <c r="N68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O68" s="2" t="s">
-        <v>43</v>
+      <c r="O68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>43</v>
@@ -7203,8 +7167,8 @@
       <c r="X68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y68" s="1" t="s">
-        <v>42</v>
+      <c r="Y68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z68" s="2" t="s">
         <v>43</v>
@@ -7238,32 +7202,32 @@
       <c r="F69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>43</v>
+      <c r="G69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>43</v>
+      <c r="I69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>42</v>
+      <c r="K69" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>42</v>
+      <c r="M69" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>43</v>
+      <c r="O69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>42</v>
@@ -7280,17 +7244,17 @@
       <c r="T69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="1" t="s">
-        <v>42</v>
+      <c r="U69" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>42</v>
+      <c r="W69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y69" s="2" t="s">
         <v>43</v>
@@ -7318,8 +7282,8 @@
       <c r="C70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>43</v>
+      <c r="D70" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -7410,20 +7374,20 @@
       <c r="D71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>43</v>
+      <c r="E71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>43</v>
+      <c r="I71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>43</v>
@@ -7440,8 +7404,8 @@
       <c r="N71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>43</v>
+      <c r="O71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>43</v>
@@ -7470,8 +7434,8 @@
       <c r="X71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y71" s="2" t="s">
-        <v>43</v>
+      <c r="Y71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z71" s="2" t="s">
         <v>43</v>
@@ -7491,7 +7455,7 @@
         <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>42</v>
@@ -7499,38 +7463,38 @@
       <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>43</v>
+      <c r="E72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>43</v>
+      <c r="I72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>42</v>
+      <c r="K72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>42</v>
+      <c r="M72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>43</v>
+      <c r="O72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>43</v>
@@ -7538,26 +7502,26 @@
       <c r="Q72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>42</v>
+      <c r="R72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>42</v>
+      <c r="W72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y72" s="2" t="s">
         <v>43</v>
@@ -7577,10 +7541,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
@@ -7666,10 +7630,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>42</v>
@@ -7755,16 +7719,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="3">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>42</v>
+      <c r="D75" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>43</v>
@@ -7844,10 +7808,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="3">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>42</v>
@@ -7855,20 +7819,20 @@
       <c r="D76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>42</v>
+      <c r="E76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>42</v>
+      <c r="I76" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>43</v>
@@ -7885,8 +7849,8 @@
       <c r="N76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>42</v>
+      <c r="O76" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>43</v>
@@ -7915,8 +7879,8 @@
       <c r="X76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y76" s="1" t="s">
-        <v>42</v>
+      <c r="Y76" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z76" s="2" t="s">
         <v>43</v>
@@ -7933,34 +7897,34 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="3">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>42</v>
+        <v>185</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>43</v>
+      <c r="H77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>43</v>
+      <c r="J77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>43</v>
@@ -7974,8 +7938,8 @@
       <c r="N77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>42</v>
+      <c r="O77" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>43</v>
@@ -8022,10 +7986,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="3">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>42</v>
@@ -8042,29 +8006,29 @@
       <c r="G78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>43</v>
+      <c r="H78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>43</v>
+      <c r="J78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>43</v>
+      <c r="M78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="1" t="s">
-        <v>42</v>
+      <c r="O78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>43</v>
@@ -8072,17 +8036,17 @@
       <c r="Q78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>43</v>
+      <c r="R78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>43</v>
@@ -8111,31 +8075,31 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="3">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>42</v>
+      <c r="D79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>42</v>
+      <c r="I79" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>43</v>
@@ -8152,8 +8116,8 @@
       <c r="N79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>42</v>
+      <c r="O79" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>43</v>
@@ -8200,10 +8164,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="3">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>42</v>
@@ -8289,7 +8253,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="3">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
         <v>193</v>
@@ -8297,8 +8261,8 @@
       <c r="C81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>42</v>
+      <c r="D81" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>43</v>
@@ -8383,29 +8347,29 @@
       <c r="B82" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>42</v>
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>43</v>
@@ -8428,26 +8392,26 @@
       <c r="Q82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U82" s="2" t="s">
-        <v>43</v>
+      <c r="R82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X82" s="2" t="s">
-        <v>43</v>
+      <c r="W82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y82" s="2" t="s">
         <v>43</v>
@@ -8478,32 +8442,32 @@
       <c r="D83" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>42</v>
+      <c r="E83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>42</v>
+      <c r="M83" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>43</v>
@@ -8517,17 +8481,17 @@
       <c r="Q83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>42</v>
+      <c r="R83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>43</v>
@@ -8561,17 +8525,17 @@
       <c r="B84" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>42</v>
+      <c r="C84" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>43</v>
+      <c r="E84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>43</v>
@@ -8653,8 +8617,8 @@
       <c r="C85" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>43</v>
+      <c r="D85" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>43</v>
@@ -8742,14 +8706,14 @@
       <c r="C86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>43</v>
+      <c r="D86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>43</v>
@@ -8757,20 +8721,20 @@
       <c r="H86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>43</v>
+      <c r="I86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>43</v>
+      <c r="K86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>43</v>
+      <c r="M86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>43</v>
@@ -8778,32 +8742,32 @@
       <c r="O86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P86" s="2" t="s">
-        <v>43</v>
+      <c r="P86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>43</v>
+      <c r="R86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X86" s="2" t="s">
-        <v>43</v>
+      <c r="W86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y86" s="2" t="s">
         <v>43</v>
@@ -8846,20 +8810,20 @@
       <c r="H87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>43</v>
+      <c r="I87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>43</v>
+      <c r="K87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>43</v>
+      <c r="M87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>43</v>
@@ -8867,20 +8831,20 @@
       <c r="O87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P87" s="2" t="s">
-        <v>43</v>
+      <c r="P87" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>42</v>
+      <c r="R87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>42</v>
@@ -9006,17 +8970,17 @@
       <c r="B89" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>43</v>
+      <c r="C89" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>42</v>
+      <c r="E89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>43</v>
@@ -9104,8 +9068,8 @@
       <c r="E90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>43</v>
+      <c r="F90" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>43</v>
@@ -9187,11 +9151,11 @@
       <c r="C91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>42</v>
+      <c r="D91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>42</v>
@@ -9202,20 +9166,20 @@
       <c r="H91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>42</v>
+      <c r="I91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>42</v>
+      <c r="K91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>42</v>
+      <c r="M91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>43</v>
@@ -9223,32 +9187,32 @@
       <c r="O91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>42</v>
+      <c r="P91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>42</v>
+      <c r="R91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X91" s="1" t="s">
-        <v>42</v>
+      <c r="W91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y91" s="2" t="s">
         <v>43</v>
@@ -9276,14 +9240,14 @@
       <c r="C92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>42</v>
+      <c r="D92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>43</v>
@@ -9291,20 +9255,20 @@
       <c r="H92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>42</v>
+      <c r="I92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>42</v>
+      <c r="K92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>42</v>
+      <c r="M92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>43</v>
@@ -9312,8 +9276,8 @@
       <c r="O92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P92" s="1" t="s">
-        <v>42</v>
+      <c r="P92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>43</v>
@@ -9327,17 +9291,17 @@
       <c r="T92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U92" s="1" t="s">
-        <v>42</v>
+      <c r="U92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>42</v>
+      <c r="W92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>43</v>
@@ -9365,8 +9329,8 @@
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>42</v>
+      <c r="D93" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>43</v>
@@ -9454,14 +9418,14 @@
       <c r="C94" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>43</v>
+      <c r="D94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>43</v>
@@ -9496,26 +9460,26 @@
       <c r="Q94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U94" s="2" t="s">
-        <v>43</v>
+      <c r="R94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X94" s="2" t="s">
-        <v>43</v>
+      <c r="W94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y94" s="2" t="s">
         <v>43</v>
@@ -9546,8 +9510,8 @@
       <c r="D95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>43</v>
+      <c r="E95" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>42</v>
@@ -9594,17 +9558,17 @@
       <c r="T95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U95" s="2" t="s">
-        <v>43</v>
+      <c r="U95" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>43</v>
+      <c r="W95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>43</v>
@@ -9638,8 +9602,8 @@
       <c r="E96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>42</v>
+      <c r="F96" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>43</v>
@@ -9721,8 +9685,8 @@
       <c r="C97" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>43</v>
+      <c r="D97" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>43</v>
@@ -9908,23 +9872,23 @@
       <c r="F99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>43</v>
+      <c r="G99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>43</v>
+      <c r="I99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>43</v>
+      <c r="K99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>43</v>
@@ -9932,11 +9896,11 @@
       <c r="N99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>43</v>
+      <c r="O99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>43</v>
@@ -10003,8 +9967,8 @@
       <c r="H100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>43</v>
+      <c r="I100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>43</v>
@@ -10015,11 +9979,11 @@
       <c r="L100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>43</v>
+      <c r="M100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>43</v>
@@ -10033,11 +9997,11 @@
       <c r="R100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>43</v>
+      <c r="S100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U100" s="2" t="s">
         <v>43</v>
@@ -10080,11 +10044,11 @@
       <c r="D101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>42</v>
+      <c r="E101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>43</v>
@@ -10104,8 +10068,8 @@
       <c r="L101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>43</v>
+      <c r="M101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>43</v>
@@ -10119,26 +10083,26 @@
       <c r="Q101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>42</v>
+      <c r="R101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X101" s="1" t="s">
-        <v>42</v>
+      <c r="W101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y101" s="2" t="s">
         <v>43</v>
@@ -10166,41 +10130,41 @@
       <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>43</v>
+      <c r="D102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>43</v>
+      <c r="I102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>43</v>
@@ -10223,8 +10187,8 @@
       <c r="V102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W102" s="2" t="s">
-        <v>43</v>
+      <c r="W102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X102" s="2" t="s">
         <v>43</v>
@@ -10255,8 +10219,8 @@
       <c r="C103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>42</v>
+      <c r="D103" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>43</v>
@@ -10276,11 +10240,11 @@
       <c r="J103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>43</v>
+      <c r="K103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>43</v>
@@ -10291,8 +10255,8 @@
       <c r="O103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P103" s="2" t="s">
-        <v>43</v>
+      <c r="P103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>43</v>
@@ -10306,8 +10270,8 @@
       <c r="T103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U103" s="2" t="s">
-        <v>43</v>
+      <c r="U103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>43</v>
@@ -10365,11 +10329,11 @@
       <c r="J104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>43</v>
+      <c r="K104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>43</v>
@@ -10395,8 +10359,8 @@
       <c r="T104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U104" s="2" t="s">
-        <v>43</v>
+      <c r="U104" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V104" s="2" t="s">
         <v>43</v>
@@ -10433,23 +10397,23 @@
       <c r="C105" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>42</v>
+      <c r="D105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>42</v>
+      <c r="I105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>43</v>
@@ -10466,23 +10430,23 @@
       <c r="N105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>42</v>
+      <c r="O105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T105" s="1" t="s">
-        <v>42</v>
+      <c r="R105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>42</v>
@@ -10490,11 +10454,11 @@
       <c r="V105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X105" s="1" t="s">
-        <v>42</v>
+      <c r="W105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>43</v>
@@ -10522,8 +10486,8 @@
       <c r="C106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>42</v>
+      <c r="D106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>43</v>
@@ -10537,23 +10501,23 @@
       <c r="H106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>42</v>
+      <c r="I106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>42</v>
+      <c r="K106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>43</v>
@@ -10564,17 +10528,17 @@
       <c r="Q106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>43</v>
+      <c r="R106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>43</v>
@@ -10611,8 +10575,8 @@
       <c r="C107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>42</v>
+      <c r="D107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>43</v>
@@ -10632,14 +10596,14 @@
       <c r="J107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>43</v>
+      <c r="K107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>42</v>
+      <c r="M107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>43</v>
@@ -10653,17 +10617,17 @@
       <c r="Q107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>43</v>
+      <c r="R107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>43</v>
@@ -10700,26 +10664,26 @@
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>42</v>
+      <c r="D108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>42</v>
+      <c r="I108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>42</v>
@@ -10727,14 +10691,14 @@
       <c r="L108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>42</v>
+      <c r="M108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>43</v>
@@ -10751,14 +10715,14 @@
       <c r="T108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U108" s="2" t="s">
-        <v>43</v>
+      <c r="U108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W108" s="1" t="s">
-        <v>42</v>
+      <c r="W108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>43</v>
@@ -10825,8 +10789,8 @@
       <c r="O109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P109" s="1" t="s">
-        <v>42</v>
+      <c r="P109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>43</v>
@@ -10902,8 +10866,8 @@
       <c r="K110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>42</v>
+      <c r="L110" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>43</v>
@@ -11169,8 +11133,8 @@
       <c r="K113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>43</v>
+      <c r="L113" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>43</v>
@@ -11347,8 +11311,8 @@
       <c r="K115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>42</v>
+      <c r="L115" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>43</v>
@@ -11412,68 +11376,68 @@
       <c r="C116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>43</v>
+      <c r="D116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>43</v>
+      <c r="L116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>43</v>
+      <c r="R116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W116" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X116" s="2" t="s">
-        <v>43</v>
+      <c r="V116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y116" s="2" t="s">
         <v>43</v>
@@ -11501,32 +11465,32 @@
       <c r="C117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>43</v>
+      <c r="D117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>43</v>
+      <c r="I117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>42</v>
+      <c r="K117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>43</v>
@@ -11555,14 +11519,14 @@
       <c r="U117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X117" s="2" t="s">
-        <v>43</v>
+      <c r="V117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y117" s="2" t="s">
         <v>43</v>
@@ -11611,11 +11575,11 @@
       <c r="J118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>42</v>
+      <c r="K118" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>43</v>
@@ -11641,8 +11605,8 @@
       <c r="T118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U118" s="1" t="s">
-        <v>42</v>
+      <c r="U118" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>43</v>
@@ -11700,11 +11664,11 @@
       <c r="J119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>42</v>
+      <c r="K119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>43</v>
@@ -11730,8 +11694,8 @@
       <c r="T119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U119" s="1" t="s">
-        <v>42</v>
+      <c r="U119" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>43</v>
@@ -11765,17 +11729,17 @@
       <c r="B120" t="s">
         <v>271</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>43</v>
+      <c r="C120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>43</v>
@@ -11783,8 +11747,8 @@
       <c r="H120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>43</v>
+      <c r="I120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>43</v>
@@ -11795,11 +11759,11 @@
       <c r="L120" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>43</v>
+      <c r="M120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>43</v>
@@ -11819,8 +11783,8 @@
       <c r="T120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U120" s="1" t="s">
-        <v>42</v>
+      <c r="U120" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>43</v>
@@ -11857,14 +11821,14 @@
       <c r="C121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>43</v>
+      <c r="D121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>43</v>
@@ -11878,8 +11842,8 @@
       <c r="J121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>42</v>
+      <c r="K121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>43</v>
@@ -11908,8 +11872,8 @@
       <c r="T121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U121" s="1" t="s">
-        <v>42</v>
+      <c r="U121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>43</v>
@@ -11949,65 +11913,65 @@
       <c r="D122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>42</v>
+      <c r="E122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>42</v>
+      <c r="R122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>43</v>
@@ -12047,8 +12011,8 @@
       <c r="G123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>43</v>
+      <c r="H123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>42</v>
@@ -12056,14 +12020,14 @@
       <c r="J123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>43</v>
+      <c r="K123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>43</v>
+      <c r="M123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>43</v>
@@ -12077,14 +12041,14 @@
       <c r="Q123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>43</v>
+      <c r="R123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>42</v>
@@ -12124,14 +12088,14 @@
       <c r="C124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>43</v>
+      <c r="D124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>43</v>
@@ -12145,14 +12109,14 @@
       <c r="J124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K124" s="2" t="s">
-        <v>43</v>
+      <c r="K124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M124" s="2" t="s">
-        <v>43</v>
+      <c r="M124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>43</v>
@@ -12175,17 +12139,17 @@
       <c r="T124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U124" s="2" t="s">
-        <v>43</v>
+      <c r="U124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>43</v>
+      <c r="W124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y124" s="2" t="s">
         <v>43</v>
@@ -12213,20 +12177,20 @@
       <c r="C125" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>43</v>
+      <c r="D125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>43</v>
+      <c r="H125" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>43</v>
@@ -12234,14 +12198,14 @@
       <c r="J125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K125" s="2" t="s">
-        <v>43</v>
+      <c r="K125" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>43</v>
+      <c r="M125" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>43</v>
@@ -12255,26 +12219,26 @@
       <c r="Q125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X125" s="2" t="s">
-        <v>43</v>
+      <c r="R125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y125" s="2" t="s">
         <v>43</v>
@@ -12311,17 +12275,17 @@
       <c r="F126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>43</v>
+      <c r="G126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>43</v>
+      <c r="J126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>42</v>
@@ -12335,11 +12299,11 @@
       <c r="N126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>43</v>
+      <c r="O126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>43</v>
@@ -12356,26 +12320,26 @@
       <c r="U126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X126" s="2" t="s">
-        <v>43</v>
+      <c r="V126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z126" s="2" t="s">
-        <v>43</v>
+      <c r="Z126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB126" s="2" t="s">
-        <v>43</v>
+      <c r="AB126" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC126" s="2" t="s">
         <v>43</v>
@@ -12388,17 +12352,17 @@
       <c r="B127" t="s">
         <v>285</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>42</v>
+      <c r="C127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>43</v>
@@ -12457,14 +12421,14 @@
       <c r="Y127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z127" s="2" t="s">
-        <v>43</v>
+      <c r="Z127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB127" s="2" t="s">
-        <v>43</v>
+      <c r="AB127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC127" s="2" t="s">
         <v>43</v>
@@ -12477,47 +12441,47 @@
       <c r="B128" t="s">
         <v>287</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>42</v>
+      <c r="C128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>43</v>
+      <c r="E128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>43</v>
@@ -12534,26 +12498,26 @@
       <c r="U128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X128" s="2" t="s">
-        <v>43</v>
+      <c r="V128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z128" s="2" t="s">
-        <v>43</v>
+      <c r="Z128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB128" s="2" t="s">
-        <v>43</v>
+      <c r="AB128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC128" s="2" t="s">
         <v>43</v>
@@ -12566,38 +12530,38 @@
       <c r="B129" t="s">
         <v>289</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>42</v>
+      <c r="C129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>42</v>
+      <c r="K129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M129" s="1" t="s">
-        <v>42</v>
+      <c r="M129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>43</v>
@@ -12611,38 +12575,38 @@
       <c r="Q129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>42</v>
+      <c r="R129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z129" s="2" t="s">
-        <v>43</v>
+      <c r="Z129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB129" s="2" t="s">
-        <v>43</v>
+      <c r="AB129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC129" s="2" t="s">
         <v>43</v>
@@ -12667,14 +12631,14 @@
       <c r="F130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>43</v>
+      <c r="G130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>43</v>
+      <c r="I130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>43</v>
@@ -12682,17 +12646,17 @@
       <c r="K130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L130" s="2" t="s">
-        <v>43</v>
+      <c r="L130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>43</v>
+      <c r="N130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>43</v>
@@ -12709,8 +12673,8 @@
       <c r="T130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U130" s="1" t="s">
-        <v>42</v>
+      <c r="U130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V130" s="2" t="s">
         <v>43</v>
@@ -12718,8 +12682,8 @@
       <c r="W130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X130" s="1" t="s">
-        <v>42</v>
+      <c r="X130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y130" s="2" t="s">
         <v>43</v>
@@ -12747,20 +12711,20 @@
       <c r="C131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>42</v>
+      <c r="D131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>42</v>
+      <c r="H131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>43</v>
@@ -12768,14 +12732,14 @@
       <c r="J131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>42</v>
+      <c r="K131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M131" s="1" t="s">
-        <v>42</v>
+      <c r="M131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>43</v>
@@ -12789,26 +12753,26 @@
       <c r="Q131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X131" s="1" t="s">
-        <v>42</v>
+      <c r="R131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y131" s="2" t="s">
         <v>43</v>
@@ -12833,44 +12797,44 @@
       <c r="B132" t="s">
         <v>295</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>43</v>
+      <c r="C132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>42</v>
+      <c r="E132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>43</v>
@@ -12890,26 +12854,26 @@
       <c r="U132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X132" s="1" t="s">
-        <v>42</v>
+      <c r="V132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z132" s="1" t="s">
-        <v>42</v>
+      <c r="Z132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB132" s="1" t="s">
-        <v>42</v>
+      <c r="AB132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC132" s="2" t="s">
         <v>43</v>
@@ -12922,8 +12886,8 @@
       <c r="B133" t="s">
         <v>297</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>43</v>
+      <c r="C133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>43</v>
@@ -12991,14 +12955,14 @@
       <c r="Y133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z133" s="1" t="s">
-        <v>42</v>
+      <c r="Z133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB133" s="1" t="s">
-        <v>42</v>
+      <c r="AB133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC133" s="2" t="s">
         <v>43</v>
@@ -13011,8 +12975,8 @@
       <c r="B134" t="s">
         <v>299</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>43</v>
+      <c r="C134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>42</v>
@@ -13026,14 +12990,14 @@
       <c r="G134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>42</v>
+      <c r="H134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>42</v>
+      <c r="J134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>42</v>
@@ -13050,8 +13014,8 @@
       <c r="O134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P134" s="1" t="s">
-        <v>42</v>
+      <c r="P134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>43</v>
@@ -13068,26 +13032,26 @@
       <c r="U134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>42</v>
+      <c r="V134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X134" s="1" t="s">
-        <v>42</v>
+      <c r="X134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z134" s="1" t="s">
-        <v>42</v>
+      <c r="Z134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB134" s="1" t="s">
-        <v>42</v>
+      <c r="AB134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC134" s="2" t="s">
         <v>43</v>
@@ -13100,44 +13064,44 @@
       <c r="B135" t="s">
         <v>301</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>43</v>
+      <c r="C135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>43</v>
+      <c r="I135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>43</v>
+      <c r="K135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>43</v>
@@ -13160,8 +13124,8 @@
       <c r="V135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W135" s="2" t="s">
-        <v>43</v>
+      <c r="W135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>43</v>
@@ -13169,14 +13133,14 @@
       <c r="Y135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z135" s="1" t="s">
-        <v>42</v>
+      <c r="Z135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB135" s="1" t="s">
-        <v>42</v>
+      <c r="AB135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC135" s="2" t="s">
         <v>43</v>
@@ -13195,38 +13159,38 @@
       <c r="D136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>42</v>
+      <c r="E136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>42</v>
+      <c r="I136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>42</v>
+      <c r="K136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>43</v>
@@ -13249,8 +13213,8 @@
       <c r="V136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W136" s="1" t="s">
-        <v>42</v>
+      <c r="W136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>43</v>
@@ -13373,11 +13337,11 @@
       <c r="D138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>43</v>
+      <c r="E138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>43</v>
@@ -13391,14 +13355,14 @@
       <c r="J138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>43</v>
+      <c r="K138" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>43</v>
+      <c r="M138" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>43</v>
@@ -13427,8 +13391,8 @@
       <c r="V138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W138" s="2" t="s">
-        <v>43</v>
+      <c r="W138" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X138" s="2" t="s">
         <v>43</v>
@@ -13456,8 +13420,8 @@
       <c r="B139" t="s">
         <v>309</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>42</v>
+      <c r="C139" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>43</v>
@@ -13534,8 +13498,8 @@
       <c r="AB139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC139" s="2" t="s">
-        <v>43</v>
+      <c r="AC139" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="140">
@@ -13590,17 +13554,17 @@
       <c r="Q140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R140" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>43</v>
+      <c r="R140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V140" s="2" t="s">
         <v>43</v>
@@ -13608,8 +13572,8 @@
       <c r="W140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X140" s="2" t="s">
-        <v>43</v>
+      <c r="X140" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y140" s="2" t="s">
         <v>43</v>
@@ -13634,8 +13598,8 @@
       <c r="B141" t="s">
         <v>313</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>42</v>
+      <c r="C141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>42</v>
@@ -13643,35 +13607,35 @@
       <c r="E141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>42</v>
+      <c r="F141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I141" s="1" t="s">
-        <v>42</v>
+      <c r="I141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O141" s="1" t="s">
-        <v>42</v>
+      <c r="K141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>43</v>
@@ -13694,8 +13658,8 @@
       <c r="V141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W141" s="1" t="s">
-        <v>42</v>
+      <c r="W141" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X141" s="2" t="s">
         <v>43</v>
@@ -13723,8 +13687,8 @@
       <c r="B142" t="s">
         <v>315</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>42</v>
+      <c r="C142" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>42</v>
@@ -13802,540 +13766,6 @@
         <v>43</v>
       </c>
       <c r="AC142" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="3">
-        <v>316</v>
-      </c>
-      <c r="B143" t="s">
-        <v>317</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB143" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC143" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="B144" t="s">
-        <v>319</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB144" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC144" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="3">
-        <v>320</v>
-      </c>
-      <c r="B145" t="s">
-        <v>321</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC145" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="3">
-        <v>322</v>
-      </c>
-      <c r="B146" t="s">
-        <v>323</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB146" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC146" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="3">
-        <v>324</v>
-      </c>
-      <c r="B147" t="s">
-        <v>325</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC147" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="3">
-        <v>326</v>
-      </c>
-      <c r="B148" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB148" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC148" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14354,12 +13784,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -966,7 +966,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.61.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -966,7 +966,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.61.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="330">
   <si>
     <t>User Right</t>
   </si>
@@ -231,6 +231,24 @@
     <t>Merge cases</t>
   </si>
   <si>
+    <t>IMMUNIZATION_MANAGEMENT_ACCESS</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_VIEW</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_CREATE</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_EDIT</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_DELETE</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_ARCHIVE</t>
+  </si>
+  <si>
     <t>PERSON_VIEW</t>
   </si>
   <si>
@@ -961,6 +979,24 @@
   </si>
   <si>
     <t>Perform bulk operations in lab messages list</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_VIEW</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_CREATE</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_EDIT</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_DELETE</t>
+  </si>
+  <si>
+    <t>TRAVEL_ENTRY_ARCHIVE</t>
   </si>
   <si>
     <t>SORMAS Version</t>
@@ -1094,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD142"/>
+  <dimension ref="A1:AD154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2649,7 +2685,7 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -2735,10 +2771,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>42</v>
@@ -2785,14 +2821,14 @@
       <c r="Q19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>43</v>
+      <c r="R19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>42</v>
@@ -2824,10 +2860,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
@@ -2835,41 +2871,41 @@
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>43</v>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>43</v>
@@ -2883,17 +2919,17 @@
       <c r="T20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>43</v>
+      <c r="U20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>43</v>
@@ -2913,10 +2949,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="3">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
@@ -2924,41 +2960,41 @@
       <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>43</v>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>43</v>
@@ -2972,17 +3008,17 @@
       <c r="T21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>43</v>
+      <c r="U21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>43</v>
@@ -3002,10 +3038,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
@@ -3013,29 +3049,29 @@
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>42</v>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>43</v>
@@ -3043,11 +3079,11 @@
       <c r="N22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>42</v>
+      <c r="O22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>43</v>
@@ -3061,8 +3097,8 @@
       <c r="T22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>42</v>
+      <c r="U22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>43</v>
@@ -3091,67 +3127,67 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="3">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>42</v>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>43</v>
@@ -3180,10 +3216,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>42</v>
@@ -3215,11 +3251,11 @@
       <c r="L24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>43</v>
+      <c r="M24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>42</v>
@@ -3227,29 +3263,29 @@
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>43</v>
+      <c r="Q24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>43</v>
+      <c r="V24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>43</v>
@@ -3269,16 +3305,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="3">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -3286,35 +3322,35 @@
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>43</v>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>43</v>
+      <c r="P25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>43</v>
@@ -3328,17 +3364,17 @@
       <c r="T25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>43</v>
+      <c r="U25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>43</v>
@@ -3358,10 +3394,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="3">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>42</v>
@@ -3447,10 +3483,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="3">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -3458,8 +3494,8 @@
       <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>42</v>
@@ -3476,8 +3512,8 @@
       <c r="J27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>42</v>
+      <c r="K27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>43</v>
@@ -3491,11 +3527,11 @@
       <c r="O27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>42</v>
+      <c r="P27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>43</v>
@@ -3506,8 +3542,8 @@
       <c r="T27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>42</v>
+      <c r="U27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>43</v>
@@ -3536,10 +3572,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -3553,32 +3589,32 @@
       <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>43</v>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>42</v>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>43</v>
+      <c r="O28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>42</v>
@@ -3625,10 +3661,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
@@ -3645,26 +3681,26 @@
       <c r="G29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>43</v>
+      <c r="H29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>43</v>
+      <c r="J29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>43</v>
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>42</v>
@@ -3675,14 +3711,14 @@
       <c r="Q29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>43</v>
+      <c r="R29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>42</v>
@@ -3714,10 +3750,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -3734,20 +3770,20 @@
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>43</v>
+      <c r="H30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>43</v>
+      <c r="J30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>43</v>
+      <c r="L30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>43</v>
@@ -3803,22 +3839,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>43</v>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -3844,8 +3880,8 @@
       <c r="N31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>43</v>
+      <c r="O31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>43</v>
@@ -3892,22 +3928,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>43</v>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -3921,11 +3957,11 @@
       <c r="J32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>42</v>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>43</v>
@@ -3936,11 +3972,11 @@
       <c r="O32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>42</v>
+      <c r="P32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>43</v>
@@ -3951,8 +3987,8 @@
       <c r="T32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>42</v>
+      <c r="U32" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>43</v>
@@ -3981,22 +4017,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="3">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>43</v>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -4013,8 +4049,8 @@
       <c r="K33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>42</v>
+      <c r="L33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>43</v>
@@ -4070,22 +4106,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>43</v>
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -4102,11 +4138,11 @@
       <c r="K34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>43</v>
+      <c r="L34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>43</v>
@@ -4117,8 +4153,8 @@
       <c r="P34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>42</v>
+      <c r="Q34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>43</v>
@@ -4159,10 +4195,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -4170,26 +4206,26 @@
       <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>43</v>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>43</v>
+      <c r="I35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>43</v>
+      <c r="K35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>43</v>
@@ -4200,14 +4236,14 @@
       <c r="N35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>43</v>
+      <c r="O35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>43</v>
@@ -4218,8 +4254,8 @@
       <c r="T35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="2" t="s">
-        <v>43</v>
+      <c r="U35" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>43</v>
@@ -4248,10 +4284,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -4277,26 +4313,26 @@
       <c r="J36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>43</v>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>43</v>
+      <c r="M36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>43</v>
@@ -4307,8 +4343,8 @@
       <c r="T36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>43</v>
+      <c r="U36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>43</v>
@@ -4337,16 +4373,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>43</v>
@@ -4408,8 +4444,8 @@
       <c r="X37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>42</v>
+      <c r="Y37" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z37" s="2" t="s">
         <v>43</v>
@@ -4426,31 +4462,31 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>42</v>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>42</v>
+      <c r="I38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>43</v>
@@ -4458,32 +4494,32 @@
       <c r="K38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>42</v>
+      <c r="L38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>42</v>
+      <c r="Q38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>42</v>
@@ -4515,16 +4551,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>42</v>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -4544,14 +4580,14 @@
       <c r="J39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>42</v>
+      <c r="K39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>43</v>
@@ -4559,11 +4595,11 @@
       <c r="O39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>43</v>
+      <c r="P39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>43</v>
@@ -4574,8 +4610,8 @@
       <c r="T39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="2" t="s">
-        <v>43</v>
+      <c r="U39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>43</v>
@@ -4604,46 +4640,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>42</v>
+      <c r="I40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>42</v>
+      <c r="K40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>43</v>
@@ -4651,8 +4687,8 @@
       <c r="P40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>43</v>
+      <c r="Q40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>43</v>
@@ -4663,8 +4699,8 @@
       <c r="T40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>43</v>
+      <c r="U40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>43</v>
@@ -4693,10 +4729,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
@@ -4782,10 +4818,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
@@ -4793,14 +4829,14 @@
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>43</v>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>43</v>
@@ -4871,31 +4907,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>42</v>
+      <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>42</v>
+      <c r="I43" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>43</v>
@@ -4906,11 +4942,11 @@
       <c r="L43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>42</v>
+      <c r="M43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>43</v>
@@ -4942,8 +4978,8 @@
       <c r="X43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="2" t="s">
-        <v>43</v>
+      <c r="Y43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>43</v>
@@ -4960,10 +4996,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="3">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
@@ -4977,14 +5013,14 @@
       <c r="F44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>43</v>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>43</v>
+      <c r="I44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>43</v>
@@ -4998,11 +5034,11 @@
       <c r="M44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>43</v>
+      <c r="N44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>42</v>
@@ -5010,14 +5046,14 @@
       <c r="Q44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>43</v>
+      <c r="R44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>42</v>
@@ -5049,10 +5085,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="3">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>42</v>
@@ -5060,20 +5096,20 @@
       <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>42</v>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>42</v>
+      <c r="I45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>43</v>
@@ -5087,8 +5123,8 @@
       <c r="M45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>42</v>
+      <c r="N45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>43</v>
@@ -5138,31 +5174,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="3">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>43</v>
+      <c r="G46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>43</v>
+      <c r="I46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>43</v>
@@ -5173,17 +5209,17 @@
       <c r="L46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>43</v>
+      <c r="M46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>43</v>
+      <c r="P46" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>43</v>
@@ -5227,31 +5263,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>42</v>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>42</v>
+      <c r="I47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>43</v>
@@ -5262,11 +5298,11 @@
       <c r="L47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>42</v>
+      <c r="M47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>43</v>
@@ -5316,10 +5352,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="3">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>42</v>
@@ -5405,10 +5441,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -5416,14 +5452,14 @@
       <c r="D49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>43</v>
+      <c r="E49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>43</v>
@@ -5494,10 +5530,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>42</v>
@@ -5505,11 +5541,11 @@
       <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>43</v>
+      <c r="E50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>43</v>
@@ -5523,14 +5559,14 @@
       <c r="J50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>43</v>
+      <c r="K50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>43</v>
+      <c r="M50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>43</v>
@@ -5538,8 +5574,8 @@
       <c r="O50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>43</v>
+      <c r="P50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>43</v>
@@ -5553,8 +5589,8 @@
       <c r="T50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>43</v>
+      <c r="U50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>43</v>
@@ -5583,10 +5619,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="3">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -5600,20 +5636,20 @@
       <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>43</v>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>43</v>
+      <c r="I51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>42</v>
+      <c r="K51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>43</v>
@@ -5621,14 +5657,14 @@
       <c r="M51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="2" t="s">
-        <v>43</v>
+      <c r="N51" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>42</v>
+      <c r="P51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>43</v>
@@ -5642,8 +5678,8 @@
       <c r="T51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U51" s="1" t="s">
-        <v>42</v>
+      <c r="U51" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>43</v>
@@ -5672,43 +5708,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="3">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>42</v>
+      <c r="D52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>42</v>
+      <c r="G52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>42</v>
+      <c r="I52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>42</v>
+      <c r="K52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>42</v>
+      <c r="M52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>43</v>
@@ -5716,8 +5752,8 @@
       <c r="O52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>42</v>
+      <c r="P52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>43</v>
@@ -5731,17 +5767,17 @@
       <c r="T52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>42</v>
+      <c r="U52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>42</v>
+      <c r="W52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y52" s="2" t="s">
         <v>43</v>
@@ -5761,13 +5797,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>42</v>
@@ -5781,20 +5817,20 @@
       <c r="G53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>42</v>
+      <c r="H53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>42</v>
+      <c r="J53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>42</v>
@@ -5802,35 +5838,35 @@
       <c r="N53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>42</v>
+      <c r="O53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>43</v>
@@ -5850,10 +5886,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="3">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>42</v>
@@ -5861,29 +5897,29 @@
       <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>42</v>
+      <c r="E54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>42</v>
+      <c r="J54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>42</v>
@@ -5891,14 +5927,14 @@
       <c r="N54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>42</v>
+      <c r="O54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>43</v>
@@ -5909,17 +5945,17 @@
       <c r="T54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>42</v>
+      <c r="U54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>43</v>
@@ -5939,10 +5975,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="3">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>42</v>
@@ -5950,14 +5986,14 @@
       <c r="D55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>42</v>
+      <c r="E55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>43</v>
@@ -5968,8 +6004,8 @@
       <c r="J55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>42</v>
+      <c r="K55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>43</v>
@@ -5977,14 +6013,14 @@
       <c r="M55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>43</v>
+      <c r="N55" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>42</v>
+      <c r="P55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>43</v>
@@ -5998,17 +6034,17 @@
       <c r="T55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="1" t="s">
-        <v>42</v>
+      <c r="U55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>42</v>
+      <c r="W55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y55" s="2" t="s">
         <v>43</v>
@@ -6028,10 +6064,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="3">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>42</v>
@@ -6117,10 +6153,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="3">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>42</v>
@@ -6134,38 +6170,38 @@
       <c r="F57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>42</v>
+      <c r="G57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>42</v>
+      <c r="L57" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>42</v>
+      <c r="N57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>42</v>
+      <c r="Q57" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>43</v>
@@ -6179,14 +6215,14 @@
       <c r="U57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>42</v>
+      <c r="V57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y57" s="2" t="s">
         <v>43</v>
@@ -6206,10 +6242,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="3">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>42</v>
@@ -6235,23 +6271,23 @@
       <c r="J58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>43</v>
+      <c r="K58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>43</v>
+      <c r="M58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>43</v>
+      <c r="O58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>43</v>
@@ -6265,17 +6301,17 @@
       <c r="T58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="2" t="s">
-        <v>43</v>
+      <c r="U58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>43</v>
+      <c r="W58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y58" s="2" t="s">
         <v>43</v>
@@ -6295,76 +6331,76 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="3">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>43</v>
+      <c r="D59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y59" s="2" t="s">
         <v>43</v>
@@ -6384,10 +6420,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="3">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -6404,35 +6440,35 @@
       <c r="G60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>43</v>
+      <c r="H60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>43</v>
+      <c r="J60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>43</v>
+      <c r="P60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>43</v>
@@ -6443,17 +6479,17 @@
       <c r="T60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>43</v>
+      <c r="U60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>43</v>
@@ -6473,10 +6509,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="3">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -6502,23 +6538,23 @@
       <c r="J61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>43</v>
+      <c r="K61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>43</v>
+      <c r="M61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>43</v>
+      <c r="O61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>43</v>
@@ -6532,17 +6568,17 @@
       <c r="T61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="2" t="s">
-        <v>43</v>
+      <c r="U61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>43</v>
+      <c r="W61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y61" s="2" t="s">
         <v>43</v>
@@ -6562,10 +6598,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="3">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>42</v>
@@ -6573,62 +6609,62 @@
       <c r="D62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>42</v>
+      <c r="E62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>42</v>
+      <c r="R62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>43</v>
@@ -6651,10 +6687,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="3">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>42</v>
@@ -6671,35 +6707,35 @@
       <c r="G63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>43</v>
+      <c r="H63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>43</v>
+      <c r="J63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>43</v>
+      <c r="P63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>43</v>
@@ -6710,17 +6746,17 @@
       <c r="T63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>43</v>
+      <c r="U63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y63" s="2" t="s">
         <v>43</v>
@@ -6740,31 +6776,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="3">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>43</v>
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>43</v>
+      <c r="I64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>43</v>
@@ -6781,8 +6817,8 @@
       <c r="N64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>43</v>
+      <c r="O64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>43</v>
@@ -6811,8 +6847,8 @@
       <c r="X64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y64" s="1" t="s">
-        <v>42</v>
+      <c r="Y64" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z64" s="2" t="s">
         <v>43</v>
@@ -6829,22 +6865,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="3">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>42</v>
+      <c r="D65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>43</v>
@@ -6858,14 +6894,14 @@
       <c r="J65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>42</v>
+      <c r="K65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>42</v>
+      <c r="M65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>43</v>
@@ -6873,8 +6909,8 @@
       <c r="O65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>42</v>
+      <c r="P65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>43</v>
@@ -6888,17 +6924,17 @@
       <c r="T65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="1" t="s">
-        <v>42</v>
+      <c r="U65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>42</v>
+      <c r="W65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y65" s="2" t="s">
         <v>43</v>
@@ -6918,31 +6954,31 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="3">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>43</v>
+      <c r="D66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>43</v>
+      <c r="I66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>43</v>
@@ -6959,8 +6995,8 @@
       <c r="N66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>43</v>
+      <c r="O66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>43</v>
@@ -7007,10 +7043,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="3">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
@@ -7018,20 +7054,20 @@
       <c r="D67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>43</v>
+      <c r="E67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>43</v>
+      <c r="I67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>43</v>
@@ -7048,8 +7084,8 @@
       <c r="N67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>43</v>
+      <c r="O67" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>43</v>
@@ -7096,10 +7132,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="3">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>42</v>
@@ -7116,53 +7152,53 @@
       <c r="G68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>43</v>
+      <c r="H68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>43</v>
+      <c r="J68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>43</v>
+      <c r="P68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>43</v>
+      <c r="R68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>43</v>
@@ -7185,10 +7221,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="3">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>42</v>
@@ -7229,8 +7265,8 @@
       <c r="O69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>42</v>
+      <c r="P69" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>43</v>
@@ -7274,16 +7310,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="3">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>42</v>
+      <c r="D70" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>43</v>
@@ -7345,8 +7381,8 @@
       <c r="X70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y70" s="2" t="s">
-        <v>43</v>
+      <c r="Y70" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z70" s="2" t="s">
         <v>43</v>
@@ -7363,10 +7399,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="3">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>42</v>
@@ -7380,35 +7416,35 @@
       <c r="F71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>42</v>
+      <c r="G71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>42</v>
+      <c r="I71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>43</v>
+      <c r="K71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>43</v>
+      <c r="M71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>43</v>
+      <c r="O71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>43</v>
@@ -7422,20 +7458,20 @@
       <c r="T71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="2" t="s">
-        <v>43</v>
+      <c r="U71" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y71" s="1" t="s">
-        <v>42</v>
+      <c r="W71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Z71" s="2" t="s">
         <v>43</v>
@@ -7452,31 +7488,31 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="3">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>42</v>
+      <c r="D72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>42</v>
+      <c r="G72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>42</v>
+      <c r="I72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>43</v>
@@ -7493,8 +7529,8 @@
       <c r="N72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>42</v>
+      <c r="O72" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>43</v>
@@ -7541,10 +7577,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="3">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
@@ -7552,20 +7588,20 @@
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>42</v>
+      <c r="E73" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>42</v>
+      <c r="G73" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>42</v>
+      <c r="I73" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>43</v>
@@ -7582,8 +7618,8 @@
       <c r="N73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>42</v>
+      <c r="O73" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>43</v>
@@ -7630,10 +7666,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="3">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>42</v>
@@ -7719,31 +7755,31 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="3">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>43</v>
+      <c r="D75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>43</v>
+      <c r="I75" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>43</v>
@@ -7760,11 +7796,11 @@
       <c r="N75" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>43</v>
+      <c r="O75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>43</v>
@@ -7808,10 +7844,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>42</v>
@@ -7897,34 +7933,34 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
         <v>184</v>
       </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>43</v>
+      <c r="C77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>42</v>
+      <c r="H77" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>42</v>
+      <c r="J77" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>43</v>
@@ -7938,8 +7974,8 @@
       <c r="N77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="2" t="s">
-        <v>43</v>
+      <c r="O77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>43</v>
@@ -7968,8 +8004,8 @@
       <c r="X77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y77" s="2" t="s">
-        <v>43</v>
+      <c r="Y77" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z77" s="2" t="s">
         <v>43</v>
@@ -7986,10 +8022,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="3">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>42</v>
@@ -8006,29 +8042,29 @@
       <c r="G78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>42</v>
+      <c r="H78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>42</v>
+      <c r="J78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>42</v>
+      <c r="M78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="2" t="s">
-        <v>43</v>
+      <c r="O78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>43</v>
@@ -8036,17 +8072,17 @@
       <c r="Q78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>42</v>
+      <c r="R78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>43</v>
@@ -8075,31 +8111,31 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>43</v>
+      <c r="D79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>43</v>
+      <c r="I79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>43</v>
@@ -8116,8 +8152,8 @@
       <c r="N79" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="2" t="s">
-        <v>43</v>
+      <c r="O79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>43</v>
@@ -8164,31 +8200,31 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="3">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>43</v>
+      <c r="D80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>43</v>
+      <c r="I80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>43</v>
@@ -8205,8 +8241,8 @@
       <c r="N80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>43</v>
+      <c r="O80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>43</v>
@@ -8253,10 +8289,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="3">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>42</v>
@@ -8342,10 +8378,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="3">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>42</v>
@@ -8353,11 +8389,11 @@
       <c r="D82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>42</v>
+      <c r="E82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>43</v>
@@ -8392,26 +8428,26 @@
       <c r="Q82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>42</v>
+      <c r="R82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>42</v>
+      <c r="W82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y82" s="2" t="s">
         <v>43</v>
@@ -8431,16 +8467,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="3">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>42</v>
+        <v>191</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>43</v>
@@ -8448,17 +8484,17 @@
       <c r="F83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>43</v>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>43</v>
@@ -8520,16 +8556,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>43</v>
+        <v>193</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>42</v>
@@ -8537,26 +8573,26 @@
       <c r="F84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>43</v>
+      <c r="G84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>43</v>
+      <c r="M84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>43</v>
@@ -8570,17 +8606,17 @@
       <c r="Q84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>43</v>
+      <c r="R84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>43</v>
@@ -8609,16 +8645,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="3">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>42</v>
+      <c r="D85" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>43</v>
@@ -8698,22 +8734,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="3">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>42</v>
+      <c r="D86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>43</v>
@@ -8721,20 +8757,20 @@
       <c r="H86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>42</v>
+      <c r="I86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>42</v>
+      <c r="K86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>42</v>
+      <c r="M86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>43</v>
@@ -8742,32 +8778,32 @@
       <c r="O86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>42</v>
+      <c r="P86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>42</v>
+      <c r="R86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>42</v>
+      <c r="W86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y86" s="2" t="s">
         <v>43</v>
@@ -8787,22 +8823,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="3">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>42</v>
+      <c r="D87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>43</v>
@@ -8810,20 +8846,20 @@
       <c r="H87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>42</v>
+      <c r="I87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>42</v>
+      <c r="K87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>42</v>
+      <c r="M87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>43</v>
@@ -8831,8 +8867,8 @@
       <c r="O87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>42</v>
+      <c r="P87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>43</v>
@@ -8846,17 +8882,17 @@
       <c r="T87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U87" s="1" t="s">
-        <v>42</v>
+      <c r="U87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W87" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>42</v>
+      <c r="W87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y87" s="2" t="s">
         <v>43</v>
@@ -8876,10 +8912,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="3">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>42</v>
@@ -8887,11 +8923,11 @@
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>43</v>
+      <c r="E88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>43</v>
@@ -8926,26 +8962,26 @@
       <c r="Q88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>43</v>
+      <c r="R88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X88" s="2" t="s">
-        <v>43</v>
+      <c r="W88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y88" s="2" t="s">
         <v>43</v>
@@ -8965,16 +9001,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="3">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>43</v>
+      <c r="D89" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>43</v>
@@ -9054,19 +9090,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="3">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
+        <v>205</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>42</v>
@@ -9143,22 +9179,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="3">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>43</v>
+      <c r="D91" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>42</v>
+      <c r="F91" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>43</v>
@@ -9232,22 +9268,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="3">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>43</v>
+      <c r="D92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>43</v>
@@ -9255,20 +9291,20 @@
       <c r="H92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>43</v>
+      <c r="I92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>43</v>
+      <c r="K92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>43</v>
+      <c r="M92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>43</v>
@@ -9276,32 +9312,32 @@
       <c r="O92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>43</v>
+      <c r="P92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>43</v>
+      <c r="R92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>43</v>
+      <c r="W92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>43</v>
@@ -9321,22 +9357,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="3">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>43</v>
+      <c r="D93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>43</v>
@@ -9344,20 +9380,20 @@
       <c r="H93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>43</v>
+      <c r="I93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>43</v>
+      <c r="K93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>43</v>
+      <c r="M93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>43</v>
@@ -9365,8 +9401,8 @@
       <c r="O93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P93" s="2" t="s">
-        <v>43</v>
+      <c r="P93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>43</v>
@@ -9380,17 +9416,17 @@
       <c r="T93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U93" s="2" t="s">
-        <v>43</v>
+      <c r="U93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W93" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X93" s="2" t="s">
-        <v>43</v>
+      <c r="W93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y93" s="2" t="s">
         <v>43</v>
@@ -9410,10 +9446,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="3">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>42</v>
@@ -9421,11 +9457,11 @@
       <c r="D94" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>42</v>
+      <c r="E94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>43</v>
@@ -9460,26 +9496,26 @@
       <c r="Q94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>42</v>
+      <c r="R94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W94" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X94" s="1" t="s">
-        <v>42</v>
+      <c r="W94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y94" s="2" t="s">
         <v>43</v>
@@ -9499,22 +9535,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="3">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>42</v>
+      <c r="D95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>43</v>
@@ -9558,17 +9594,17 @@
       <c r="T95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U95" s="1" t="s">
-        <v>42</v>
+      <c r="U95" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W95" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X95" s="1" t="s">
-        <v>42</v>
+      <c r="W95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>43</v>
@@ -9588,22 +9624,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="3">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>43</v>
+      <c r="D96" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>43</v>
+      <c r="F96" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>43</v>
@@ -9677,22 +9713,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="3">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>42</v>
+      <c r="D97" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>43</v>
+      <c r="F97" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>43</v>
@@ -9766,10 +9802,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="3">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>42</v>
@@ -9855,40 +9891,40 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="3">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>42</v>
+      <c r="D99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>42</v>
+      <c r="I99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>42</v>
+      <c r="K99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>43</v>
@@ -9896,35 +9932,35 @@
       <c r="N99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>42</v>
+      <c r="O99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>42</v>
+      <c r="R99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W99" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X99" s="1" t="s">
-        <v>42</v>
+      <c r="W99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>43</v>
@@ -9944,10 +9980,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="3">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>42</v>
@@ -9955,11 +9991,11 @@
       <c r="D100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>43</v>
+      <c r="E100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>43</v>
@@ -9967,8 +10003,8 @@
       <c r="H100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>42</v>
+      <c r="I100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>43</v>
@@ -9979,11 +10015,11 @@
       <c r="L100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>42</v>
+      <c r="M100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>43</v>
@@ -10003,17 +10039,17 @@
       <c r="T100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U100" s="2" t="s">
-        <v>43</v>
+      <c r="U100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X100" s="2" t="s">
-        <v>43</v>
+      <c r="W100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>43</v>
@@ -10033,10 +10069,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="3">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>42</v>
@@ -10044,11 +10080,11 @@
       <c r="D101" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>43</v>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>43</v>
@@ -10068,8 +10104,8 @@
       <c r="L101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M101" s="1" t="s">
-        <v>42</v>
+      <c r="M101" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>43</v>
@@ -10083,26 +10119,26 @@
       <c r="Q101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>43</v>
+      <c r="R101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>43</v>
+      <c r="W101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y101" s="2" t="s">
         <v>43</v>
@@ -10122,49 +10158,49 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="3">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>42</v>
+      <c r="D102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>42</v>
+      <c r="I102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>43</v>
@@ -10187,8 +10223,8 @@
       <c r="V102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W102" s="1" t="s">
-        <v>42</v>
+      <c r="W102" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X102" s="2" t="s">
         <v>43</v>
@@ -10211,16 +10247,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="3">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>43</v>
+      <c r="D103" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>43</v>
@@ -10240,11 +10276,11 @@
       <c r="J103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>42</v>
+      <c r="K103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>43</v>
@@ -10255,8 +10291,8 @@
       <c r="O103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>42</v>
+      <c r="P103" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>43</v>
@@ -10270,8 +10306,8 @@
       <c r="T103" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U103" s="1" t="s">
-        <v>42</v>
+      <c r="U103" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>43</v>
@@ -10300,10 +10336,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="3">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>42</v>
@@ -10329,11 +10365,11 @@
       <c r="J104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>42</v>
+      <c r="K104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>43</v>
@@ -10359,8 +10395,8 @@
       <c r="T104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U104" s="1" t="s">
-        <v>42</v>
+      <c r="U104" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V104" s="2" t="s">
         <v>43</v>
@@ -10389,31 +10425,31 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="3">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>43</v>
+      <c r="D105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>43</v>
+      <c r="I105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>43</v>
@@ -10430,23 +10466,23 @@
       <c r="N105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>43</v>
+      <c r="O105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>43</v>
+      <c r="R105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>42</v>
@@ -10454,11 +10490,11 @@
       <c r="V105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>43</v>
+      <c r="W105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>43</v>
@@ -10478,16 +10514,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="3">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>43</v>
+      <c r="D106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>43</v>
@@ -10501,23 +10537,23 @@
       <c r="H106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>43</v>
+      <c r="I106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>43</v>
+      <c r="K106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>43</v>
@@ -10528,17 +10564,17 @@
       <c r="Q106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>42</v>
+      <c r="R106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>43</v>
@@ -10567,16 +10603,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="3">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>43</v>
+      <c r="D107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>43</v>
@@ -10596,14 +10632,14 @@
       <c r="J107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>42</v>
+      <c r="K107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>43</v>
+      <c r="M107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>43</v>
@@ -10617,17 +10653,17 @@
       <c r="Q107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>42</v>
+      <c r="R107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V107" s="2" t="s">
         <v>43</v>
@@ -10656,34 +10692,34 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="3">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>43</v>
+      <c r="D108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>43</v>
+      <c r="I108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>42</v>
@@ -10691,14 +10727,14 @@
       <c r="L108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>43</v>
+      <c r="M108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>43</v>
@@ -10715,14 +10751,14 @@
       <c r="T108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U108" s="1" t="s">
-        <v>42</v>
+      <c r="U108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W108" s="2" t="s">
-        <v>43</v>
+      <c r="W108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>43</v>
@@ -10745,10 +10781,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="3">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>42</v>
@@ -10789,8 +10825,8 @@
       <c r="O109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P109" s="2" t="s">
-        <v>43</v>
+      <c r="P109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>43</v>
@@ -10834,10 +10870,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="3">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>42</v>
@@ -10866,8 +10902,8 @@
       <c r="K110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L110" s="2" t="s">
-        <v>43</v>
+      <c r="L110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>43</v>
@@ -10923,10 +10959,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="3">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>42</v>
@@ -11012,10 +11048,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="3">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>42</v>
@@ -11101,10 +11137,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="3">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>42</v>
@@ -11133,8 +11169,8 @@
       <c r="K113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>42</v>
+      <c r="L113" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>43</v>
@@ -11190,10 +11226,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="3">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>42</v>
@@ -11279,10 +11315,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="3">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>42</v>
@@ -11311,8 +11347,8 @@
       <c r="K115" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>43</v>
+      <c r="L115" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>43</v>
@@ -11368,76 +11404,76 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="3">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>42</v>
+      <c r="D116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>42</v>
+      <c r="L116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T116" s="1" t="s">
-        <v>42</v>
+      <c r="R116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>42</v>
+      <c r="V116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X116" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y116" s="2" t="s">
         <v>43</v>
@@ -11457,40 +11493,40 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="3">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>42</v>
+      <c r="D117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>42</v>
+      <c r="I117" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K117" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>43</v>
+      <c r="K117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>43</v>
@@ -11519,14 +11555,14 @@
       <c r="U117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X117" s="1" t="s">
-        <v>42</v>
+      <c r="V117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X117" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y117" s="2" t="s">
         <v>43</v>
@@ -11546,10 +11582,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="3">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>42</v>
@@ -11575,11 +11611,11 @@
       <c r="J118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>43</v>
+      <c r="K118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>43</v>
@@ -11605,8 +11641,8 @@
       <c r="T118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U118" s="2" t="s">
-        <v>43</v>
+      <c r="U118" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V118" s="2" t="s">
         <v>43</v>
@@ -11635,10 +11671,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="3">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>42</v>
@@ -11664,11 +11700,11 @@
       <c r="J119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>43</v>
+      <c r="K119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>43</v>
@@ -11694,8 +11730,8 @@
       <c r="T119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U119" s="2" t="s">
-        <v>43</v>
+      <c r="U119" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V119" s="2" t="s">
         <v>43</v>
@@ -11724,22 +11760,22 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="3">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>42</v>
+        <v>265</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>43</v>
@@ -11747,8 +11783,8 @@
       <c r="H120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>42</v>
+      <c r="I120" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>43</v>
@@ -11759,11 +11795,11 @@
       <c r="L120" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>42</v>
+      <c r="M120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>43</v>
@@ -11783,8 +11819,8 @@
       <c r="T120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U120" s="2" t="s">
-        <v>43</v>
+      <c r="U120" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>43</v>
@@ -11813,22 +11849,22 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="3">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>42</v>
+      <c r="D121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>43</v>
@@ -11842,8 +11878,8 @@
       <c r="J121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>43</v>
+      <c r="K121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>43</v>
@@ -11872,8 +11908,8 @@
       <c r="T121" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U121" s="2" t="s">
-        <v>43</v>
+      <c r="U121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V121" s="2" t="s">
         <v>43</v>
@@ -11902,10 +11938,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="3">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>42</v>
@@ -11913,65 +11949,65 @@
       <c r="D122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>43</v>
+      <c r="E122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X122" s="2" t="s">
-        <v>43</v>
+      <c r="R122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>43</v>
@@ -11991,10 +12027,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="3">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>42</v>
@@ -12011,8 +12047,8 @@
       <c r="G123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>42</v>
+      <c r="H123" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>42</v>
@@ -12020,14 +12056,14 @@
       <c r="J123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>42</v>
+      <c r="K123" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M123" s="1" t="s">
-        <v>42</v>
+      <c r="M123" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>43</v>
@@ -12041,14 +12077,14 @@
       <c r="Q123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T123" s="1" t="s">
-        <v>42</v>
+      <c r="R123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>42</v>
@@ -12080,22 +12116,22 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="3">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>42</v>
+      <c r="D124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>43</v>
@@ -12109,14 +12145,14 @@
       <c r="J124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>42</v>
+      <c r="K124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M124" s="1" t="s">
-        <v>42</v>
+      <c r="M124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>43</v>
@@ -12139,17 +12175,17 @@
       <c r="T124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U124" s="1" t="s">
-        <v>42</v>
+      <c r="U124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X124" s="1" t="s">
-        <v>42</v>
+      <c r="W124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y124" s="2" t="s">
         <v>43</v>
@@ -12169,28 +12205,28 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="3">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>42</v>
+      <c r="D125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>42</v>
+      <c r="H125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>43</v>
@@ -12198,14 +12234,14 @@
       <c r="J125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K125" s="1" t="s">
-        <v>42</v>
+      <c r="K125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M125" s="1" t="s">
-        <v>42</v>
+      <c r="M125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>43</v>
@@ -12219,26 +12255,26 @@
       <c r="Q125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X125" s="1" t="s">
-        <v>42</v>
+      <c r="R125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y125" s="2" t="s">
         <v>43</v>
@@ -12258,10 +12294,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="3">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>43</v>
@@ -12275,17 +12311,17 @@
       <c r="F126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>42</v>
+      <c r="G126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>42</v>
+      <c r="J126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>42</v>
@@ -12299,11 +12335,11 @@
       <c r="N126" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>42</v>
+      <c r="O126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>43</v>
@@ -12320,26 +12356,26 @@
       <c r="U126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X126" s="1" t="s">
-        <v>42</v>
+      <c r="V126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z126" s="1" t="s">
-        <v>42</v>
+      <c r="Z126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB126" s="1" t="s">
-        <v>42</v>
+      <c r="AB126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC126" s="2" t="s">
         <v>43</v>
@@ -12347,22 +12383,22 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="3">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>43</v>
+        <v>279</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>43</v>
@@ -12421,14 +12457,14 @@
       <c r="Y127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z127" s="1" t="s">
-        <v>42</v>
+      <c r="Z127" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB127" s="1" t="s">
-        <v>42</v>
+      <c r="AB127" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC127" s="2" t="s">
         <v>43</v>
@@ -12436,52 +12472,52 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="3">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>42</v>
+      <c r="E128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>43</v>
@@ -12498,26 +12534,26 @@
       <c r="U128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X128" s="1" t="s">
-        <v>42</v>
+      <c r="V128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W128" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z128" s="1" t="s">
-        <v>42</v>
+      <c r="Z128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB128" s="1" t="s">
-        <v>42</v>
+      <c r="AB128" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC128" s="2" t="s">
         <v>43</v>
@@ -12525,43 +12561,43 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="3">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>289</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>43</v>
+        <v>283</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>43</v>
+      <c r="K129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M129" s="2" t="s">
-        <v>43</v>
+      <c r="M129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>43</v>
@@ -12575,38 +12611,38 @@
       <c r="Q129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W129" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>43</v>
+      <c r="R129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z129" s="1" t="s">
-        <v>42</v>
+      <c r="Z129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB129" s="1" t="s">
-        <v>42</v>
+      <c r="AB129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC129" s="2" t="s">
         <v>43</v>
@@ -12614,10 +12650,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="3">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B130" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>42</v>
@@ -12631,14 +12667,14 @@
       <c r="F130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>42</v>
+      <c r="G130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>42</v>
+      <c r="I130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>43</v>
@@ -12646,17 +12682,17 @@
       <c r="K130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>42</v>
+      <c r="L130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>42</v>
+      <c r="N130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>43</v>
@@ -12673,8 +12709,8 @@
       <c r="T130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U130" s="2" t="s">
-        <v>43</v>
+      <c r="U130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V130" s="2" t="s">
         <v>43</v>
@@ -12682,8 +12718,8 @@
       <c r="W130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X130" s="2" t="s">
-        <v>43</v>
+      <c r="X130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y130" s="2" t="s">
         <v>43</v>
@@ -12703,28 +12739,28 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="3">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>43</v>
+      <c r="D131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>43</v>
+      <c r="H131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>43</v>
@@ -12732,14 +12768,14 @@
       <c r="J131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K131" s="2" t="s">
-        <v>43</v>
+      <c r="K131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M131" s="2" t="s">
-        <v>43</v>
+      <c r="M131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>43</v>
@@ -12753,26 +12789,26 @@
       <c r="Q131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W131" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X131" s="2" t="s">
-        <v>43</v>
+      <c r="R131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y131" s="2" t="s">
         <v>43</v>
@@ -12792,52 +12828,52 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="3">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>42</v>
+        <v>289</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>43</v>
+      <c r="E132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>43</v>
@@ -12854,26 +12890,26 @@
       <c r="U132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X132" s="2" t="s">
-        <v>43</v>
+      <c r="V132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z132" s="2" t="s">
-        <v>43</v>
+      <c r="Z132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB132" s="2" t="s">
-        <v>43</v>
+      <c r="AB132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC132" s="2" t="s">
         <v>43</v>
@@ -12881,13 +12917,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="3">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>42</v>
+        <v>291</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>43</v>
@@ -12955,14 +12991,14 @@
       <c r="Y133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z133" s="2" t="s">
-        <v>43</v>
+      <c r="Z133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB133" s="2" t="s">
-        <v>43</v>
+      <c r="AB133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC133" s="2" t="s">
         <v>43</v>
@@ -12970,13 +13006,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="3">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>42</v>
+        <v>293</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>42</v>
@@ -12990,14 +13026,14 @@
       <c r="G134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>43</v>
+      <c r="H134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>43</v>
+      <c r="J134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>42</v>
@@ -13014,8 +13050,8 @@
       <c r="O134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P134" s="2" t="s">
-        <v>43</v>
+      <c r="P134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>43</v>
@@ -13032,26 +13068,26 @@
       <c r="U134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V134" s="2" t="s">
-        <v>43</v>
+      <c r="V134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X134" s="2" t="s">
-        <v>43</v>
+      <c r="X134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z134" s="2" t="s">
-        <v>43</v>
+      <c r="Z134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB134" s="2" t="s">
-        <v>43</v>
+      <c r="AB134" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC134" s="2" t="s">
         <v>43</v>
@@ -13059,49 +13095,49 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="3">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B135" t="s">
-        <v>301</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>42</v>
+        <v>295</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>42</v>
+      <c r="I135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>42</v>
+      <c r="K135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>43</v>
@@ -13124,8 +13160,8 @@
       <c r="V135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W135" s="1" t="s">
-        <v>42</v>
+      <c r="W135" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X135" s="2" t="s">
         <v>43</v>
@@ -13133,14 +13169,14 @@
       <c r="Y135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z135" s="2" t="s">
-        <v>43</v>
+      <c r="Z135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB135" s="2" t="s">
-        <v>43</v>
+      <c r="AB135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC135" s="2" t="s">
         <v>43</v>
@@ -13148,10 +13184,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="3">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>42</v>
@@ -13159,38 +13195,38 @@
       <c r="D136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>43</v>
+      <c r="E136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>43</v>
+      <c r="I136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>43</v>
+      <c r="K136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>43</v>
@@ -13213,8 +13249,8 @@
       <c r="V136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W136" s="2" t="s">
-        <v>43</v>
+      <c r="W136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>43</v>
@@ -13237,10 +13273,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="3">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>42</v>
@@ -13326,10 +13362,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="3">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>42</v>
@@ -13337,11 +13373,11 @@
       <c r="D138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>42</v>
+      <c r="E138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>43</v>
@@ -13355,14 +13391,14 @@
       <c r="J138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>42</v>
+      <c r="K138" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M138" s="1" t="s">
-        <v>42</v>
+      <c r="M138" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>43</v>
@@ -13391,8 +13427,8 @@
       <c r="V138" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W138" s="1" t="s">
-        <v>42</v>
+      <c r="W138" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X138" s="2" t="s">
         <v>43</v>
@@ -13415,13 +13451,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="3">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>43</v>
+        <v>303</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>43</v>
@@ -13498,16 +13534,16 @@
       <c r="AB139" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC139" s="1" t="s">
-        <v>42</v>
+      <c r="AC139" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="3">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>42</v>
@@ -13554,17 +13590,17 @@
       <c r="Q140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U140" s="1" t="s">
-        <v>42</v>
+      <c r="R140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V140" s="2" t="s">
         <v>43</v>
@@ -13572,8 +13608,8 @@
       <c r="W140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X140" s="1" t="s">
-        <v>42</v>
+      <c r="X140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y140" s="2" t="s">
         <v>43</v>
@@ -13593,13 +13629,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="3">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B141" t="s">
-        <v>313</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>43</v>
+        <v>307</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>42</v>
@@ -13607,35 +13643,35 @@
       <c r="E141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>43</v>
+      <c r="F141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>43</v>
+      <c r="I141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>43</v>
+      <c r="K141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>43</v>
@@ -13658,8 +13694,8 @@
       <c r="V141" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W141" s="2" t="s">
-        <v>43</v>
+      <c r="W141" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X141" s="2" t="s">
         <v>43</v>
@@ -13682,90 +13718,1158 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="3">
+        <v>308</v>
+      </c>
+      <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC142" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="B143" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC143" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="B144" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC144" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="3">
         <v>314</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B145" t="s">
         <v>315</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC142" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC145" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="B146" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC146" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="B147" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>321</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="3">
+        <v>322</v>
+      </c>
+      <c r="B149" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC149" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="3">
+        <v>323</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="B151" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="3">
+        <v>325</v>
+      </c>
+      <c r="B152" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="B153" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC153" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="3">
+        <v>327</v>
+      </c>
+      <c r="B154" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC154" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13784,12 +14888,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -1002,7 +1002,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.62.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -1002,7 +1002,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.62.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="331">
   <si>
     <t>User Right</t>
   </si>
@@ -663,6 +663,9 @@
     <t>Perform bulk operations in lists</t>
   </si>
   <si>
+    <t>PERFORM_BULK_OPERATIONS_EVENT</t>
+  </si>
+  <si>
     <t>MANAGE_PUBLIC_EXPORT_CONFIGURATION</t>
   </si>
   <si>
@@ -1002,7 +1005,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.63.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD154"/>
+  <dimension ref="A1:AD155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7256,8 +7259,8 @@
       <c r="L69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>43</v>
+      <c r="M69" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>43</v>
@@ -7499,8 +7502,8 @@
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>43</v>
+      <c r="E72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>42</v>
@@ -7523,8 +7526,8 @@
       <c r="L72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>43</v>
+      <c r="M72" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>43</v>
@@ -8057,8 +8060,8 @@
       <c r="L78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>43</v>
+      <c r="M78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>43</v>
@@ -8235,8 +8238,8 @@
       <c r="L80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>43</v>
+      <c r="M80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>43</v>
@@ -9627,19 +9630,19 @@
         <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>42</v>
+      <c r="D96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>43</v>
@@ -9659,8 +9662,8 @@
       <c r="L96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>43</v>
+      <c r="M96" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>43</v>
@@ -9713,16 +9716,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="3">
+        <v>217</v>
+      </c>
+      <c r="B97" t="s">
         <v>218</v>
       </c>
-      <c r="B97" t="s">
-        <v>219</v>
-      </c>
       <c r="C97" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>43</v>
+      <c r="D97" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>43</v>
@@ -9802,11 +9805,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="3">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
         <v>220</v>
       </c>
-      <c r="B98" t="s">
-        <v>221</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>42</v>
       </c>
@@ -9816,8 +9819,8 @@
       <c r="E98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>43</v>
+      <c r="F98" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>43</v>
@@ -9891,10 +9894,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="3">
+        <v>221</v>
+      </c>
+      <c r="B99" t="s">
         <v>222</v>
-      </c>
-      <c r="B99" t="s">
-        <v>223</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>42</v>
@@ -9980,22 +9983,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="3">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
         <v>224</v>
       </c>
-      <c r="B100" t="s">
-        <v>225</v>
-      </c>
       <c r="C100" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>42</v>
+      <c r="D100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>43</v>
@@ -10030,26 +10033,26 @@
       <c r="Q100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>42</v>
+      <c r="R100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W100" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>42</v>
+      <c r="W100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>43</v>
@@ -10069,11 +10072,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="3">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" t="s">
-        <v>227</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>42</v>
       </c>
@@ -10119,14 +10122,14 @@
       <c r="Q101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>43</v>
+      <c r="R101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>42</v>
@@ -10158,22 +10161,22 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="3">
+        <v>227</v>
+      </c>
+      <c r="B102" t="s">
         <v>228</v>
       </c>
-      <c r="B102" t="s">
-        <v>229</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>43</v>
+      <c r="D102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>43</v>
@@ -10217,17 +10220,17 @@
       <c r="T102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U102" s="2" t="s">
-        <v>43</v>
+      <c r="U102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X102" s="2" t="s">
-        <v>43</v>
+      <c r="W102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y102" s="2" t="s">
         <v>43</v>
@@ -10247,16 +10250,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="3">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
         <v>230</v>
       </c>
-      <c r="B103" t="s">
-        <v>231</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>42</v>
+      <c r="D103" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>43</v>
@@ -10336,16 +10339,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="3">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
         <v>232</v>
       </c>
-      <c r="B104" t="s">
-        <v>233</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>43</v>
+      <c r="D104" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>43</v>
@@ -10425,40 +10428,40 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="3">
+        <v>233</v>
+      </c>
+      <c r="B105" t="s">
         <v>234</v>
       </c>
-      <c r="B105" t="s">
-        <v>235</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>42</v>
+      <c r="D105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>42</v>
+      <c r="I105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>42</v>
+      <c r="K105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>43</v>
@@ -10466,35 +10469,35 @@
       <c r="N105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>42</v>
+      <c r="O105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U105" s="1" t="s">
-        <v>42</v>
+      <c r="R105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X105" s="1" t="s">
-        <v>42</v>
+      <c r="W105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>43</v>
@@ -10514,25 +10517,25 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="3">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
         <v>236</v>
       </c>
-      <c r="B106" t="s">
-        <v>237</v>
-      </c>
       <c r="C106" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>43</v>
+      <c r="E106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>43</v>
@@ -10543,23 +10546,23 @@
       <c r="J106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>43</v>
+      <c r="K106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>43</v>
@@ -10573,17 +10576,17 @@
       <c r="T106" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U106" s="2" t="s">
-        <v>43</v>
+      <c r="U106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W106" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X106" s="2" t="s">
-        <v>43</v>
+      <c r="W106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y106" s="2" t="s">
         <v>43</v>
@@ -10603,11 +10606,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="B107" t="s">
         <v>238</v>
       </c>
-      <c r="B107" t="s">
-        <v>239</v>
-      </c>
       <c r="C107" s="1" t="s">
         <v>42</v>
       </c>
@@ -10626,8 +10629,8 @@
       <c r="H107" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>43</v>
+      <c r="I107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>43</v>
@@ -10641,8 +10644,8 @@
       <c r="M107" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N107" s="2" t="s">
-        <v>43</v>
+      <c r="N107" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>43</v>
@@ -10692,49 +10695,49 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="3">
+        <v>239</v>
+      </c>
+      <c r="B108" t="s">
         <v>240</v>
       </c>
-      <c r="B108" t="s">
-        <v>241</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>42</v>
+      <c r="E108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>42</v>
+      <c r="I108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>42</v>
+      <c r="N108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>43</v>
@@ -10742,14 +10745,14 @@
       <c r="Q108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>43</v>
+      <c r="R108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>43</v>
@@ -10757,8 +10760,8 @@
       <c r="V108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W108" s="1" t="s">
-        <v>42</v>
+      <c r="W108" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X108" s="2" t="s">
         <v>43</v>
@@ -10781,34 +10784,34 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
         <v>242</v>
       </c>
-      <c r="B109" t="s">
-        <v>243</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>43</v>
+      <c r="D109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>43</v>
+      <c r="I109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>42</v>
@@ -10816,17 +10819,17 @@
       <c r="L109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>42</v>
+      <c r="M109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>43</v>
@@ -10840,14 +10843,14 @@
       <c r="T109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U109" s="1" t="s">
-        <v>42</v>
+      <c r="U109" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W109" s="2" t="s">
-        <v>43</v>
+      <c r="W109" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X109" s="2" t="s">
         <v>43</v>
@@ -10870,11 +10873,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="3">
+        <v>243</v>
+      </c>
+      <c r="B110" t="s">
         <v>244</v>
       </c>
-      <c r="B110" t="s">
-        <v>245</v>
-      </c>
       <c r="C110" s="1" t="s">
         <v>42</v>
       </c>
@@ -10914,8 +10917,8 @@
       <c r="O110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P110" s="2" t="s">
-        <v>43</v>
+      <c r="P110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>43</v>
@@ -10959,10 +10962,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="3">
+        <v>245</v>
+      </c>
+      <c r="B111" t="s">
         <v>246</v>
-      </c>
-      <c r="B111" t="s">
-        <v>247</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>42</v>
@@ -11048,10 +11051,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="3">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
         <v>248</v>
-      </c>
-      <c r="B112" t="s">
-        <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>42</v>
@@ -11137,11 +11140,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="3">
+        <v>249</v>
+      </c>
+      <c r="B113" t="s">
         <v>250</v>
       </c>
-      <c r="B113" t="s">
-        <v>251</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>42</v>
       </c>
@@ -11169,8 +11172,8 @@
       <c r="K113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>43</v>
+      <c r="L113" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>43</v>
@@ -11226,11 +11229,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="3">
+        <v>251</v>
+      </c>
+      <c r="B114" t="s">
         <v>252</v>
       </c>
-      <c r="B114" t="s">
-        <v>253</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>42</v>
       </c>
@@ -11258,8 +11261,8 @@
       <c r="K114" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>42</v>
+      <c r="L114" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>43</v>
@@ -11315,10 +11318,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="3">
+        <v>253</v>
+      </c>
+      <c r="B115" t="s">
         <v>254</v>
-      </c>
-      <c r="B115" t="s">
-        <v>255</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>42</v>
@@ -11404,11 +11407,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="3">
+        <v>255</v>
+      </c>
+      <c r="B116" t="s">
         <v>256</v>
       </c>
-      <c r="B116" t="s">
-        <v>257</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>42</v>
       </c>
@@ -11436,8 +11439,8 @@
       <c r="K116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L116" s="2" t="s">
-        <v>43</v>
+      <c r="L116" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>43</v>
@@ -11493,11 +11496,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="B117" t="s">
         <v>258</v>
       </c>
-      <c r="B117" t="s">
-        <v>259</v>
-      </c>
       <c r="C117" s="1" t="s">
         <v>42</v>
       </c>
@@ -11525,8 +11528,8 @@
       <c r="K117" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>42</v>
+      <c r="L117" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>43</v>
@@ -11582,10 +11585,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="3">
+        <v>259</v>
+      </c>
+      <c r="B118" t="s">
         <v>260</v>
-      </c>
-      <c r="B118" t="s">
-        <v>261</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>42</v>
@@ -11671,10 +11674,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="B119" t="s">
         <v>262</v>
-      </c>
-      <c r="B119" t="s">
-        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>42</v>
@@ -11760,10 +11763,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="3">
+        <v>263</v>
+      </c>
+      <c r="B120" t="s">
         <v>264</v>
-      </c>
-      <c r="B120" t="s">
-        <v>265</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>42</v>
@@ -11849,11 +11852,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="3">
+        <v>265</v>
+      </c>
+      <c r="B121" t="s">
         <v>266</v>
       </c>
-      <c r="B121" t="s">
-        <v>267</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>42</v>
       </c>
@@ -11881,8 +11884,8 @@
       <c r="K121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L121" s="2" t="s">
-        <v>43</v>
+      <c r="L121" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>43</v>
@@ -11938,76 +11941,76 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="B122" t="s">
         <v>268</v>
       </c>
-      <c r="B122" t="s">
-        <v>269</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>42</v>
+      <c r="D122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>42</v>
+      <c r="L122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T122" s="1" t="s">
-        <v>42</v>
+      <c r="R122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U122" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>42</v>
+      <c r="V122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>43</v>
@@ -12027,11 +12030,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="3">
+        <v>269</v>
+      </c>
+      <c r="B123" t="s">
         <v>270</v>
       </c>
-      <c r="B123" t="s">
-        <v>271</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>42</v>
       </c>
@@ -12047,44 +12050,44 @@
       <c r="G123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>43</v>
+      <c r="H123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>43</v>
+      <c r="J123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T123" s="2" t="s">
-        <v>43</v>
+      <c r="R123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U123" s="1" t="s">
         <v>42</v>
@@ -12116,31 +12119,31 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="3">
+        <v>271</v>
+      </c>
+      <c r="B124" t="s">
         <v>272</v>
       </c>
-      <c r="B124" t="s">
-        <v>273</v>
-      </c>
       <c r="C124" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>43</v>
+      <c r="D124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>43</v>
+      <c r="I124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>43</v>
@@ -12175,17 +12178,17 @@
       <c r="T124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X124" s="2" t="s">
-        <v>43</v>
+      <c r="U124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y124" s="2" t="s">
         <v>43</v>
@@ -12205,10 +12208,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="3">
+        <v>273</v>
+      </c>
+      <c r="B125" t="s">
         <v>274</v>
-      </c>
-      <c r="B125" t="s">
-        <v>275</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>42</v>
@@ -12294,22 +12297,22 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="B126" t="s">
         <v>276</v>
       </c>
-      <c r="B126" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>42</v>
+      <c r="C126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>43</v>
@@ -12317,23 +12320,23 @@
       <c r="H126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>42</v>
+      <c r="I126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>42</v>
+      <c r="K126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>43</v>
@@ -12383,13 +12386,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="3">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
         <v>278</v>
       </c>
-      <c r="B127" t="s">
-        <v>279</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>42</v>
+      <c r="C127" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>42</v>
@@ -12406,23 +12409,23 @@
       <c r="H127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>43</v>
+      <c r="I127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>43</v>
+      <c r="K127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>43</v>
@@ -12472,22 +12475,22 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="3">
+        <v>279</v>
+      </c>
+      <c r="B128" t="s">
         <v>280</v>
       </c>
-      <c r="B128" t="s">
-        <v>281</v>
-      </c>
       <c r="C128" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>43</v>
+      <c r="E128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>43</v>
@@ -12561,43 +12564,43 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
         <v>282</v>
       </c>
-      <c r="B129" t="s">
-        <v>283</v>
-      </c>
       <c r="C129" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>42</v>
+      <c r="E129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>42</v>
+      <c r="K129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M129" s="1" t="s">
-        <v>42</v>
+      <c r="M129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>43</v>
@@ -12611,26 +12614,26 @@
       <c r="Q129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>42</v>
+      <c r="R129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y129" s="2" t="s">
         <v>43</v>
@@ -12650,11 +12653,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="3">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
         <v>284</v>
       </c>
-      <c r="B130" t="s">
-        <v>285</v>
-      </c>
       <c r="C130" s="1" t="s">
         <v>42</v>
       </c>
@@ -12667,14 +12670,14 @@
       <c r="F130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>43</v>
+      <c r="G130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>43</v>
@@ -12700,20 +12703,20 @@
       <c r="Q130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>43</v>
+      <c r="R130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V130" s="2" t="s">
-        <v>43</v>
+      <c r="V130" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>42</v>
@@ -12739,11 +12742,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="3">
+        <v>285</v>
+      </c>
+      <c r="B131" t="s">
         <v>286</v>
       </c>
-      <c r="B131" t="s">
-        <v>287</v>
-      </c>
       <c r="C131" s="1" t="s">
         <v>42</v>
       </c>
@@ -12759,8 +12762,8 @@
       <c r="G131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>42</v>
+      <c r="H131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>43</v>
@@ -12789,20 +12792,20 @@
       <c r="Q131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T131" s="1" t="s">
-        <v>42</v>
+      <c r="R131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U131" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>42</v>
+      <c r="V131" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>42</v>
@@ -12828,13 +12831,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="3">
+        <v>287</v>
+      </c>
+      <c r="B132" t="s">
         <v>288</v>
       </c>
-      <c r="B132" t="s">
-        <v>289</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>43</v>
+      <c r="C132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>42</v>
@@ -12845,50 +12848,50 @@
       <c r="F132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>42</v>
+      <c r="G132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>42</v>
+      <c r="I132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>42</v>
+      <c r="L132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>42</v>
+      <c r="N132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T132" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U132" s="2" t="s">
-        <v>43</v>
+      <c r="R132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V132" s="1" t="s">
         <v>42</v>
@@ -12902,14 +12905,14 @@
       <c r="Y132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z132" s="1" t="s">
-        <v>42</v>
+      <c r="Z132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AA132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB132" s="1" t="s">
-        <v>42</v>
+      <c r="AB132" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AC132" s="2" t="s">
         <v>43</v>
@@ -12917,52 +12920,52 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="B133" t="s">
         <v>290</v>
       </c>
-      <c r="B133" t="s">
-        <v>291</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>43</v>
+      <c r="D133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>43</v>
@@ -12979,14 +12982,14 @@
       <c r="U133" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W133" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X133" s="2" t="s">
-        <v>43</v>
+      <c r="V133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y133" s="2" t="s">
         <v>43</v>
@@ -13006,52 +13009,52 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="3">
+        <v>291</v>
+      </c>
+      <c r="B134" t="s">
         <v>292</v>
       </c>
-      <c r="B134" t="s">
-        <v>293</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>42</v>
+      <c r="D134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>43</v>
@@ -13068,14 +13071,14 @@
       <c r="U134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X134" s="1" t="s">
-        <v>42</v>
+      <c r="V134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X134" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y134" s="2" t="s">
         <v>43</v>
@@ -13095,52 +13098,52 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="B135" t="s">
         <v>294</v>
       </c>
-      <c r="B135" t="s">
-        <v>295</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>43</v>
+      <c r="D135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>43</v>
@@ -13157,14 +13160,14 @@
       <c r="U135" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W135" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X135" s="2" t="s">
-        <v>43</v>
+      <c r="V135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X135" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y135" s="2" t="s">
         <v>43</v>
@@ -13184,49 +13187,49 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="3">
+        <v>295</v>
+      </c>
+      <c r="B136" t="s">
         <v>296</v>
       </c>
-      <c r="B136" t="s">
-        <v>297</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>42</v>
+      <c r="C136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>42</v>
+      <c r="I136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>42</v>
+      <c r="K136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>43</v>
@@ -13249,8 +13252,8 @@
       <c r="V136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W136" s="1" t="s">
-        <v>42</v>
+      <c r="W136" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X136" s="2" t="s">
         <v>43</v>
@@ -13258,14 +13261,14 @@
       <c r="Y136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z136" s="2" t="s">
-        <v>43</v>
+      <c r="Z136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AA136" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB136" s="2" t="s">
-        <v>43</v>
+      <c r="AB136" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AC136" s="2" t="s">
         <v>43</v>
@@ -13273,49 +13276,49 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
         <v>298</v>
       </c>
-      <c r="B137" t="s">
-        <v>299</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>43</v>
+      <c r="D137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>43</v>
+      <c r="I137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>43</v>
+      <c r="K137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>43</v>
@@ -13338,8 +13341,8 @@
       <c r="V137" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W137" s="2" t="s">
-        <v>43</v>
+      <c r="W137" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X137" s="2" t="s">
         <v>43</v>
@@ -13362,16 +13365,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
         <v>300</v>
       </c>
-      <c r="B138" t="s">
-        <v>301</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>42</v>
+      <c r="D138" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>43</v>
@@ -13451,16 +13454,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="3">
+        <v>301</v>
+      </c>
+      <c r="B139" t="s">
         <v>302</v>
       </c>
-      <c r="B139" t="s">
-        <v>303</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>43</v>
+      <c r="D139" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>43</v>
@@ -13540,49 +13543,49 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="3">
+        <v>303</v>
+      </c>
+      <c r="B140" t="s">
         <v>304</v>
       </c>
-      <c r="B140" t="s">
-        <v>305</v>
-      </c>
       <c r="C140" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>42</v>
+      <c r="D140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>42</v>
+      <c r="I140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>42</v>
+      <c r="K140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>43</v>
@@ -13605,8 +13608,8 @@
       <c r="V140" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W140" s="1" t="s">
-        <v>42</v>
+      <c r="W140" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X140" s="2" t="s">
         <v>43</v>
@@ -13629,10 +13632,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="3">
+        <v>305</v>
+      </c>
+      <c r="B141" t="s">
         <v>306</v>
-      </c>
-      <c r="B141" t="s">
-        <v>307</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>42</v>
@@ -13718,49 +13721,49 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="3">
+        <v>307</v>
+      </c>
+      <c r="B142" t="s">
         <v>308</v>
       </c>
-      <c r="B142" t="s">
-        <v>309</v>
-      </c>
       <c r="C142" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>43</v>
+      <c r="E142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>43</v>
+      <c r="I142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O142" s="2" t="s">
-        <v>43</v>
+      <c r="K142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>43</v>
@@ -13783,8 +13786,8 @@
       <c r="V142" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W142" s="2" t="s">
-        <v>43</v>
+      <c r="W142" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X142" s="2" t="s">
         <v>43</v>
@@ -13807,16 +13810,16 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="B143" t="s">
         <v>310</v>
       </c>
-      <c r="B143" t="s">
-        <v>311</v>
-      </c>
       <c r="C143" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>43</v>
+      <c r="D143" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>43</v>
@@ -13896,22 +13899,22 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="B144" t="s">
         <v>312</v>
       </c>
-      <c r="B144" t="s">
-        <v>313</v>
-      </c>
       <c r="C144" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>42</v>
+      <c r="D144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>43</v>
@@ -13925,14 +13928,14 @@
       <c r="J144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K144" s="1" t="s">
-        <v>42</v>
+      <c r="K144" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M144" s="1" t="s">
-        <v>42</v>
+      <c r="M144" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>43</v>
@@ -13961,8 +13964,8 @@
       <c r="V144" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W144" s="1" t="s">
-        <v>42</v>
+      <c r="W144" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="X144" s="2" t="s">
         <v>43</v>
@@ -13985,22 +13988,22 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="B145" t="s">
         <v>314</v>
       </c>
-      <c r="B145" t="s">
-        <v>315</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>43</v>
+      <c r="C145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>43</v>
@@ -14014,14 +14017,14 @@
       <c r="J145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K145" s="2" t="s">
-        <v>43</v>
+      <c r="K145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M145" s="2" t="s">
-        <v>43</v>
+      <c r="M145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>43</v>
@@ -14050,8 +14053,8 @@
       <c r="V145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W145" s="2" t="s">
-        <v>43</v>
+      <c r="W145" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="X145" s="2" t="s">
         <v>43</v>
@@ -14068,55 +14071,55 @@
       <c r="AB145" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC145" s="1" t="s">
-        <v>42</v>
+      <c r="AC145" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="3">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
         <v>316</v>
       </c>
-      <c r="B146" t="s">
-        <v>317</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>42</v>
+      <c r="C146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>42</v>
+      <c r="I146" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>42</v>
+      <c r="K146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>43</v>
@@ -14124,26 +14127,26 @@
       <c r="Q146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U146" s="1" t="s">
-        <v>42</v>
+      <c r="R146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X146" s="1" t="s">
-        <v>42</v>
+      <c r="W146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X146" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y146" s="2" t="s">
         <v>43</v>
@@ -14157,19 +14160,19 @@
       <c r="AB146" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC146" s="2" t="s">
-        <v>43</v>
+      <c r="AC146" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="3">
+        <v>317</v>
+      </c>
+      <c r="B147" t="s">
         <v>318</v>
       </c>
-      <c r="B147" t="s">
-        <v>319</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>43</v>
+      <c r="C147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>42</v>
@@ -14177,35 +14180,35 @@
       <c r="E147" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>43</v>
+      <c r="F147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>43</v>
+      <c r="I147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>43</v>
+      <c r="K147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>43</v>
@@ -14213,26 +14216,26 @@
       <c r="Q147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U147" s="2" t="s">
-        <v>43</v>
+      <c r="R147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="V147" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X147" s="2" t="s">
-        <v>43</v>
+      <c r="W147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y147" s="2" t="s">
         <v>43</v>
@@ -14252,19 +14255,19 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="B148" t="s">
         <v>320</v>
       </c>
-      <c r="B148" t="s">
-        <v>321</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>43</v>
+      <c r="E148" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>43</v>
@@ -14341,76 +14344,76 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="3">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B149" t="s">
         <v>322</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>42</v>
+      <c r="C149" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>42</v>
+      <c r="E149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q149" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W149" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X149" s="1" t="s">
-        <v>42</v>
+      <c r="R149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X149" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Y149" s="2" t="s">
         <v>43</v>
@@ -14569,14 +14572,14 @@
       <c r="Q151" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R151" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S151" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T151" s="2" t="s">
-        <v>43</v>
+      <c r="R151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U151" s="1" t="s">
         <v>42</v>
@@ -14708,41 +14711,41 @@
       <c r="D153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>43</v>
+      <c r="E153" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>43</v>
+      <c r="G153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>43</v>
@@ -14756,17 +14759,17 @@
       <c r="T153" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W153" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X153" s="2" t="s">
-        <v>43</v>
+      <c r="U153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Y153" s="2" t="s">
         <v>43</v>
@@ -14794,14 +14797,14 @@
       <c r="C154" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>43</v>
+      <c r="D154" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>43</v>
+      <c r="F154" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>43</v>
@@ -14870,6 +14873,95 @@
         <v>43</v>
       </c>
       <c r="AC154" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="B155" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC155" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14888,12 +14980,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="332">
   <si>
     <t>User Right</t>
   </si>
@@ -273,6 +273,9 @@
     <t>Delete person contact details</t>
   </si>
   <si>
+    <t>PERSON_EXPORT</t>
+  </si>
+  <si>
     <t>SAMPLE_CREATE</t>
   </si>
   <si>
@@ -1005,7 +1008,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.63.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD155"/>
+  <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3578,37 +3581,37 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>42</v>
+      <c r="G28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>43</v>
@@ -3616,11 +3619,11 @@
       <c r="N28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>42</v>
+      <c r="O28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>43</v>
@@ -3634,8 +3637,8 @@
       <c r="T28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>42</v>
+      <c r="U28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>43</v>
@@ -3664,11 +3667,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
@@ -3699,11 +3702,11 @@
       <c r="L29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>42</v>
+      <c r="M29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>42</v>
@@ -3711,17 +3714,17 @@
       <c r="P29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>42</v>
+      <c r="Q29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>42</v>
@@ -3753,11 +3756,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3788,11 +3791,11 @@
       <c r="L30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>43</v>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>42</v>
@@ -3803,14 +3806,14 @@
       <c r="Q30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>43</v>
+      <c r="R30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>42</v>
@@ -3842,16 +3845,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>43</v>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>42</v>
@@ -3859,23 +3862,23 @@
       <c r="F31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>43</v>
+      <c r="G31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
